--- a/outputs/excel/copernicus_climate.xlsx
+++ b/outputs/excel/copernicus_climate.xlsx
@@ -496,15 +496,97 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>reanalysis-era5-pressure-levels</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ERA5 hourly data on pressure levels from 1940 to present</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
+Data is available from 1940 onwards.
+ERA5 replaces the ERA-Interim reanalysis.
+Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where every so many hours (12 hours at ECMWF) a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved versions of the original observations, which all benefit the quality of the reanalysis product.
+ERA5 provides hourly estimates for a large number of atmospheric, ocean-wave and land-surface quantities.
+An uncertainty estimate is sampled by an underlying 10-member ensemble
+at three-hourly intervals. Ensemble mean and spread have been pre-computed for convenience.
+Such uncertainty estimates are closely related to the information content of the available observing system which
+has evolved considerably over time. They also indicate flow-dependent sensitive areas.
+To facilitate many climate applications, monthly-mean averages have been pre-calculated too,
+though monthly means are not available for the ensemble mean and spread.
+ERA5 is updated daily with a latency of about 5 days. In case that serious flaws are detected in this early release (called ERA5T), this data could be different from the final release 2 to 3 months later. In case that this occurs users are notified.
+The data set presented here is a regridded subset of the full ERA5 data set on native resolution.
+It is online on spinning disk, which should ensure fast and easy access.
+It should satisfy the requirements for most common applications.
+An overview of all ERA5 datasets can be found in this article.
+Information on access to ERA5 data on native resolution is provided in these guidelines.
+Data has been regridded to a regular lat-lon grid of 0.25 degrees for the reanalysis and 0.5 degrees for
+the uncertainty estimate (0.5 and 1 degree respectively for ocean waves).
+There are four main sub sets: hourly and monthly products, both on pressure levels (upper air fields) and single levels (atmospheric, ocean-wave and land surface quantities).
+The present entry is "ERA5 hourly data on pressure levels from 1940 to present".</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-02-02T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L2" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-pressure-levels/overview_652fd83a7b2ed724ce541e563beff9c4484c3482bc08334a638a4bc47ae4cf0f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>reanalysis-era5-single-levels</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>ERA5 hourly data on single levels from 1940 to present</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
 Data is available from 1940 onwards.
@@ -529,64 +611,129 @@
 The present entry is "ERA5 hourly data on single levels from 1940 to present".</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-02-02T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K3" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L3" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-single-levels/overview_c37c9fd3b18a36a2c656bb4541d37c3bb8a08d2d9ef6708227b87cb47e90a873.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>reanalysis-era5-land</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ERA5-Land hourly data from 1950 to present</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to ERA5. ERA5-Land has been produced by replaying the land component of the ECMWF ERA5 climate reanalysis. Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. Reanalysis produces data that goes several decades back in time, providing an accurate description of the climate of the past. 
+ERA5-Land uses as input to control the simulated land fields ERA5 atmospheric variables, such as air temperature and air humidity. This is called the atmospheric forcing. Without the constraint of the atmospheric forcing, the model-based estimates can rapidly deviate from reality. Therefore, while observations are not directly used in the production of ERA5-Land, they have an indirect influence through the atmospheric forcing used to run the simulation. In addition, the input air temperature, air humidity and pressure used to run ERA5-Land are corrected to account for the altitude difference between the grid of the forcing and the higher resolution grid of ERA5-Land. This correction is called 'lapse rate correction'.    
+The ERA5-Land dataset, as any other simulation, provides estimates which have some degree of uncertainty. Numerical models can only provide a more or less accurate representation of the real physical processes governing different components of the Earth System. In general, the uncertainty of model estimates grows as we go back in time, because the number of observations available to create a good quality atmospheric forcing is lower. ERA5-land parameter fields can currently be used in combination with the uncertainty of the equivalent ERA5 fields. 
+The temporal and spatial resolutions of ERA5-Land makes this dataset very useful for all kind of land surface applications such as flood or drought forecasting. The temporal and spatial resolution of this dataset, the period covered in time, as well as the fixed grid used for the data distribution at any period enables decisions makers, businesses and individuals to access and use more accurate information on land states.</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-land'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2026-02-02T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L4" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-land/overview_b1aff34cd85b75516f935463b89486af284bdeb61afeb565d6e5d273bcfb4ac6.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
         <is>
           <t>reanalysis-era5-single-levels-timeseries</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D5" t="inlineStr">
         <is>
           <t>ERA5 hourly time-series data on single levels from 1940 to present</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
 Data is available from 1940 onwards. ERA5 replaces the ERA-Interim reanalysis.
@@ -604,64 +751,268 @@
 Information on access to ERA5 data on native resolution is provided in these guidelines.</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-single-levels-timeseries'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="G5" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="H5" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-180.0, -89.0, 180.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2024-12-06T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-single-levels-timeseries/overview_d9a171109cee68a5dab12ba883fe32b5867f52ca4d64e9f6d5b6f25998d4735c.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>derived-era5-pressure-levels-daily-statistics</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ERA5 post-processed daily statistics on pressure levels from 1940 to present</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
+Data is available from 1940 onwards.
+ERA5 replaces the ERA-Interim reanalysis.
+Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where every so many hours (12 hours at ECMWF) a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved versions of the original observations, which all benefit the quality of the reanalysis product.
+This catalogue entry provides post-processed ERA5 hourly pressure-level data aggregated to daily time steps.  In addition to the data selection options found on the hourly page, the following options can be selected for the daily statistic calculation:
+The daily aggregation statistic (daily mean, daily max, daily min)
+The sub-daily frequency sampling of the original data (1 hour, 3 hours, 6 hours)
+The option to shift to any local time zone in UTC (no shift means the statistic is computed from UTC+00:00)
+Users should be aware that the daily aggregation is calculated during the retrieval process and is not part of a permanently archived dataset. For more details on how the daily statistics are calculated, including demonstrative code,  please see the documentation.
+For more details on the hourly data used to calculate the daily statistics, please refer to the ERA5 hourly pressure-level data catalogue entry and the documentation found therein.</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-era5-pressure-levels-daily-statistics'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L6" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-era5-pressure-levels-daily-statistics/overview_e28f72b6546b38a861b557b9226de6d4045d8e4e36bc5beaa9e43cbd4dd81363.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>sis-agrometeorological-indicators</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Agrometeorological indicators from 1979 to present derived from reanalysis</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>This dataset provides daily surface meteorological data for the period from 1979 to present as input for agriculture and agro-ecological studies. This dataset is based on the hourly ECMWF ERA5 data at surface level and is referred to as AgERA5. Acquisition and pre-processing of the original ERA5 data is a complex and specialized job. By providing the AgERA5 dataset, users are freed from this work and can directly start with meaningful input for their analyses and modelling. To this end, the variables provided in this dataset match the input needs of most agriculture and agro-ecological models.
+Data were aggregated to daily time steps at the local time zone and corrected towards a finer topography at a 0.1° spatial resolution. The correction to the 0.1° grid was realized by applying grid and variable-specific regression equations to the ERA5 dataset interpolated at 0.1° grid. The equations were trained on ECMWF's operational high-resolution atmospheric model (HRES) at a 0.1° resolution. This way the data is tuned to the finer topography, finer land use pattern and finer land-sea delineation of the ECMWF HRES model.
+The data was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-agrometeorological-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Sector: Agriculture']</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2026-01-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-agrometeorological-indicators/overview_cce4a251dffbd34931623510f3c35fe07173988da243008709e08a96297172b9.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>derived-utci-historical</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Thermal comfort indices derived from ERA5 reanalysis</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>This dataset provides a complete historical reconstruction for a set of indices representing human thermal stress and discomfort in outdoor conditions. This dataset, also known as ERA5-HEAT (Human thErmAl comforT) represents the current state-of-the-art for bioclimatology data record production.
+The dataset is organised around two main variables:
+the mean radiant temperature (MRT)
+the universal thermal climate index (UTCI)
+These variables describe how the human body experiences atmospheric conditions, specifically air temperature, humidity, ventilation and radiation.
+The dataset is computed using the ERA5 reanalysis from the European Centre for Medium-Range Forecasts (ECMWF). ERA5 combines model data with observations from across the world to provide a globally complete and consistent description of the Earth’s climate and its evolution in recent decades. ERA5 is regarded as a good proxy for observed atmospheric conditions.
+The dataset currently covers 01/01/1940 to near real time and is regularly extended as ERA5 data become available.
+The dataset is produced by the European Centre for Medium-range Weather Forecasts.</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-utci-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -60.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1939-12-01T00:00:00Z', '2026-02-02T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-utci-historical/overview_67efa41f6b71502f2884c803b25437e4ac764e2b462945cfc5488eb49d1619d7.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>derived-era5-single-levels-daily-statistics</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>ERA5 post-processed daily statistics on single levels from 1940 to present</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
 Data is available from 1940 onwards.
@@ -676,282 +1027,64 @@
 For more details on the hourly data used to calculate the daily statistics, please refer to the ERA5 hourly single-level data catalogue entry and the documentation found therein.</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-era5-single-levels-daily-statistics'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J4" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-era5-single-levels-daily-statistics/overview_593e6a72773f0dd1e6b665ff4fe2e184f1cd7b175c143e28caa61c569fe82dd3.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>reanalysis-era5-pressure-levels</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>ERA5 hourly data on pressure levels from 1940 to present</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
-Data is available from 1940 onwards.
-ERA5 replaces the ERA-Interim reanalysis.
-Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where every so many hours (12 hours at ECMWF) a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved versions of the original observations, which all benefit the quality of the reanalysis product.
-ERA5 provides hourly estimates for a large number of atmospheric, ocean-wave and land-surface quantities.
-An uncertainty estimate is sampled by an underlying 10-member ensemble
-at three-hourly intervals. Ensemble mean and spread have been pre-computed for convenience.
-Such uncertainty estimates are closely related to the information content of the available observing system which
-has evolved considerably over time. They also indicate flow-dependent sensitive areas.
-To facilitate many climate applications, monthly-mean averages have been pre-calculated too,
-though monthly means are not available for the ensemble mean and spread.
-ERA5 is updated daily with a latency of about 5 days. In case that serious flaws are detected in this early release (called ERA5T), this data could be different from the final release 2 to 3 months later. In case that this occurs users are notified.
-The data set presented here is a regridded subset of the full ERA5 data set on native resolution.
-It is online on spinning disk, which should ensure fast and easy access.
-It should satisfy the requirements for most common applications.
-An overview of all ERA5 datasets can be found in this article.
-Information on access to ERA5 data on native resolution is provided in these guidelines.
-Data has been regridded to a regular lat-lon grid of 0.25 degrees for the reanalysis and 0.5 degrees for
-the uncertainty estimate (0.5 and 1 degree respectively for ocean waves).
-There are four main sub sets: hourly and monthly products, both on pressure levels (upper air fields) and single levels (atmospheric, ocean-wave and land surface quantities).
-The present entry is "ERA5 hourly data on pressure levels from 1940 to present".</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-pressure-levels/overview_652fd83a7b2ed724ce541e563beff9c4484c3482bc08334a638a4bc47ae4cf0f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>derived-era5-pressure-levels-daily-statistics</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>ERA5 post-processed daily statistics on pressure levels from 1940 to present</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
-Data is available from 1940 onwards.
-ERA5 replaces the ERA-Interim reanalysis.
-Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where every so many hours (12 hours at ECMWF) a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved versions of the original observations, which all benefit the quality of the reanalysis product.
-This catalogue entry provides post-processed ERA5 hourly pressure-level data aggregated to daily time steps.  In addition to the data selection options found on the hourly page, the following options can be selected for the daily statistic calculation:
-The daily aggregation statistic (daily mean, daily max, daily min)
-The sub-daily frequency sampling of the original data (1 hour, 3 hours, 6 hours)
-The option to shift to any local time zone in UTC (no shift means the statistic is computed from UTC+00:00)
-Users should be aware that the daily aggregation is calculated during the retrieval process and is not part of a permanently archived dataset. For more details on how the daily statistics are calculated, including demonstrative code,  please see the documentation.
-For more details on the hourly data used to calculate the daily statistics, please refer to the ERA5 hourly pressure-level data catalogue entry and the documentation found therein.</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-era5-pressure-levels-daily-statistics'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-era5-pressure-levels-daily-statistics/overview_e28f72b6546b38a861b557b9226de6d4045d8e4e36bc5beaa9e43cbd4dd81363.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>reanalysis-era5-land</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>ERA5-Land hourly data from 1950 to present</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to ERA5. ERA5-Land has been produced by replaying the land component of the ECMWF ERA5 climate reanalysis. Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. Reanalysis produces data that goes several decades back in time, providing an accurate description of the climate of the past. 
-ERA5-Land uses as input to control the simulated land fields ERA5 atmospheric variables, such as air temperature and air humidity. This is called the atmospheric forcing. Without the constraint of the atmospheric forcing, the model-based estimates can rapidly deviate from reality. Therefore, while observations are not directly used in the production of ERA5-Land, they have an indirect influence through the atmospheric forcing used to run the simulation. In addition, the input air temperature, air humidity and pressure used to run ERA5-Land are corrected to account for the altitude difference between the grid of the forcing and the higher resolution grid of ERA5-Land. This correction is called 'lapse rate correction'.    
-The ERA5-Land dataset, as any other simulation, provides estimates which have some degree of uncertainty. Numerical models can only provide a more or less accurate representation of the real physical processes governing different components of the Earth System. In general, the uncertainty of model estimates grows as we go back in time, because the number of observations available to create a good quality atmospheric forcing is lower. ERA5-land parameter fields can currently be used in combination with the uncertainty of the equivalent ERA5 fields. 
-The temporal and spatial resolutions of ERA5-Land makes this dataset very useful for all kind of land surface applications such as flood or drought forecasting. The temporal and spatial resolution of this dataset, the period covered in time, as well as the fixed grid used for the data distribution at any period enables decisions makers, businesses and individuals to access and use more accurate information on land states.</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-land'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2026-01-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-land/overview_b1aff34cd85b75516f935463b89486af284bdeb61afeb565d6e5d273bcfb4ac6.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
         <is>
           <t>reanalysis-era5-land-timeseries</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>ERA5 Land hourly time-series data from 1950 to present</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to the 
 Fifth Generation of the European Centre for Medium-Range Weather Forecasts (ECMWF) Reanalysis (ERA5).
@@ -974,173 +1107,39 @@
 When a user’s requested location does not exactly match a grid point, the nearest grid point is automatically selected. This optimised data source ensures rapid response times.</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-land-timeseries'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J8" t="inlineStr">
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-180.0, -89.0, 180.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2026-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-land-timeseries/overview_822e6553dc049058d8147471c52249fc5f0b1e2835136654411ed93c440d014a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>derived-utci-historical</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Thermal comfort indices derived from ERA5 reanalysis</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>This dataset provides a complete historical reconstruction for a set of indices representing human thermal stress and discomfort in outdoor conditions. This dataset, also known as ERA5-HEAT (Human thErmAl comforT) represents the current state-of-the-art for bioclimatology data record production.
-The dataset is organised around two main variables:
-the mean radiant temperature (MRT)
-the universal thermal climate index (UTCI)
-These variables describe how the human body experiences atmospheric conditions, specifically air temperature, humidity, ventilation and radiation.
-The dataset is computed using the ERA5 reanalysis from the European Centre for Medium-Range Forecasts (ECMWF). ERA5 combines model data with observations from across the world to provide a globally complete and consistent description of the Earth’s climate and its evolution in recent decades. ERA5 is regarded as a good proxy for observed atmospheric conditions.
-The dataset currently covers 01/01/1940 to near real time and is regularly extended as ERA5 data become available.
-The dataset is produced by the European Centre for Medium-range Weather Forecasts.</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-utci-historical'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -60.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1939-12-01T00:00:00Z', '2026-01-29T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-utci-historical/overview_67efa41f6b71502f2884c803b25437e4ac764e2b462945cfc5488eb49d1619d7.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>derived-gridded-glacier-mass-change</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Glacier mass change gridded data from 1976 to present derived from the Fluctuations of Glaciers Database</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>The dataset provides global annual glacier mass changes distributed on a global regular grid at 0.5° resolution (latitude, longitude) based on the Fluctuations of Glaciers (FoG) database of the World Glacier Monitoring Service (WGMS). Glaciers play a fundamental role in the Earth’s water cycles. They are one of the most important freshwater resources for societies and ecosystems and the recent increase in ice melt contributes directly to the rise of ocean levels. Due to this they have been declared as an Essential Climate Variable (ECV) by GCOS, the Global Climate Observing System. Within the Copernicus Services, the global gridded annual glacier mass change dataset provides information on changing glacier resources by combining glacier change observations from the Fluctuations of Glaciers (FoG) database that is brokered from World Glacier Monitoring Service (WGMS).
-Inspired by previous methodological frameworks, a new approach was developed to combine the glacier mass balance and elevation change observations, providing a new and unique product of annual glacier mass change and related uncertainties for every hydrological year since 1975/76 distributed on a 0.5° global regular grid. The present dataset bridges the gap regarding the spatio-temporal coverage of glacier change observations, providing for the first time in the Copernicus Climate Change Service (C3S) Climate Data Store (CDS) an annually resolved glacier mass change product using the glacier elevation change sample as calibration. This goal has become feasible at the global scale thanks to a new globally near-complete (96% of the world glaciers) dataset of glacier elevation change observations ingested by the FoG database.
-To develop the distributed glacier change product, the use of glacier outlines from the C3S Glacier Area product version 2 are used. A glacier is considered to belong to a grid-point when its geometric centroid lies within the grid point. The centroid is obtained from the glacier outlines from the C3S Glacier Area product version 2. The glacier changes in Gt correspond to the total mass of water lost/gained over the glacier surface during a given year. Note that to propagate to mm/cm/m of water column on the grid cell, the grid cell area needs to be considered. Note that hydrological year vary on the Southern Hemisphere (October to September next year) and Northern Hemispheres (April to March next year). The annual distributed glacier change dataset cannot resolve for this seasonal difference and is important for the user to account for them when using the datasets. This issue can only be resolved with a monthly distributed glacier change product.
-This dataset has been produced by researchers at the WGMS on behalf of Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-gridded-glacier-mass-change'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/derived-gridded-glacier-mass-change?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (cryosphere)', 'Product type: Satellite observations', 'Product type: In-situ observations']</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I10" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[179.75, -89.75, 179.75, 89.75]]}, 'temporal': {'interval': [['1975-01-01T00:00:00Z', None]]}}</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-gridded-glacier-mass-change/overview_e83c869dab0a0835ec4b89fb679ac5fc028c1d4d72ff8d501b4bc810b31b403d.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -1157,1409 +1156,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>sis-agrometeorological-indicators</t>
+          <t>seasonal-monthly-ocean</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Agrometeorological indicators from 1979 to present derived from reanalysis</t>
+          <t>Seasonal forecast monthly averages of ocean variables</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
-        <is>
-          <t>This dataset provides daily surface meteorological data for the period from 1979 to present as input for agriculture and agro-ecological studies. This dataset is based on the hourly ECMWF ERA5 data at surface level and is referred to as AgERA5. Acquisition and pre-processing of the original ERA5 data is a complex and specialized job. By providing the AgERA5 dataset, users are freed from this work and can directly start with meaningful input for their analyses and modelling. To this end, the variables provided in this dataset match the input needs of most agriculture and agro-ecological models.
-Data were aggregated to daily time steps at the local time zone and corrected towards a finer topography at a 0.1° spatial resolution. The correction to the 0.1° grid was realized by applying grid and variable-specific regression equations to the ERA5 dataset interpolated at 0.1° grid. The equations were trained on ECMWF's operational high-resolution atmospheric model (HRES) at a 0.1° resolution. This way the data is tuned to the finer topography, finer land use pattern and finer land-sea delineation of the ECMWF HRES model.
-The data was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-agrometeorological-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Sector: Agriculture']</t>
-        </is>
-      </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I11" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J11" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2026-01-26T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L11" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-agrometeorological-indicators/overview_cce4a251dffbd34931623510f3c35fe07173988da243008709e08a96297172b9.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>satellite-sea-level-global</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Sea level gridded data from satellite observations for the global ocean from 1993 to present</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>This dataset provides gridded daily and monthly mean global estimates of sea level anomaly based on satellite altimetry measurements. The rise in global mean sea level in recent decades has been one of the most important and well-known consequences of climate warming, putting a large fraction of the world population and economic infrastructure at greater risk of flooding. However, changes in the global average sea level mask regional variations that can be one order of magnitude larger. Therefore, it is essential to measure changes in sea level over the world’s oceans as accurately as possible.
-Sea level anomaly is defined as the height of water over the mean sea surface in a given time and region. In this dataset sea level anomalies are computed with respect to a twenty-year mean reference period (1993-2012) using up-to-date altimeter standards.
-In the past, the altimeter sea level datasets were distributed on the CNES AVISO altimetry portal until their production was taken over by the Copernicus Marine Environment Monitoring Service (CMEMS) and the Copernicus Climate Change Service (C3S) in 2015 and 2016 respectively.
-The sea level dataset provided here by C3S is climate-oriented, that is, dedicated to the monitoring of the long-term evolution of sea level and the analysis of the ocean/climate indicators, both requiring a homogeneous and stable sea level record. To achieve this, a steady two-satellite merged constellation is used at all time steps in the production system: one satellite serves as reference and ensures the long-term stability of the data record; the other satellite (which varies across the record) is used to improve accuracy, sample mesoscale processes and provide coverage at high latitudes. The C3S sea level dataset is used to produce Ocean Monitoring Indicators (e.g. global and regional mean sea level evolution), available in the CMEMS catalogue.
-The CMEMS sea level dataset has a more operational focus as it is dedicated to the retrieval of mesoscale signals in the context of ocean modeling and analysis of the ocean circulation on a global or regional scale. Such applications require the most accurate sea level estimates at each time step with the best spatial sampling of the ocean with all satellites available, with less emphasis on long-term stability and homogeneity.
-This dataset is updated three times a year with a delay of about 5 months relative to present time. This delay is mainly due to the timeliness of the input data, the centred processing temporal window and the validation process. However, these processing and validation steps are essential to enhance the stability and accuracy of the sea level products and make them suitable for climate applications.
-This dataset includes estimates of sea level anomaly and absolute dynamic topography together with the corresponding geostrophic velocities, which provide an approximation of the ocean surface currents. More details about these variables, the sea level retrieval algorithms, additional filters, optimisation procedures, and the error estimation can be found in the documentation.</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-level-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-level-global?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Provider: Copernicus C3S', 'Variable domain: Ocean (physics)']</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1993-01-01T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-level-global/overview_d2978dd5f23908030e4baf6c4427554ee3d8b3c4f4420366c915d24f767cd0eb.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>reanalysis-carra-pressure-levels</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Arctic regional reanalysis on pressure levels from 1991 to present</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric pressure level meteorological variables (temperature, humidity, wind, and other thermodynamic variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
-The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
-The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
-The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
-More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
-        </is>
-      </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J13" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-pressure-levels/overview_2fe93a87f5415de88b47a4d91ce5f05485b2893eef75ba306876f4b09d422ffe.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>reanalysis-carra-single-levels</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Arctic regional reanalysis on single levels from 1991 to present</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains 3-hourly analyses and hourly short term forecasts of atmospheric and surface meteorological variables (surface and near-surface temperature, surface and top of atmosphere fluxes, precipitation, cloud, humidity, wind,  pressure, snow and sea variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
-The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
-The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because the climate change is more pronounced in the Arctic region than elsewhere in the Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
-The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where less observations are available.
-More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-single-levels/overview_8e4c8ccf15929a4b7c88f06d965ef1b809917c49b7f733bf2d1091d7fa08fbe1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>reanalysis-carra-model-levels</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Arctic regional reanalysis on model levels from 1991 to present</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric model level meteorological variables (temperature, humidity, wind, cloud, precipitation and turbulent kinetic energy) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
-The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
-The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere in on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
-The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
-More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-model-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-model-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-model-levels/overview_9067d7a00495ca5711ca0133b189e2b62589dd3ffb7d5926e2758c0f193acdff.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>reanalysis-carra-height-levels</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Arctic regional reanalysis on height levels from 1991 to present</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric height level meteorological variables (temperature, humidity, wind, and other thermodynamic variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
-The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
-The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
-The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
-More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-height-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-height-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-height-levels/overview_3c89b83d1b8d2a2c47f7083e0524cf6706772bc19c5f5ba90ee1f529223c9e58.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>satellite-sea-ice-concentration</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Sea ice concentration from 1978 to present derived from satellite observations</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>This dataset provides daily gridded data of sea ice concentration for both hemispheres derived from satellite passive microwave brightness temperatures. Sea ice is an important component of our climate system and a sensitive indicator of climate change. Its presence or its retreat has a strong impact on air-sea interactions, the Earth’s energy budget as well as marine ecosystems. It is recognised by the Global Climate Observing System as an Essential Climate Variable. Sea ice concentration is defined as the fraction of a pixel or grid cell in a satellite image or other gridded product that is covered with sea ice. It is one of the parameters commonly used to characterise sea ice. Other sea ice parameters include sea ice thickness, sea ice edge, and sea ice type, also available in the Climate Data Store.
-The dataset consists of two products:
-The Global Sea Ice Concentration Climate Data Record produced by the European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT) Ocean and Sea Ice Satellite Application Facility (OSI SAF). This is a coarse-resolution product based on measurements from the following sensors: Scanning Multichannel Microwave Radiometer (SMMR; 1979–1987), Special Sensor Microwave/Imager (SSM/I; 1987–2006), and Special Sensor Microwave Imager/Sounder (SSMIS; 2005 onward). This product spans the period from 1979 to 2025. In the following, it is referred to as the SSMIS product.
-The Global Sea Ice Concentration Climate Data Record produced by the European Space Agency Climate Change Initiative Phase 2 project (ESA CCI). This is a medium-resolution product based on measurements from the Advanced Microwave Scanning Radiometer - Earth Observing System (AMSR-E) sensor (2002–2011) and its successor, AMSR2 (2012–2020). This product spans the 2002–2020 period and is not updated. In the following, it is referred to as the AMSR product.
-Both products are provided on the same polar projection with a grid resolution of 25 km. However, the AMSR product has a true spatial resolution (as resolved by the sensor) of about 15–25 km versus 30–60 km for the SSMIS product. Therefore, the AMSR product provides a much more detailed view of the sea ice cover than the SSMIS product, especially along the marginal ice zone, the transitional zone between open water and the dense sea ice pack. On the other hand, the clear strength of the SSMIS product is its more than 40-year long and consistent record.
-Although originating from different projects, the two products share the same algorithm baseline, which is both a continuation of the EUMETSAT OSI SAF approach and a series of innovations contributed mostly by ESA CCI activities. For both products, the underlying algorithm makes use of a combination of the same three temperature channels near 19 GHz and 37 GHz. The data also share a common data format so that interested users can revert some of the filtering steps and access the raw output of the SIC algorithms. Both are level-4 products in the sense that gaps are filled by temporal and spatial interpolation. However, gap filling is not applied to fill in days when no input satellite data are available.
-Further details about each product can be found below as well as in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-ice-concentration'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-10-01T00:00:00Z', '2025-09-29T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-ice-concentration/overview_6ec7fdacddea9a2e146d2aad340e99ad5cb16ac50c901abf92643b046e611e73.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>satellite-soil-moisture</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Soil moisture gridded data from 1978 to present</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>The C3S satellite soil moisture (SM) service provides a range of global soil moisture variables derived from numerous satellite sensors, including scatterometers and radiometers. The products are designed primarily for applications related to climate variability and change, land–atmosphere interactions, global biogeochemical cycles, ecology, hydrological and land surface modelling, drought monitoring, and meteorology. 
-All C3S SM data are based on algorithms and scientific methods developed within the ESA Climate Change Initiative for Soil Moisture (ESA CCI SM) programme. They represent the current state of the art in the production of satellite-based soil moisture climate data records and comply with the Systematic Observation Requirements for Satellite-Based Products for Climate defined by the Global Climate Observing System (GCOS). The data are provided on a regular latitude–longitude grid, with potential gaps in space and time due to missing satellite overpasses. 
-In satellite-based climate datasets, it is common to distinguish between Climate Data Records (CDR) and Interim Climate Data Records (ICDR). In this dataset, both the CDR and ICDR components are generated using the same software and algorithms. The CDR provides sufficiently long, consistent, and continuous time series suitable for detecting climate variability and change. The ICDR offers short-latency access to near-real-time data, with consistency maintained relative to the CDR baseline. 
-Available Products: 
-- Surface Soil Moisture (SSM) combines observations different sources. C3S SM provides separate ACTIVE (multi-scatterometer) and PASSIVE (multi-radiometer) - products, as well as a COMBINED product that merges all available satellite input sources to achieve the highest possible data quality. The COMBINED dataset is recommended for most applications.
-- Root-Zone Soil Moisture (RZSM) uses the COMBINED SSM product as input together with a water infiltration model to estimate moisture in multiple depth layers within the plant root zone (0–10, 10–40, 40–100, and 0–100 cm). RZSM is commonly preferred over SSM for drought and large-scale agricultural applications.
-- Freeze/Thaw (F/T) provides a binary classification of the surface soil moisture state (frozen or unfrozen) based on K-band radiometer brightness temperatures.
-This dataset is produced on behalf of the Copernicus Climate Change Service (C3S) by TU Wien, Planet, and EODC GmbH.</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-soil-moisture'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-soil-moisture?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Product type: Satellite observations', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-11-01T00:00:00Z', '2026-01-10T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-soil-moisture/overview_2608b02ec723746fb179c05e97c0c5bd33ac314dbf17d18456c194c9e32f33e6.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>derived-drought-historical-monthly</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Monthly drought indices from 1940 to present derived from ERA5 reanalysis</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ERA5–Drought is a global reconstruction of drought indices from 1940 to present.
-The dataset comprises two standardised drought indices:
-- the Standardised Precipitation Index (SPI)
-- the Standardised Precipitation-Evapotranspiration Index (SPEI).
-The SPI measures the precipitation deficit that accumulated over the preceding months and evaluates the deficit with respect to a reference period. The SPEI is an extension of the SPI and incorporates potential evapotranspiration to capture the impact of temperature on drought. SPI and SPEI values are in units of standard deviation from the standardised mean, i.e., negative values indicate drier-than-usual periods while positive values correspond to wetter-than-usual periods. Both indices can be used to identify the onset and the end of drought events as well as their severity.
-In ERA5–Drought, SPI and SPEI are calculated using precipitation and potential evapotranspiration from the fifth generation of the European Centre for Medium-Range Weather Forecasts (ECMWF) atmospheric reanalyses (ERA5). ERA5 combines model data with observations from across the world to provide a globally complete and consistent description of the atmosphere. Drought indices are calculated for a range of accumulation windows (1/3/6/12/24/36/48 months) using the reference period from 1991–2020. All data is regridded to a regular grid of 0.25 degrees, making it suitable for many common applications. SPI and SPEI are calculated using both the ERA5 reanalysis (single realisation from the monthly means of daily means(moda) stream) and the ensemble of the reanalysis (10 realisations from the monthly means of daily means for ensemble members (edmo) stream), enabling uncertainty assessment of drought occurrence and intensity. The quality of the derived indices is evaluated using significance testing. 
-The dataset currently covers 1940 to near-real time and is updated monthly. The consolidated data set is updated 2-3 months behind real time, while the intermediate data set is updated with 1 month of delay. New versions of the dataset are published as settings, such as the reference period, are updated or bug fixes are applied. Bug Fixes will be released using a minor revision (i.e. v1.1), while changes to the reference period will be released as major revisions (i.e. v2.0). Bug Fixes will be published to the Known Issues area on the Documentation tab.
-A more detailed description of the ERA5–Drought dataset and comparisons to other drought indices can be found in the associated dataset paper (see Documentation Tab). Information on access and usage examples, e.g. to calculate the area in drought, are provided in these guidelines.
-The dataset is produced by ECMWF.</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-drought-historical-monthly'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)', 'Provider: ECMWF', 'Product type: Climate indices']</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I19" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-179.8, -89.8, 179.8, 83.8]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-drought-historical-monthly/overview_2c8789648a39830eb2cf46d8a5cb2be6e16833c76135b429523c331ec34d41c5.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>satellite-upper-troposphere-humidity</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Upper tropospheric humidity gridded data derived from satellite observations</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>Upper Tropospheric Humidity (UTH) is of key importance to the Earth’s greenhouse effect and understanding of climate change. It is considered an Essential Climate Variable  (ECV) because it controls key atmospheric processes, including those involved in water vapour and cloud feedbacks, that can amplify the climate system’s response to increases in other greenhouse gases. The Upper Tropospheric Humidity is defined as the integrated amount of Water Vapour in the atmospheric layer between ~500 hPa and ~200 hPa. 
-The Upper Tropospheric Humidity product consists of two editions: the UTH Thematic Climate Data Record (TCDR) and its extension in time Interim Climate Data Record (ICDR) Edition 1.0 on the one hand, the UTH Thematic Climate Data Record Edition 2.0 on the other hand.
-The UTH TCDR and ICDR Edition 1.0 are derived from observations from the AMSU-B and MHS microwave humidity sounder instruments on board the NOAA- and MetOp- satellite series. Instantaneous satellite observations are used to derive a spatio-temporal averaged data record. The data are available as twice daily (one for the ascending and the other for the descending passes) averages on a regular latitude/longitude grid. Additionally, the daily mean UTH is provided as a weighted average of ascending and descending orbits for all the grid points with valid ascending and descending observations.
-The UTH TCDR Edition 2.0 is a daily mean product computed from all available hourly observations for each grid cell. It relies on substantially improved retrievals and uncertainty estimates due to the inclusion of the additional sensors SSM/T-2 and ATMS on board the DMSP- satellite series and the S-NPP satellite respectively.
-UTH is part of the Water Vapour ECV inventory in the Climate Data Store (CDS) together with Total Column Water Vapour and Tropospheric Humidity Profiles. Both TCDR components are brokered to the CDS and were originally produced on behalf of EUMETSAT Satellite Application Facility on Climate Monitoring (CMSAF) by the UK Met Office. The ICDR component has been delivered directly to the CDS and was originally produced on behalf of the Copernicus Climate Change Service (C3S) by the UK Met Office.</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-upper-troposphere-humidity'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Provider: EUMETSAT SAF']</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1994-07-05T00:00:00Z', '2021-02-28T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-upper-troposphere-humidity/overview_12212325e7ad472dd64dae368b17ecd6c16da0c12c86e56844e55e79cfb2ff17.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>sis-energy-derived-reanalysis</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Climate and energy indicators for Europe from 1979 to present derived from reanalysis</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>The Copernicus climate change service (C3S) operational energy dataset provides climate and energy indicators for the European energy sector. The climate-relevant indicators for the energy sector considered are: air temperature, precipitation, incoming solar radiation, wind speed at 10 m and 100 m, and mean sea level air pressure. The energy indicators are electricity demand and power generation from various sources: wind (both onshore and offshore), solar and hydro (run-of-river and reservoir) power. Depending on the indicator, the data are available at the national, regional and grid (approximately 30x30 km) level for most European countries. The spatial aggregation of data over land uses the Eurostat NUTS0 &amp; NUTS2 (Nomenclature des unités territoriales statistiques, 2016) regions. The offshore variables (e.g. offshore wind power) use the European maritime region definitions MAR0 and MAR1. Further information on the NUTS and MAR regions can be found in the documentation.
-The C3S Energy operational service is composed of three main streams: historical (1979-present), seasonal forecasts and projections (typically covering the period 1970-2100). This historical dataset (1979-present) produces reference climate variables based on the ERA5 reanalysis. Energy variables are generated by transforming the climate variables using a combination of statistical models and physically based data. A comprehensive set of measured energy supply and demand data has been collected from various sources such as the European Network of Transmission System Operators (ENTSO-E). These data provide a crucial reference to assess the robustness of the models used to convert climate into electric energy variables.
-Data is provided for the European domain, in a multi-variable, multi-timescale view of the climate and energy systems. This is beneficial in anticipating important climate-driven changes in the energy sector, through either long-term planning or medium-term operational activities. This is also used to investigate the role of temperature on electricity demand across Europe, as well as its interaction with the variability of renewable energy generation.</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-energy-derived-reanalysis'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (surface)', 'Sector: Energy']</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-22.0, 27.0, 45.0, 72.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-energy-derived-reanalysis/overview_34530eb3255b5bbd1eef88ad8397b6d5e0b45c67e08e29b1574747cdb9a2ff2b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>satellite-greenland-ice-sheet-velocity</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Ice sheet velocity for Antarctica and Greenland derived from satellite observations</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>This dataset provides annual ice velocity maps of the Greenland and Antarctic Ice Sheets derived from Sentinel-1 data. The product represents the current state-of-the-art in Europe for satellite-based ice velocity data records. It follows from the European Space Agency (ESA) Climate Change Initiative (CCI) and is guided by the Global Climate Observing System (GCOS) targets for the Ice Sheets Essential Climate Variable (ECV).
-Mapping ice flow velocity and its temporal changes provides key information for investigating the dynamic response of glaciers and ice sheets to changing environmental conditions and the contribution to global sea level rise. Remote sensing techniques that utilise satellite data are the only feasible manner to derive accurate surface velocities of the Greenland and Antarctic Ice Sheets on a regular basis.
-The ice velocity is derived by applying feature tracking techniques using repeat-pass Sentinel-1 Synthetic Aperture Radar (SAR) data acquired in Interferometric Wide (IW) swath mode. Ice velocity is provided at 250m (Greenland) or 200m (Antarctica) grid spacing in Polar Stereographic Projection. The horizontal velocity components are provided in meters per day, towards easting and northing direction of the grid. The vertical displacement is derived from a digital elevation model (DEM). Provided is a NetCDF file with gridded maps representing the horizontal and vertical velocity components, along with maps showing the magnitude of velocity, valid pixel count and uncertainty (standard deviation). The product combines multiple ice velocity maps, derived from 6- and 12-day repeat SAR data acquired over a full year, in an annually averaged mosaic running from October 1st to September 30th (Greenland) or April 1st to March 31st (Antarctica), roughly mimicking a glaciological year. The datasets are extended on an annual basis.
-This data was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-greenland-ice-sheet-velocity'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-greenland-ice-sheet-velocity?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Product type: Satellite observations', 'Spatial coverage: Antarctic and Greenland']</t>
-        </is>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I22" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J22" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-73.0, 60.0, -10.0, 83.0]]}, 'temporal': {'interval': [['2017-10-01T00:00:00Z', None]]}}</t>
-        </is>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-greenland-ice-sheet-velocity/overview_694f6b91a6e1465ae71c657b5c6d9005932b62a0e66150e5d3eadd77c7d5df5b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>reanalysis-oras5</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>ORAS5 global ocean reanalysis monthly data from 1958 to present</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>This dataset provides global ocean and sea-ice reanalysis (ORAS5: Ocean Reanalysis System 5) monthly mean data prepared by the  European Centre for Medium-Range Weather Forecasts (ECMWF) OCEAN5 ocean analysis-reanalysis system. This system comprises 5 ensemble members from which one member is published in this catalogue entry.
-Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset taking into account the laws of physics. The reanalysis provides information without temporal and spatial gaps, i.e. the data are continuous in time, and the assimilation system provides information on every model grid point independently of whether observations are available nearby or not.
-The OCEAN5 reanalysis system uses the Nucleus for European Modelling of the Ocean (NEMO) ocean model and the NEMOVAR ocean assimilation system. NEMOVAR uses the so-called 3D-Var FGAT (First Guess at Appropriate Time) assimilation technique, which assimilates sub-surface temperature, salinity, sea-ice concentration and sea-level anomalies.
-The ORAS5 data is forced by either global atmospheric reanalysis (for the consolidated product) or the ECMWF/IFS operational analysis (for the operational product) and is also constrained by observational data of sea surface temperature, sea surface salinity, sea-ice concentration, global-mean-sea-level trends and climatological variations of the ocean mass.
-The consolidated product (referred to as "Consolidated" in the download form) uses reanalysis atmospheric forcing (ERA-40 until 1978 and ERA-Interim from 1979 to 2014) and re-processed observations. The near real-time (referred to as "Operational" in the download form) ORAS5 product is available from 2015 onwards and is updated on a monthly basis 15 days behind real time. It uses ECMWF operational atmospheric forcing and near real time observations. The consolidated data benefits from atmospheric forcing consistency. The operational data benefits from near real-time latency.
-ORAS5 data are also available at the Copernicus Marine Environment Monitoring Service (CMEMS) and at the Integrated Climate Data Centre (ICDC), Hamburg University.  The present dataset, at the time of publication, provides more variables than the others and has regular updates with near real-time data. For the period from 2015 to the present, the operational ORAS5 data provided in the CDS is different from the dataset provided by CMEMS, because different atmospheric forcings and ocean observation data were used in the generation of the two products.
-The ORAS5 dataset is produced by ECMWF and funded by the Copernicus Climate Change Service (C3S).</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-oras5'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-oras5?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Ocean (physics)']</t>
-        </is>
-      </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I23" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1958-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-oras5/overview_328def6acb9afebab2ea7a3b49102c38e53d56cd6c662797d91d098043fd9a74.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>sis-hydrology-variables-derived-seasonal-forecast</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Multi-model seasonal forecasts of river discharge for Europe from January 2021 to present</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>This dataset provides hydrological seasonal forecasts of monthly mean river discharge across Europe. Two hydrological model ensembles are provided. The first is an E-HYPE multi-model system comprising eight model realisations using a catchment-based resolution. The second comprises the E-HYPEgrid, VIC-WUR and EFAS (LISFLOOD) hydrological models at a 5km gridded resolution.
-The initialisation of the hydrological seasonal forecast uses the European Flood Awareness System (EFAS) daily gridded meteorological observations (EFAS-Meteo) up until the start of the forecast, and the subsequent integration of the meteorological seasonal forecasts using all 51 members of the ECMWF seasonal forecast system 5 (SEAS5) meteorological forecasts. A bias adjustment step using quantile mapping for temperature and precipitation was used for the E-HYPE and ViC-WUR models to minimize drift in the forecasts caused by biases in SEAS5 compared to EFAS-Meteo.
-The final output is in the form of monthly mean river discharge for the coming seven months. The context of the forecasts is provided by upper and lower terciles of the historical EFAS-Meteo driven simulation for each month of the year.
-This dataset is produced by the Swedish Meteorological and Hydrological Institute on behalf of the Copernicus Climate Change Service. The operational production is performed by C3S in collaboration with Copernicus Emergency Management Service (CEMS).</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-hydrology-variables-derived-seasonal-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Europe', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Provider: Copernicus C3S', 'Temporal coverage: Future', 'Sector: Water management']</t>
-        </is>
-      </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I24" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J24" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-22.0, 27.0, 45.0, 72.0]]}, 'temporal': {'interval': [['2020-12-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-hydrology-variables-derived-seasonal-forecast/overview_145a5da25057cb5278bdf4f1b67828327e893da1ea9cc58251dd68cbb3633c74.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>reanalysis-cerra-land</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>CERRA-Land sub-daily regional reanalysis data for Europe from 1984 to present</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>The Copernicus European Regional ReAnalysis Land (CERRA-Land) dataset provides spatially and temporally consistent historical reconstructions of surface and soil variables at the same horizontal resolution as the CERRA high-resolution reanalysis.
-The need for precipitation and surface variables at an ever-increasing spatial and temporal resolution is a recurrent demand. These variables allow, among other things, to address water resource management issues and to carry out climate change impact studies. Regional surface reanalyses are a way to reconstruct these variables for past periods covering several decades using state-of-the-art models. Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with  newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but usually at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product.
-The dataset was produced using the CERRA-Land system which consists of a land surface modelling platform SURFEX (V8.1) and a daily (24-h) total accumulated precipitation assimilation system. Most of the data are forecasts generated based on the open-loop integration of the SURFEX. The observations are not directly used in their production but have an indirect influence through the atmospheric forcing  (e.g. 2m temperature) from the CERRA high-resolution reanalysis and precipitation reanalysis system used to integrate in time the SURFEX model. No downscaling method was used to build up the input forcing data because the CERRA-Land system has the same integration domain (e.g. grid spacing, orography) as the CERRA high-resolution atmospheric reanalysis. SURFEX was run offline, that is without feedback to the atmospheric analysis performed in the CERRA data assimilation cycles.
-To solve both heat and water transfer equations in the soil, a discretisation of the soil into 14 layers was used. The surface precipitation analysis and the 12 snow layers model included in the CERRA-Land system significantly improve the representation of the snowpack over Europe in comparison with the CERRA dataset.
-This dataset describes the evolution of soil moisture, soil temperature and snowpack in a consistent view over several decades at an enhanced resolution compared to ERA5 and ERA5-Land. The temporal and spatial resolutions of CERRA-Land data recommend this dataset, for example, for water resource management and climate change studies.
-The added value of the CERRA-Land data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data.
-More information about the CERRA-Land dataset can be found in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-land'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)']</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I25" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J25" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-07-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-land/overview_d8eae3742517018ee23f268dd236e977e6347d704abcc8d5f3fb8df282377362.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>sis-european-wind-storm-reanalysis</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Windstorm tracks and footprints derived from reanalysis over Europe between 1940 to present</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>This dataset provides climate indicators of windstorms associated with extratropical cyclones, derived from the fifth generation of the European Centre for Medium-Range Weather Forecasts (ECMWF) atmospheric reanalyses (ERA5) over a pan-European domain. Developed as part of Copernicus Climate Change Service's (C3S) Enhanced Windstorm Service (EWS), and responding to requirements from users in the insurance sector, this dataset extends the previous C3S Windstorm Service (winter months only) to include the entire year. This dataset is updated on a monthly basis, in near real-time. The catalogue includes windstorms identified using cyclone tracking algorithms that pass the filtering criteria, including mean sea level pressure and 850hPa vorticity (please see the Product User Guide for more information). The dataset includes three main products:
-Windstorm track: a sequence of longitude–latitude points which define the trajectory of an extra-tropical windstorm over time. A tracking algorithm is used to select the windstorm track. Two tracking algorithms are available in this dataset: TempestExtremes and Hodges algorithm (also known as TRACK).
-Windstorm footprint: the maximum 10m wind gust over a 72-hour time window. The time window is centred on the time step in which the tracking algorithm identifies the maximum 925 hPa wind speed related to the windstorm. Only windstorm footprints that make landfall are considered by the tracking algorithm. The windstorm footprints are identified on the original ERA5 grid (0.25° x 0.25°) as well as statistically-downscaled high-resolution grid (0.016° x 0.016°) to better represent orographic and wind shear effects. Two spatial configurations of the footprints are provided: i) the "full domain" and ii) "windstorm footprint area", also referred to as "decontaminated" (please see the Product User Guide for more information). 
-Windstorm summary indicators: annual statistics derived from decontaminated windstorm footprints and both tracking algorithms. Four wind gust thresholds (0, 15.6, 20, and 25 m/s) are considered.
-This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-european-wind-storm-reanalysis'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I26" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J26" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-180, -90, 180, 90]]}, 'temporal': {'interval': [['1940-02-01T00:00:00Z', '2025-11-23T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-european-wind-storm-reanalysis/overview_9f914bdde4609de684d1d0c3b71136a26290a31d70fa3772e9980eb9a678cd11.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>reanalysis-cerra-single-levels</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>CERRA sub-daily regional reanalysis data for Europe on single levels from 1984 to present</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on single levels for Europe from 1984 to present. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. 10m wind gust, radiative fluxes).
-Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed, versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
-The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
-The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
-More information about the CERRA dataset can be found in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-cerra-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)']</t>
-        </is>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I27" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J27" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-single-levels/overview_66070d5536cd25c00721b57234c482d8dc9c6ffea5110c9642d0eb31cde5d8f4.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>reanalysis-cerra-height-levels</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>CERRA sub-daily regional reanalysis data for Europe on height levels from 1984 to present</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on height levels for Europe from 1984 to present. One reason to provide atmospheric variables on height levels is for applications in the wind energy sector. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. specific rain water content).
-Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
-The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example, a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
-The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
-More information about the CERRA dataset can be found in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-height-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (upper level)']</t>
-        </is>
-      </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J28" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-height-levels/overview_d0f0a9b88a4f4050fb25d42356fde10a516a3a9d3f872c39458814cb8a1e06c8.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>reanalysis-cerra-model-levels</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>CERRA sub-daily regional reanalysis data for Europe on model levels from 1984 to present</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis data on model levels for Europe from 1984 to present.
-Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
-The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
-The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
-More information about the CERRA dataset can be found in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-model-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (upper level)']</t>
-        </is>
-      </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J29" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-model-levels/overview_d6e86c0472bc3201214e0b19cd983a9630f0f6efe64f944647895980306f32e1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>reanalysis-cerra-pressure-levels</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>CERRA sub-daily regional reanalysis data for Europe on pressure levels from 1984 to present</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstruction of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on pressure levels for Europe from 1984 to present. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. cloud cover).
-Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
-The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
-The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
-More information about the CERRA dataset can be found in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (upper level)']</t>
-        </is>
-      </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-pressure-levels/overview_3109685f60f5c23b90af29d289a2c0a75bcf4dd7fd2a7e32db4187203808a51a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>reanalysis-era5-land-monthly-means</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>ERA5-Land monthly averaged data from 1950 to present</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to ERA5. ERA5-Land has been produced by replaying the land component of the ECMWF ERA5 climate reanalysis. Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. Reanalysis produces data that goes several decades back in time, providing an accurate description of the climate of the past.
-ERA5-Land provides a consistent view of the water and energy cycles at surface level during several decades.
-It contains a detailed record from 1950 onwards, with a temporal resolution of 1 hour. The native spatial resolution of the ERA5-Land reanalysis dataset is 9km on a reduced Gaussian grid (TCo1279). The data in the CDS has been regridded to a regular lat-lon grid of 0.1x0.1 degrees.
-The data presented here is a post-processed subset of the full ERA5-Land dataset. Monthly-mean averages have been pre-calculated to facilitate many applications requiring easy and fast access to the data, when sub-monthly fields are not required.</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-land-monthly-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-era5-land-monthly-means?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I31" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J31" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-land-monthly-means/overview_b50879b09a1fdb1f128c7784f2ce62378d4c68e156ca0c4ebdc0fe4f26375cf0.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>seasonal-monthly-ocean</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Seasonal forecast monthly averages of ocean variables</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
         <is>
           <t>This entry covers global ocean data aggregated to a monthly time resolution. The catalogue entry includes temperature and salinity characteristics of the upper oceans and complements the other seasonal forecast catalogue entries for the land and atmospheric variables. 
 Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect distributions of outcomes.
@@ -2568,64 +1173,64 @@
 The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-monthly-ocean'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-monthly-ocean?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G11" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Provider: Copernicus C3S', 'Variable domain: Ocean (physics)', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J32" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1993-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L32" t="inlineStr">
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1993-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L11" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-monthly-ocean/overview_75324753122ef3eaa5933d32635a08de9c1f840203641b44a7b283bef3d96f82.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
         <is>
           <t>reanalysis-era5-pressure-levels-monthly-means</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D12" t="inlineStr">
         <is>
           <t>ERA5 monthly averaged data on pressure levels from 1940 to present</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
 Data is available from 1940 onwards.
@@ -2651,64 +1256,64 @@
 The present entry is "ERA5 monthly mean data on pressure levels from 1940 to present".</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-pressure-levels-monthly-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-era5-pressure-levels-monthly-means?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J33" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L33" t="inlineStr">
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-pressure-levels-monthly-means/overview_f71dc114a2f6dd433f4ddecbf6b358a107864c4844c826c2da37c7044986e7fe.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
         <is>
           <t>reanalysis-era5-single-levels-monthly-means</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="D13" t="inlineStr">
         <is>
           <t>ERA5 monthly averaged data on single levels from 1940 to present</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>ERA5 is the fifth generation ECMWF reanalysis for the global climate and weather for the past 8 decades.
 Data is available from 1940 onwards.
@@ -2733,64 +1338,260 @@
 The present entry is "ERA5 monthly mean data on single levels from 1940 to present".</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-single-levels-monthly-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-era5-single-levels-monthly-means?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J34" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L34" t="inlineStr">
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L13" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-single-levels-monthly-means/overview_0f8d6ac4a7d46c1b234a9e26d17f21bbad9f173c2a1ca4b645df6c4048fc35f2.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>satellite-earth-radiation-budget</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Earth's radiation budget from 1979 to present derived from satellite observations</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>The Earth’s Radiation Budget (ERB) represents the overall balance between incoming and outgoing radiant energy at the Earth’s top-of-the-atmosphere. This Essential Climate Variable is the primary forcing of the climate system and is therefore a fundamental quantity to be monitored to understand the Earth’s climate and its variability. The Earth’s Radiation Budget comprises of the quantification of the incoming radiation from the Sun and the outgoing reflected shortwave and emitted longwave radiation. 
+The Earth’s Radiation Budget represents the balance between incoming, predominantly solar, radiation and outgoing radiation as either reflected solar radiation or thermal radiation emitted by the Earth system. The Earth is in a state of dynamic radiative balance, energy arriving from the Sun is balanced by outgoing radiation from the top-of-the-atmosphere. Changes in the Earth’s surface and atmosphere (including cloud amount and properties, as well as concentrations of greenhouse gases) alter the radiative balance of the Earth’ system and change the balance and distribution of outgoing thermal radiation and reflected solar radiation. Aside from the elevation (height) of the sun above the horizon, the largest factor controlling the variability in the Earth's radiation budget is cloud cover; the fraction of cloud cover, their height and opacity all impact on both the reflected solar and outgoing infrared radiation. Thus, knowledge of cloud properties, along with atmospheric composition and surface properties, allows computing the Earth’s Radiation Budget. In addition to the spectrally integrated broadband incoming and outgoing fluxes, the monitoring of the solar spectral irradiance is also relevant given its importance in atmospheric chemistry processes.
+This catalogue entry comprises data from a number of product families and origins summarised in the following sections.</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-earth-radiation-budget'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-earth-radiation-budget?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Provider: ESA CCI', 'Provider: EUMETSAT SAF']</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-11-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-earth-radiation-budget/overview_c42958f5e6375d64a6740a98513e14c970acdc358e111d4a9bd723196f467f5b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>reanalysis-era5-land-monthly-means</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>ERA5-Land monthly averaged data from 1950 to present</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to ERA5. ERA5-Land has been produced by replaying the land component of the ECMWF ERA5 climate reanalysis. Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. Reanalysis produces data that goes several decades back in time, providing an accurate description of the climate of the past.
+ERA5-Land provides a consistent view of the water and energy cycles at surface level during several decades.
+It contains a detailed record from 1950 onwards, with a temporal resolution of 1 hour. The native spatial resolution of the ERA5-Land reanalysis dataset is 9km on a reduced Gaussian grid (TCo1279). The data in the CDS has been regridded to a regular lat-lon grid of 0.1x0.1 degrees.
+The data presented here is a post-processed subset of the full ERA5-Land dataset. Monthly-mean averages have been pre-calculated to facilitate many applications requiring easy and fast access to the data, when sub-monthly fields are not required.</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-era5-land-monthly-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-era5-land-monthly-means?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-era5-land-monthly-means/overview_b50879b09a1fdb1f128c7784f2ce62378d4c68e156ca0c4ebdc0fe4f26375cf0.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>seasonal-postprocessed-single-levels</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Seasonal forecast anomalies on single levels</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>This entry covers single-level data post-processed for bias adjustment on a monthly time resolution. 
+Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
+Given the complex, non-linear interactions between the individual components of the Earth system, the best tools for long-range forecasting are climate models which include as many of the key components of the system and possible; typically, such models include representations of the atmosphere, ocean and land surface. These models are initialised with data describing the state of the system at the starting point of the forecast, and used to predict the evolution of this state in time.
+While uncertainties coming from imperfect knowledge of the initial conditions of the components of the Earth system can be described with the use of ensembles, uncertainty arising from approximations made in the models are very much dependent on the choice of model. A convenient way to quantify the effect of these approximations is to combine outputs from several models, independently developed, initialised and operated.
+To this effect, the C3S provides a multi-system seasonal forecast service, where data produced by state-of-the-art seasonal forecast systems developed, implemented and operated at forecast centres in several European countries is collected, processed and combined to enable user-relevant applications. The composition of the C3S seasonal multi-system and the full content of the database underpinning the service are described in the documentation. The data is grouped in several catalogue entries (CDS datasets), currently defined by the type of variable (single-level or multi-level, on pressure surfaces) and the level of post-processing applied (data at original time resolution, processing on temporal aggregation and post-processing related to bias adjustment).
+The variables available in this data set are listed in the table below. The data includes forecasts created in real-time each month starting from the publication of this entry.</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-postprocessed-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-postprocessed-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2017-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-postprocessed-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
         <is>
           <t>seasonal-postprocessed-pressure-levels</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="D17" t="inlineStr">
         <is>
           <t>Seasonal forecast anomalies on pressure levels</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>This entry covers pressure-level data post-processed for bias adjustment on a monthly time resolution. 
 Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
@@ -2800,128 +1601,131 @@
 The variables available in this data set are listed in the table below. The data includes forecasts created in real-time each month starting from the publication of this entry.</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-postprocessed-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-postprocessed-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2017-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2017-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-postprocessed-pressure-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>ecv-for-climate-change</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Essential climate variables for assessment of climate variability from 1979 to present</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>The Essential Climate Variables for assessment of climate variability from 1979 to present dataset contains a selection of climatologies, monthly anomalies and monthly mean fields of Essential Climate Variables (ECVs) suitable for monitoring and assessment of climate variability and change. Selection criteria are based on accuracy and temporal consistency on monthly to decadal time scales. The ECV data products in this set have been estimated from climate reanalyses ERA-Interim, ERA5 and ERA5-Land, and, depending on the source, may have been adjusted to account for biases and other known deficiencies. Data sources and adjustment methods used are described in the Product User Guide, as are various particulars such as the baseline periods used to calculate monthly climatologies and the corresponding anomalies.
-The statistics provided are monthly average fields, climatologies and anomalies, as well as 12-month running mean anomalies. Climatologies and anomalies are calculated with respect to two reference periods: 1981-2010 (ERA5, ERA5-Land and ERA-Int) and 1991-2020 (ERA5 and ERA5-Land ).
-The C3S monthly climate bulletin (https://climate.copernicus.eu/climate-bulletins) provides an assessment of the monthly state of the climate with an emphasis on the European geographical domain. This data record is used as the basis for these monthly bulletins.</t>
-        </is>
-      </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/ecv-for-climate-change'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G36" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Ocean (physics)']</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/ecv-for-climate-change/overview_3c8da83a6ad43a04dd22c518a7233267f07380858753cdfb1c4f338c4c0d4e94.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>seasonal-monthly-pressure-levels</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Seasonal forecast monthly statistics on pressure levels</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>This entry covers pressure-level data aggregated on a monthly time resolution. 
+Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
+Given the complex, non-linear interactions between the individual components of the Earth system, the best tools for long-range forecasting are climate models which include as many of the key components of the system and possible; typically, such models include representations of the atmosphere, ocean and land surface. These models are initialised with data describing the state of the system at the starting point of the forecast, and used to predict the evolution of this state in time.
+While uncertainties coming from imperfect knowledge of the initial conditions of the components of the Earth system can be described with the use of ensembles, uncertainty arising from approximations made in the models are very much dependent on the choice of model. A convenient way to quantify the effect of these approximations is to combine outputs from several models, independently developed, initialised and operated.
+To this effect, the C3S provides a multi-system seasonal forecast service, where data produced by state-of-the-art seasonal forecast systems developed, implemented and operated at forecast centres in several European countries is collected, processed and combined to enable user-relevant applications. The composition of the C3S seasonal multi-system and the full content of the database underpinning the service are described in the documentation. The data is grouped in several catalogue entries (CDS datasets), currently defined by the type of variable (single-level or multi-level, on pressure surfaces) and the level of post-processing applied (data at original time resolution, processing on temporal aggregation and post-processing related to bias adjustment).
+The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-monthly-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-monthly-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-monthly-pressure-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
         <is>
           <t>seasonal-original-pressure-levels</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="D19" t="inlineStr">
         <is>
           <t>Seasonal forecast subdaily data on pressure levels</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>This entry covers pressure-level data at the original time resolution (once every 12 hours). 
 Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
@@ -2931,131 +1735,334 @@
 The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-original-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-original-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L37" t="inlineStr">
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-original-pressure-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>seasonal-postprocessed-single-levels</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Seasonal forecast anomalies on single levels</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>This entry covers single-level data post-processed for bias adjustment on a monthly time resolution. 
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>seasonal-original-single-levels</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Seasonal forecast daily and subdaily data on single levels</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>This entry covers single-level data and soil-level data at the original time resolution (once a day, or once every 6 hours, depending on the variable). 
 Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
 Given the complex, non-linear interactions between the individual components of the Earth system, the best tools for long-range forecasting are climate models which include as many of the key components of the system and possible; typically, such models include representations of the atmosphere, ocean and land surface. These models are initialised with data describing the state of the system at the starting point of the forecast, and used to predict the evolution of this state in time.
 While uncertainties coming from imperfect knowledge of the initial conditions of the components of the Earth system can be described with the use of ensembles, uncertainty arising from approximations made in the models are very much dependent on the choice of model. A convenient way to quantify the effect of these approximations is to combine outputs from several models, independently developed, initialised and operated.
 To this effect, the C3S provides a multi-system seasonal forecast service, where data produced by state-of-the-art seasonal forecast systems developed, implemented and operated at forecast centres in several European countries is collected, processed and combined to enable user-relevant applications. The composition of the C3S seasonal multi-system and the full content of the database underpinning the service are described in the documentation. The data is grouped in several catalogue entries (CDS datasets), currently defined by the type of variable (single-level or multi-level, on pressure surfaces) and the level of post-processing applied (data at original time resolution, processing on temporal aggregation and post-processing related to bias adjustment).
-The variables available in this data set are listed in the table below. The data includes forecasts created in real-time each month starting from the publication of this entry.</t>
-        </is>
-      </c>
-      <c r="F38" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-postprocessed-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-postprocessed-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G38" t="inlineStr">
+The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-original-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-original-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J38" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2017-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-postprocessed-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-original-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>satellite-soil-moisture</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Soil moisture gridded data from 1978 to present</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>The C3S satellite soil moisture (SM) service provides a range of global soil moisture variables derived from numerous satellite sensors, including scatterometers and radiometers. The products are designed primarily for applications related to climate variability and change, land–atmosphere interactions, global biogeochemical cycles, ecology, hydrological and land surface modelling, drought monitoring, and meteorology. 
+All C3S SM data are based on algorithms and scientific methods developed within the ESA Climate Change Initiative for Soil Moisture (ESA CCI SM) programme. They represent the current state of the art in the production of satellite-based soil moisture climate data records and comply with the Systematic Observation Requirements for Satellite-Based Products for Climate defined by the Global Climate Observing System (GCOS). The data are provided on a regular latitude–longitude grid, with potential gaps in space and time due to missing satellite overpasses. 
+In satellite-based climate datasets, it is common to distinguish between Climate Data Records (CDR) and Interim Climate Data Records (ICDR). In this dataset, both the CDR and ICDR components are generated using the same software and algorithms. The CDR provides sufficiently long, consistent, and continuous time series suitable for detecting climate variability and change. The ICDR offers short-latency access to near-real-time data, with consistency maintained relative to the CDR baseline. 
+Available Products: 
+- Surface Soil Moisture (SSM) combines observations different sources. C3S SM provides separate ACTIVE (multi-scatterometer) and PASSIVE (multi-radiometer) - products, as well as a COMBINED product that merges all available satellite input sources to achieve the highest possible data quality. The COMBINED dataset is recommended for most applications.
+- Root-Zone Soil Moisture (RZSM) uses the COMBINED SSM product as input together with a water infiltration model to estimate moisture in multiple depth layers within the plant root zone (0–10, 10–40, 40–100, and 0–100 cm). RZSM is commonly preferred over SSM for drought and large-scale agricultural applications.
+- Freeze/Thaw (F/T) provides a binary classification of the surface soil moisture state (frozen or unfrozen) based on K-band radiometer brightness temperatures.
+This dataset is produced on behalf of the Copernicus Climate Change Service (C3S) by TU Wien, Planet, and EODC GmbH.</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-soil-moisture'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-soil-moisture?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Product type: Satellite observations', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-11-01T00:00:00Z', '2026-01-20T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-soil-moisture/overview_2608b02ec723746fb179c05e97c0c5bd33ac314dbf17d18456c194c9e32f33e6.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>derived-drought-historical-monthly</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Monthly drought indices from 1940 to present derived from ERA5 reanalysis</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>ERA5–Drought is a global reconstruction of drought indices from 1940 to present.
+The dataset comprises two standardised drought indices:
+- the Standardised Precipitation Index (SPI)
+- the Standardised Precipitation-Evapotranspiration Index (SPEI).
+The SPI measures the precipitation deficit that accumulated over the preceding months and evaluates the deficit with respect to a reference period. The SPEI is an extension of the SPI and incorporates potential evapotranspiration to capture the impact of temperature on drought. SPI and SPEI values are in units of standard deviation from the standardised mean, i.e., negative values indicate drier-than-usual periods while positive values correspond to wetter-than-usual periods. Both indices can be used to identify the onset and the end of drought events as well as their severity.
+In ERA5–Drought, SPI and SPEI are calculated using precipitation and potential evapotranspiration from the fifth generation of the European Centre for Medium-Range Weather Forecasts (ECMWF) atmospheric reanalyses (ERA5). ERA5 combines model data with observations from across the world to provide a globally complete and consistent description of the atmosphere. Drought indices are calculated for a range of accumulation windows (1/3/6/12/24/36/48 months) using the reference period from 1991–2020. All data is regridded to a regular grid of 0.25 degrees, making it suitable for many common applications. SPI and SPEI are calculated using both the ERA5 reanalysis (single realisation from the monthly means of daily means(moda) stream) and the ensemble of the reanalysis (10 realisations from the monthly means of daily means for ensemble members (edmo) stream), enabling uncertainty assessment of drought occurrence and intensity. The quality of the derived indices is evaluated using significance testing. 
+The dataset currently covers 1940 to near-real time and is updated monthly. The consolidated data set is updated 2-3 months behind real time, while the intermediate data set is updated with 1 month of delay. New versions of the dataset are published as settings, such as the reference period, are updated or bug fixes are applied. Bug Fixes will be released using a minor revision (i.e. v1.1), while changes to the reference period will be released as major revisions (i.e. v2.0). Bug Fixes will be published to the Known Issues area on the Documentation tab.
+A more detailed description of the ERA5–Drought dataset and comparisons to other drought indices can be found in the associated dataset paper (see Documentation Tab). Information on access and usage examples, e.g. to calculate the area in drought, are provided in these guidelines.
+The dataset is produced by ECMWF.</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-drought-historical-monthly'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)', 'Provider: ECMWF', 'Product type: Climate indices']</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-179.8, -89.8, 179.8, 83.8]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-drought-historical-monthly/overview_2c8789648a39830eb2cf46d8a5cb2be6e16833c76135b429523c331ec34d41c5.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>ecv-for-climate-change</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Essential climate variables for assessment of climate variability from 1979 to present</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>The Essential Climate Variables for assessment of climate variability from 1979 to present dataset contains a selection of climatologies, monthly anomalies and monthly mean fields of Essential Climate Variables (ECVs) suitable for monitoring and assessment of climate variability and change. Selection criteria are based on accuracy and temporal consistency on monthly to decadal time scales. The ECV data products in this set have been estimated from climate reanalyses ERA-Interim, ERA5 and ERA5-Land, and, depending on the source, may have been adjusted to account for biases and other known deficiencies. Data sources and adjustment methods used are described in the Product User Guide, as are various particulars such as the baseline periods used to calculate monthly climatologies and the corresponding anomalies.
+The statistics provided are monthly average fields, climatologies and anomalies, as well as 12-month running mean anomalies. Climatologies and anomalies are calculated with respect to two reference periods: 1981-2010 (ERA5, ERA5-Land and ERA-Int) and 1991-2020 (ERA5 and ERA5-Land ).
+The C3S monthly climate bulletin (https://climate.copernicus.eu/climate-bulletins) provides an assessment of the monthly state of the climate with an emphasis on the European geographical domain. This data record is used as the basis for these monthly bulletins.</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/ecv-for-climate-change'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Ocean (physics)']</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/ecv-for-climate-change/overview_3c8da83a6ad43a04dd22c518a7233267f07380858753cdfb1c4f338c4c0d4e94.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
         <is>
           <t>seasonal-monthly-single-levels</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="D24" t="inlineStr">
         <is>
           <t>Seasonal forecast monthly statistics on single levels</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>This entry covers single-level data aggregated on a monthly time resolution. 
 Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
@@ -3065,19 +2072,1012 @@
 The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
         </is>
       </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-monthly-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-monthly-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-02-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-monthly-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>derived-gridded-glacier-mass-change</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Glacier mass change gridded data from 1976 to present derived from the Fluctuations of Glaciers Database</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>The dataset provides global annual glacier mass changes distributed on a global regular grid at 0.5° resolution (latitude, longitude) based on the Fluctuations of Glaciers (FoG) database of the World Glacier Monitoring Service (WGMS). Glaciers play a fundamental role in the Earth’s water cycles. They are one of the most important freshwater resources for societies and ecosystems and the recent increase in ice melt contributes directly to the rise of ocean levels. Due to this they have been declared as an Essential Climate Variable (ECV) by GCOS, the Global Climate Observing System. Within the Copernicus Services, the global gridded annual glacier mass change dataset provides information on changing glacier resources by combining glacier change observations from the Fluctuations of Glaciers (FoG) database that is brokered from World Glacier Monitoring Service (WGMS).
+Inspired by previous methodological frameworks, a new approach was developed to combine the glacier mass balance and elevation change observations, providing a new and unique product of annual glacier mass change and related uncertainties for every hydrological year since 1975/76 distributed on a 0.5° global regular grid. The present dataset bridges the gap regarding the spatio-temporal coverage of glacier change observations, providing for the first time in the Copernicus Climate Change Service (C3S) Climate Data Store (CDS) an annually resolved glacier mass change product using the glacier elevation change sample as calibration. This goal has become feasible at the global scale thanks to a new globally near-complete (96% of the world glaciers) dataset of glacier elevation change observations ingested by the FoG database.
+To develop the distributed glacier change product, the use of glacier outlines from the C3S Glacier Area product version 2 are used. A glacier is considered to belong to a grid-point when its geometric centroid lies within the grid point. The centroid is obtained from the glacier outlines from the C3S Glacier Area product version 2. The glacier changes in Gt correspond to the total mass of water lost/gained over the glacier surface during a given year. Note that to propagate to mm/cm/m of water column on the grid cell, the grid cell area needs to be considered. Note that hydrological year vary on the Southern Hemisphere (October to September next year) and Northern Hemispheres (April to March next year). The annual distributed glacier change dataset cannot resolve for this seasonal difference and is important for the user to account for them when using the datasets. This issue can only be resolved with a monthly distributed glacier change product.
+This dataset has been produced by researchers at the WGMS on behalf of Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-gridded-glacier-mass-change'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/derived-gridded-glacier-mass-change?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (cryosphere)', 'Product type: Satellite observations', 'Product type: In-situ observations']</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[179.75, -89.75, 179.75, 89.75]]}, 'temporal': {'interval': [['1975-01-01T00:00:00Z', None]]}}</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-gridded-glacier-mass-change/overview_e83c869dab0a0835ec4b89fb679ac5fc028c1d4d72ff8d501b4bc810b31b403d.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>satellite-sea-level-global</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Sea level gridded data from satellite observations for the global ocean from 1993 to present</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>This dataset provides gridded daily and monthly mean global estimates of sea level anomaly based on satellite altimetry measurements. The rise in global mean sea level in recent decades has been one of the most important and well-known consequences of climate warming, putting a large fraction of the world population and economic infrastructure at greater risk of flooding. However, changes in the global average sea level mask regional variations that can be one order of magnitude larger. Therefore, it is essential to measure changes in sea level over the world’s oceans as accurately as possible.
+Sea level anomaly is defined as the height of water over the mean sea surface in a given time and region. In this dataset sea level anomalies are computed with respect to a twenty-year mean reference period (1993-2012) using up-to-date altimeter standards.
+In the past, the altimeter sea level datasets were distributed on the CNES AVISO altimetry portal until their production was taken over by the Copernicus Marine Environment Monitoring Service (CMEMS) and the Copernicus Climate Change Service (C3S) in 2015 and 2016 respectively.
+The sea level dataset provided here by C3S is climate-oriented, that is, dedicated to the monitoring of the long-term evolution of sea level and the analysis of the ocean/climate indicators, both requiring a homogeneous and stable sea level record. To achieve this, a steady two-satellite merged constellation is used at all time steps in the production system: one satellite serves as reference and ensures the long-term stability of the data record; the other satellite (which varies across the record) is used to improve accuracy, sample mesoscale processes and provide coverage at high latitudes. The C3S sea level dataset is used to produce Ocean Monitoring Indicators (e.g. global and regional mean sea level evolution), available in the CMEMS catalogue.
+The CMEMS sea level dataset has a more operational focus as it is dedicated to the retrieval of mesoscale signals in the context of ocean modeling and analysis of the ocean circulation on a global or regional scale. Such applications require the most accurate sea level estimates at each time step with the best spatial sampling of the ocean with all satellites available, with less emphasis on long-term stability and homogeneity.
+This dataset is updated three times a year with a delay of about 5 months relative to present time. This delay is mainly due to the timeliness of the input data, the centred processing temporal window and the validation process. However, these processing and validation steps are essential to enhance the stability and accuracy of the sea level products and make them suitable for climate applications.
+This dataset includes estimates of sea level anomaly and absolute dynamic topography together with the corresponding geostrophic velocities, which provide an approximation of the ocean surface currents. More details about these variables, the sea level retrieval algorithms, additional filters, optimisation procedures, and the error estimation can be found in the documentation.</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-level-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-level-global?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Provider: Copernicus C3S', 'Variable domain: Ocean (physics)']</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1993-01-01T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-level-global/overview_d2978dd5f23908030e4baf6c4427554ee3d8b3c4f4420366c915d24f767cd0eb.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>reanalysis-carra-model-levels</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Arctic regional reanalysis on model levels from 1991 to present</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric model level meteorological variables (temperature, humidity, wind, cloud, precipitation and turbulent kinetic energy) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
+The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
+The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere in on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
+The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
+More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-model-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-model-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-model-levels/overview_9067d7a00495ca5711ca0133b189e2b62589dd3ffb7d5926e2758c0f193acdff.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>reanalysis-carra-height-levels</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Arctic regional reanalysis on height levels from 1991 to present</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric height level meteorological variables (temperature, humidity, wind, and other thermodynamic variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
+The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
+The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
+The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
+More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-height-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-height-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-height-levels/overview_3c89b83d1b8d2a2c47f7083e0524cf6706772bc19c5f5ba90ee1f529223c9e58.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>reanalysis-carra-pressure-levels</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Arctic regional reanalysis on pressure levels from 1991 to present</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains hourly data including 3-hourly analyses and hourly short term forecasts of atmospheric pressure level meteorological variables (temperature, humidity, wind, and other thermodynamic variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
+The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
+The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because climate change is more pronounced in the Arctic region than elsewhere on Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), a better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
+The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where fewer observations are available.
+More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[360.0, 65.0, 0.0, 90.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-pressure-levels/overview_2fe93a87f5415de88b47a4d91ce5f05485b2893eef75ba306876f4b09d422ffe.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>reanalysis-carra-single-levels</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Arctic regional reanalysis on single levels from 1991 to present</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>The C3S Arctic Regional Reanalysis (CARRA) dataset contains 3-hourly analyses and hourly short term forecasts of atmospheric and surface meteorological variables (surface and near-surface temperature, surface and top of atmosphere fluxes, precipitation, cloud, humidity, wind,  pressure, snow and sea variables) at 2.5 km resolution. Additionally, forecasts up to 30 hours initialised from the analyses at 00 and 12 UTC are available.
+The dataset includes two domains. The West domain covers Greenland, the Labrador Sea, Davis Strait, Baffin Bay, Denmark Strait, Iceland, Jan Mayen, the Greenland Sea and Svalbard. The East domain covers Svalbard, Jan Mayen, Franz Josef Land, Novaya Zemlya, the Barents Sea, and the northern parts of the Norwegian Sea and Scandinavia.
+The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art non-hydrostatic regional numerical weather prediction model. High resolution reanalysis for the Arctic region is particularly important because the climate change is more pronounced in the Arctic region than elsewhere in the Earth. This fact calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5 for instance). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), better description of surface characteristics (high resolution satellite and physiographic data), high resolution non-hydrostatic dynamics and improved physical parameterisation of clouds and precipitation in particular.
+The inputs to CARRA reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where less observations are available.
+More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-carra-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-11-30T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-single-levels/overview_8e4c8ccf15929a4b7c88f06d965ef1b809917c49b7f733bf2d1091d7fa08fbe1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>satellite-sea-ice-concentration</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Sea ice concentration from 1978 to present derived from satellite observations</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>This dataset provides daily gridded data of sea ice concentration for both hemispheres derived from satellite passive microwave brightness temperatures. Sea ice is an important component of our climate system and a sensitive indicator of climate change. Its presence or its retreat has a strong impact on air-sea interactions, the Earth’s energy budget as well as marine ecosystems. It is recognised by the Global Climate Observing System as an Essential Climate Variable. Sea ice concentration is defined as the fraction of a pixel or grid cell in a satellite image or other gridded product that is covered with sea ice. It is one of the parameters commonly used to characterise sea ice. Other sea ice parameters include sea ice thickness, sea ice edge, and sea ice type, also available in the Climate Data Store.
+The dataset consists of two products:
+The Global Sea Ice Concentration Climate Data Record produced by the European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT) Ocean and Sea Ice Satellite Application Facility (OSI SAF). This is a coarse-resolution product based on measurements from the following sensors: Scanning Multichannel Microwave Radiometer (SMMR; 1979–1987), Special Sensor Microwave/Imager (SSM/I; 1987–2006), and Special Sensor Microwave Imager/Sounder (SSMIS; 2005 onward). This product spans the period from 1979 to 2025. In the following, it is referred to as the SSMIS product.
+The Global Sea Ice Concentration Climate Data Record produced by the European Space Agency Climate Change Initiative Phase 2 project (ESA CCI). This is a medium-resolution product based on measurements from the Advanced Microwave Scanning Radiometer - Earth Observing System (AMSR-E) sensor (2002–2011) and its successor, AMSR2 (2012–2020). This product spans the 2002–2020 period and is not updated. In the following, it is referred to as the AMSR product.
+Both products are provided on the same polar projection with a grid resolution of 25 km. However, the AMSR product has a true spatial resolution (as resolved by the sensor) of about 15–25 km versus 30–60 km for the SSMIS product. Therefore, the AMSR product provides a much more detailed view of the sea ice cover than the SSMIS product, especially along the marginal ice zone, the transitional zone between open water and the dense sea ice pack. On the other hand, the clear strength of the SSMIS product is its more than 40-year long and consistent record.
+Although originating from different projects, the two products share the same algorithm baseline, which is both a continuation of the EUMETSAT OSI SAF approach and a series of innovations contributed mostly by ESA CCI activities. For both products, the underlying algorithm makes use of a combination of the same three temperature channels near 19 GHz and 37 GHz. The data also share a common data format so that interested users can revert some of the filtering steps and access the raw output of the SIC algorithms. Both are level-4 products in the sense that gaps are filled by temporal and spatial interpolation. However, gap filling is not applied to fill in days when no input satellite data are available.
+Further details about each product can be found below as well as in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-ice-concentration'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-10-01T00:00:00Z', '2025-09-29T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-ice-concentration/overview_6ec7fdacddea9a2e146d2aad340e99ad5cb16ac50c901abf92643b046e611e73.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>satellite-upper-troposphere-humidity</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Upper tropospheric humidity gridded data derived from satellite observations</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Upper Tropospheric Humidity (UTH) is of key importance to the Earth’s greenhouse effect and understanding of climate change. It is considered an Essential Climate Variable  (ECV) because it controls key atmospheric processes, including those involved in water vapour and cloud feedbacks, that can amplify the climate system’s response to increases in other greenhouse gases. The Upper Tropospheric Humidity is defined as the integrated amount of Water Vapour in the atmospheric layer between ~500 hPa and ~200 hPa. 
+The Upper Tropospheric Humidity product consists of two editions: the UTH Thematic Climate Data Record (TCDR) and its extension in time Interim Climate Data Record (ICDR) Edition 1.0 on the one hand, the UTH Thematic Climate Data Record Edition 2.0 on the other hand.
+The UTH TCDR and ICDR Edition 1.0 are derived from observations from the AMSU-B and MHS microwave humidity sounder instruments on board the NOAA- and MetOp- satellite series. Instantaneous satellite observations are used to derive a spatio-temporal averaged data record. The data are available as twice daily (one for the ascending and the other for the descending passes) averages on a regular latitude/longitude grid. Additionally, the daily mean UTH is provided as a weighted average of ascending and descending orbits for all the grid points with valid ascending and descending observations.
+The UTH TCDR Edition 2.0 is a daily mean product computed from all available hourly observations for each grid cell. It relies on substantially improved retrievals and uncertainty estimates due to the inclusion of the additional sensors SSM/T-2 and ATMS on board the DMSP- satellite series and the S-NPP satellite respectively.
+UTH is part of the Water Vapour ECV inventory in the Climate Data Store (CDS) together with Total Column Water Vapour and Tropospheric Humidity Profiles. Both TCDR components are brokered to the CDS and were originally produced on behalf of EUMETSAT Satellite Application Facility on Climate Monitoring (CMSAF) by the UK Met Office. The ICDR component has been delivered directly to the CDS and was originally produced on behalf of the Copernicus Climate Change Service (C3S) by the UK Met Office.</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-upper-troposphere-humidity'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Provider: EUMETSAT SAF']</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1994-07-05T00:00:00Z', '2021-02-28T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-upper-troposphere-humidity/overview_12212325e7ad472dd64dae368b17ecd6c16da0c12c86e56844e55e79cfb2ff17.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>satellite-greenland-ice-sheet-velocity</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Ice sheet velocity for Antarctica and Greenland derived from satellite observations</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>This dataset provides annual ice velocity maps of the Greenland and Antarctic Ice Sheets derived from Sentinel-1 data. The product represents the current state-of-the-art in Europe for satellite-based ice velocity data records. It follows from the European Space Agency (ESA) Climate Change Initiative (CCI) and is guided by the Global Climate Observing System (GCOS) targets for the Ice Sheets Essential Climate Variable (ECV).
+Mapping ice flow velocity and its temporal changes provides key information for investigating the dynamic response of glaciers and ice sheets to changing environmental conditions and the contribution to global sea level rise. Remote sensing techniques that utilise satellite data are the only feasible manner to derive accurate surface velocities of the Greenland and Antarctic Ice Sheets on a regular basis.
+The ice velocity is derived by applying feature tracking techniques using repeat-pass Sentinel-1 Synthetic Aperture Radar (SAR) data acquired in Interferometric Wide (IW) swath mode. Ice velocity is provided at 250m (Greenland) or 200m (Antarctica) grid spacing in Polar Stereographic Projection. The horizontal velocity components are provided in meters per day, towards easting and northing direction of the grid. The vertical displacement is derived from a digital elevation model (DEM). Provided is a NetCDF file with gridded maps representing the horizontal and vertical velocity components, along with maps showing the magnitude of velocity, valid pixel count and uncertainty (standard deviation). The product combines multiple ice velocity maps, derived from 6- and 12-day repeat SAR data acquired over a full year, in an annually averaged mosaic running from October 1st to September 30th (Greenland) or April 1st to March 31st (Antarctica), roughly mimicking a glaciological year. The datasets are extended on an annual basis.
+This data was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-greenland-ice-sheet-velocity'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-greenland-ice-sheet-velocity?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Product type: Satellite observations', 'Spatial coverage: Antarctic and Greenland']</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-73.0, 60.0, -10.0, 83.0]]}, 'temporal': {'interval': [['2017-10-01T00:00:00Z', None]]}}</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-greenland-ice-sheet-velocity/overview_694f6b91a6e1465ae71c657b5c6d9005932b62a0e66150e5d3eadd77c7d5df5b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>reanalysis-oras5</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>ORAS5 global ocean reanalysis monthly data from 1958 to present</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>This dataset provides global ocean and sea-ice reanalysis (ORAS5: Ocean Reanalysis System 5) monthly mean data prepared by the  European Centre for Medium-Range Weather Forecasts (ECMWF) OCEAN5 ocean analysis-reanalysis system. This system comprises 5 ensemble members from which one member is published in this catalogue entry.
+Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset taking into account the laws of physics. The reanalysis provides information without temporal and spatial gaps, i.e. the data are continuous in time, and the assimilation system provides information on every model grid point independently of whether observations are available nearby or not.
+The OCEAN5 reanalysis system uses the Nucleus for European Modelling of the Ocean (NEMO) ocean model and the NEMOVAR ocean assimilation system. NEMOVAR uses the so-called 3D-Var FGAT (First Guess at Appropriate Time) assimilation technique, which assimilates sub-surface temperature, salinity, sea-ice concentration and sea-level anomalies.
+The ORAS5 data is forced by either global atmospheric reanalysis (for the consolidated product) or the ECMWF/IFS operational analysis (for the operational product) and is also constrained by observational data of sea surface temperature, sea surface salinity, sea-ice concentration, global-mean-sea-level trends and climatological variations of the ocean mass.
+The consolidated product (referred to as "Consolidated" in the download form) uses reanalysis atmospheric forcing (ERA-40 until 1978 and ERA-Interim from 1979 to 2014) and re-processed observations. The near real-time (referred to as "Operational" in the download form) ORAS5 product is available from 2015 onwards and is updated on a monthly basis 15 days behind real time. It uses ECMWF operational atmospheric forcing and near real time observations. The consolidated data benefits from atmospheric forcing consistency. The operational data benefits from near real-time latency.
+ORAS5 data are also available at the Copernicus Marine Environment Monitoring Service (CMEMS) and at the Integrated Climate Data Centre (ICDC), Hamburg University.  The present dataset, at the time of publication, provides more variables than the others and has regular updates with near real-time data. For the period from 2015 to the present, the operational ORAS5 data provided in the CDS is different from the dataset provided by CMEMS, because different atmospheric forcings and ocean observation data were used in the generation of the two products.
+The ORAS5 dataset is produced by ECMWF and funded by the Copernicus Climate Change Service (C3S).</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-oras5'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-oras5?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Ocean (physics)']</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1958-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-oras5/overview_328def6acb9afebab2ea7a3b49102c38e53d56cd6c662797d91d098043fd9a74.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>sis-energy-derived-reanalysis</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Climate and energy indicators for Europe from 1979 to present derived from reanalysis</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>The Copernicus climate change service (C3S) operational energy dataset provides climate and energy indicators for the European energy sector. The climate-relevant indicators for the energy sector considered are: air temperature, precipitation, incoming solar radiation, wind speed at 10 m and 100 m, and mean sea level air pressure. The energy indicators are electricity demand and power generation from various sources: wind (both onshore and offshore), solar and hydro (run-of-river and reservoir) power. Depending on the indicator, the data are available at the national, regional and grid (approximately 30x30 km) level for most European countries. The spatial aggregation of data over land uses the Eurostat NUTS0 &amp; NUTS2 (Nomenclature des unités territoriales statistiques, 2016) regions. The offshore variables (e.g. offshore wind power) use the European maritime region definitions MAR0 and MAR1. Further information on the NUTS and MAR regions can be found in the documentation.
+The C3S Energy operational service is composed of three main streams: historical (1979-present), seasonal forecasts and projections (typically covering the period 1970-2100). This historical dataset (1979-present) produces reference climate variables based on the ERA5 reanalysis. Energy variables are generated by transforming the climate variables using a combination of statistical models and physically based data. A comprehensive set of measured energy supply and demand data has been collected from various sources such as the European Network of Transmission System Operators (ENTSO-E). These data provide a crucial reference to assess the robustness of the models used to convert climate into electric energy variables.
+Data is provided for the European domain, in a multi-variable, multi-timescale view of the climate and energy systems. This is beneficial in anticipating important climate-driven changes in the energy sector, through either long-term planning or medium-term operational activities. This is also used to investigate the role of temperature on electricity demand across Europe, as well as its interaction with the variability of renewable energy generation.</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-energy-derived-reanalysis'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (surface)', 'Sector: Energy']</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-22.0, 27.0, 45.0, 72.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-12-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-energy-derived-reanalysis/overview_34530eb3255b5bbd1eef88ad8397b6d5e0b45c67e08e29b1574747cdb9a2ff2b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>sis-hydrology-variables-derived-seasonal-forecast</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Multi-model seasonal forecasts of river discharge for Europe from January 2021 to present</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>This dataset provides hydrological seasonal forecasts of monthly mean river discharge across Europe. Two hydrological model ensembles are provided. The first is an E-HYPE multi-model system comprising eight model realisations using a catchment-based resolution. The second comprises the E-HYPEgrid, VIC-WUR and EFAS (LISFLOOD) hydrological models at a 5km gridded resolution.
+The initialisation of the hydrological seasonal forecast uses the European Flood Awareness System (EFAS) daily gridded meteorological observations (EFAS-Meteo) up until the start of the forecast, and the subsequent integration of the meteorological seasonal forecasts using all 51 members of the ECMWF seasonal forecast system 5 (SEAS5) meteorological forecasts. A bias adjustment step using quantile mapping for temperature and precipitation was used for the E-HYPE and ViC-WUR models to minimize drift in the forecasts caused by biases in SEAS5 compared to EFAS-Meteo.
+The final output is in the form of monthly mean river discharge for the coming seven months. The context of the forecasts is provided by upper and lower terciles of the historical EFAS-Meteo driven simulation for each month of the year.
+This dataset is produced by the Swedish Meteorological and Hydrological Institute on behalf of the Copernicus Climate Change Service. The operational production is performed by C3S in collaboration with Copernicus Emergency Management Service (CEMS).</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-hydrology-variables-derived-seasonal-forecast'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Europe', 'Product type: Seasonal forecasts', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Provider: Copernicus C3S', 'Temporal coverage: Future', 'Sector: Water management']</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-22.0, 27.0, 45.0, 72.0]]}, 'temporal': {'interval': [['2020-12-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-hydrology-variables-derived-seasonal-forecast/overview_145a5da25057cb5278bdf4f1b67828327e893da1ea9cc58251dd68cbb3633c74.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>sis-european-wind-storm-reanalysis</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Windstorm tracks and footprints derived from reanalysis over Europe between 1940 to present</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>This dataset provides climate indicators of windstorms associated with extratropical cyclones, derived from the fifth generation of the European Centre for Medium-Range Weather Forecasts (ECMWF) atmospheric reanalyses (ERA5) over a pan-European domain. Developed as part of Copernicus Climate Change Service's (C3S) Enhanced Windstorm Service (EWS), and responding to requirements from users in the insurance sector, this dataset extends the previous C3S Windstorm Service (winter months only) to include the entire year. This dataset is updated on a monthly basis, in near real-time. The catalogue includes windstorms identified using cyclone tracking algorithms that pass the filtering criteria, including mean sea level pressure and 850hPa vorticity (please see the Product User Guide for more information). The dataset includes three main products:
+Windstorm track: a sequence of longitude–latitude points which define the trajectory of an extra-tropical windstorm over time. A tracking algorithm is used to select the windstorm track. Two tracking algorithms are available in this dataset: TempestExtremes and Hodges algorithm (also known as TRACK).
+Windstorm footprint: the maximum 10m wind gust over a 72-hour time window. The time window is centred on the time step in which the tracking algorithm identifies the maximum 925 hPa wind speed related to the windstorm. Only windstorm footprints that make landfall are considered by the tracking algorithm. The windstorm footprints are identified on the original ERA5 grid (0.25° x 0.25°) as well as statistically-downscaled high-resolution grid (0.016° x 0.016°) to better represent orographic and wind shear effects. Two spatial configurations of the footprints are provided: i) the "full domain" and ii) "windstorm footprint area", also referred to as "decontaminated" (please see the Product User Guide for more information). 
+Windstorm summary indicators: annual statistics derived from decontaminated windstorm footprints and both tracking algorithms. Four wind gust thresholds (0, 15.6, 20, and 25 m/s) are considered.
+This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-european-wind-storm-reanalysis'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-180, -90, 180, 90]]}, 'temporal': {'interval': [['1940-02-01T00:00:00Z', '2025-11-23T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-european-wind-storm-reanalysis/overview_9f914bdde4609de684d1d0c3b71136a26290a31d70fa3772e9980eb9a678cd11.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>reanalysis-cerra-land</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>CERRA-Land sub-daily regional reanalysis data for Europe from 1984 to present</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>The Copernicus European Regional ReAnalysis Land (CERRA-Land) dataset provides spatially and temporally consistent historical reconstructions of surface and soil variables at the same horizontal resolution as the CERRA high-resolution reanalysis.
+The need for precipitation and surface variables at an ever-increasing spatial and temporal resolution is a recurrent demand. These variables allow, among other things, to address water resource management issues and to carry out climate change impact studies. Regional surface reanalyses are a way to reconstruct these variables for past periods covering several decades using state-of-the-art models. Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with  newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but usually at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product.
+The dataset was produced using the CERRA-Land system which consists of a land surface modelling platform SURFEX (V8.1) and a daily (24-h) total accumulated precipitation assimilation system. Most of the data are forecasts generated based on the open-loop integration of the SURFEX. The observations are not directly used in their production but have an indirect influence through the atmospheric forcing  (e.g. 2m temperature) from the CERRA high-resolution reanalysis and precipitation reanalysis system used to integrate in time the SURFEX model. No downscaling method was used to build up the input forcing data because the CERRA-Land system has the same integration domain (e.g. grid spacing, orography) as the CERRA high-resolution atmospheric reanalysis. SURFEX was run offline, that is without feedback to the atmospheric analysis performed in the CERRA data assimilation cycles.
+To solve both heat and water transfer equations in the soil, a discretisation of the soil into 14 layers was used. The surface precipitation analysis and the 12 snow layers model included in the CERRA-Land system significantly improve the representation of the snowpack over Europe in comparison with the CERRA dataset.
+This dataset describes the evolution of soil moisture, soil temperature and snowpack in a consistent view over several decades at an enhanced resolution compared to ERA5 and ERA5-Land. The temporal and spatial resolutions of CERRA-Land data recommend this dataset, for example, for water resource management and climate change studies.
+The added value of the CERRA-Land data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data.
+More information about the CERRA-Land dataset can be found in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-land'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)']</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-07-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-land/overview_d8eae3742517018ee23f268dd236e977e6347d704abcc8d5f3fb8df282377362.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>reanalysis-cerra-model-levels</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>CERRA sub-daily regional reanalysis data for Europe on model levels from 1984 to present</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis data on model levels for Europe from 1984 to present.
+Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
+The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
+The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
+More information about the CERRA dataset can be found in the Documentation section.</t>
+        </is>
+      </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-monthly-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-monthly-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-model-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (upper level)']</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I39" t="inlineStr">
@@ -3087,7 +3087,7 @@
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K39" t="inlineStr">
@@ -3097,7 +3097,7 @@
       </c>
       <c r="L39" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-monthly-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-model-levels/overview_d6e86c0472bc3201214e0b19cd983a9630f0f6efe64f944647895980306f32e1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -3114,37 +3114,36 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>seasonal-original-single-levels</t>
+          <t>reanalysis-cerra-height-levels</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Seasonal forecast daily and subdaily data on single levels</t>
+          <t>CERRA sub-daily regional reanalysis data for Europe on height levels from 1984 to present</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>This entry covers single-level data and soil-level data at the original time resolution (once a day, or once every 6 hours, depending on the variable). 
-Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
-Given the complex, non-linear interactions between the individual components of the Earth system, the best tools for long-range forecasting are climate models which include as many of the key components of the system and possible; typically, such models include representations of the atmosphere, ocean and land surface. These models are initialised with data describing the state of the system at the starting point of the forecast, and used to predict the evolution of this state in time.
-While uncertainties coming from imperfect knowledge of the initial conditions of the components of the Earth system can be described with the use of ensembles, uncertainty arising from approximations made in the models are very much dependent on the choice of model. A convenient way to quantify the effect of these approximations is to combine outputs from several models, independently developed, initialised and operated.
-To this effect, the C3S provides a multi-system seasonal forecast service, where data produced by state-of-the-art seasonal forecast systems developed, implemented and operated at forecast centres in several European countries is collected, processed and combined to enable user-relevant applications. The composition of the C3S seasonal multi-system and the full content of the database underpinning the service are described in the documentation. The data is grouped in several catalogue entries (CDS datasets), currently defined by the type of variable (single-level or multi-level, on pressure surfaces) and the level of post-processing applied (data at original time resolution, processing on temporal aggregation and post-processing related to bias adjustment).
-The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
+          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on height levels for Europe from 1984 to present. One reason to provide atmospheric variables on height levels is for applications in the wind energy sector. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. specific rain water content).
+Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
+The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example, a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
+The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
+More information about the CERRA dataset can be found in the Documentation section.</t>
         </is>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-original-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-original-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-height-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (upper level)']</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I40" t="inlineStr">
@@ -3154,7 +3153,7 @@
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K40" t="inlineStr">
@@ -3164,7 +3163,7 @@
       </c>
       <c r="L40" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-original-single-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-height-levels/overview_d0f0a9b88a4f4050fb25d42356fde10a516a3a9d3f872c39458814cb8a1e06c8.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -3181,37 +3180,36 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>seasonal-monthly-pressure-levels</t>
+          <t>reanalysis-cerra-pressure-levels</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Seasonal forecast monthly statistics on pressure levels</t>
+          <t>CERRA sub-daily regional reanalysis data for Europe on pressure levels from 1984 to present</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>This entry covers pressure-level data aggregated on a monthly time resolution. 
-Seasonal forecasts provide a long-range outlook of changes in the Earth system over periods of a few weeks or months, as a result of predictable changes in some of the slow-varying components of the system. For example, ocean temperatures typically vary slowly, on timescales of weeks or months; as the ocean has an impact on the overlaying atmosphere, the variability of its properties (e.g. temperature) can modify both local and remote atmospheric conditions. Such modifications of the 'usual' atmospheric conditions are the essence of all long-range (e.g. seasonal) forecasts. This is different from a weather forecast, which gives a lot more precise detail - both in time and space - of the evolution of the state of the atmosphere over a few days into the future. Beyond a few days, the chaotic nature of the atmosphere limits the possibility to predict precise changes at local scales. This is one of the reasons long-range forecasts of atmospheric conditions have large uncertainties. To quantify such uncertainties, long-range forecasts use ensembles, and meaningful forecast products reflect a distributions of outcomes.
-Given the complex, non-linear interactions between the individual components of the Earth system, the best tools for long-range forecasting are climate models which include as many of the key components of the system and possible; typically, such models include representations of the atmosphere, ocean and land surface. These models are initialised with data describing the state of the system at the starting point of the forecast, and used to predict the evolution of this state in time.
-While uncertainties coming from imperfect knowledge of the initial conditions of the components of the Earth system can be described with the use of ensembles, uncertainty arising from approximations made in the models are very much dependent on the choice of model. A convenient way to quantify the effect of these approximations is to combine outputs from several models, independently developed, initialised and operated.
-To this effect, the C3S provides a multi-system seasonal forecast service, where data produced by state-of-the-art seasonal forecast systems developed, implemented and operated at forecast centres in several European countries is collected, processed and combined to enable user-relevant applications. The composition of the C3S seasonal multi-system and the full content of the database underpinning the service are described in the documentation. The data is grouped in several catalogue entries (CDS datasets), currently defined by the type of variable (single-level or multi-level, on pressure surfaces) and the level of post-processing applied (data at original time resolution, processing on temporal aggregation and post-processing related to bias adjustment).
-The data includes forecasts created in real-time each month starting from the publication of this entry and retrospective forecasts (hindcasts) initialised over periods in the past specified in the documentation for each origin and system.</t>
+          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstruction of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on pressure levels for Europe from 1984 to present. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. cloud cover).
+Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
+The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
+The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
+More information about the CERRA dataset can be found in the Documentation section.</t>
         </is>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/seasonal-monthly-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/seasonal-monthly-pressure-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Seasonal forecasts', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Temporal coverage: Future']</t>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (upper level)']</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I41" t="inlineStr">
@@ -3221,7 +3219,7 @@
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-01-01T00:00:00Z', '2026-01-01T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K41" t="inlineStr">
@@ -3231,7 +3229,7 @@
       </c>
       <c r="L41" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/seasonal-monthly-pressure-levels/overview_15999ae2b613698b2dc2304232059ba4341c57da7d42d90d1ff939f405ed5986.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-pressure-levels/overview_3109685f60f5c23b90af29d289a2c0a75bcf4dd7fd2a7e32db4187203808a51a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -3248,15 +3246,81 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>reanalysis-cerra-single-levels</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>CERRA sub-daily regional reanalysis data for Europe on single levels from 1984 to present</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>The Copernicus European Regional ReAnalysis (CERRA) datasets provide spatially and temporally consistent historical reconstructions of meteorological variables in the atmosphere and at the surface. There are four subsets: single levels (atmospheric and surface quantities), height levels (upper-air fields up to 500m), pressure levels (upper-air fields up to 1hPa) and model levels (native levels of the model). This entry provides reanalysis and forecast data on single levels for Europe from 1984 to present. Several atmospheric parameters are common to both reanalysis and forecast (e.g. temperature, wind), whilst others are produced only by the forecast model (e.g. 10m wind gust, radiative fluxes).
+Reanalysis combines model data with observations into a complete and consistent dataset using the laws of physics. This principle, called data assimilation, is based on the method used by numerical weather prediction centres, where a previous forecast is combined with newly available observations in an optimal way to produce a new best estimate of the state of the atmosphere, called analysis, from which an updated, improved forecast is issued. Reanalysis works in the same way, but at reduced resolution to allow for the provision of a dataset spanning back several decades. Reanalysis does not have the constraint of issuing timely forecasts, so there is more time to collect observations, and when going further back in time, to allow for the ingestion of improved, reprocessed, versions of the original observations, which all benefit the quality of the reanalysis product. The CERRA dataset was produced using the HARMONIE-ALADIN limited-area numerical weather prediction and data assimilation system, hereafter referred to as the CERRA system. The CERRA system employs a 3-dimensional variational data assimilation scheme of the atmospheric state at every assimilation time. The reanalysis dataset is convenient owing to its provision of atmospheric estimates at each model domain grid point over Europe for each regular output time, over a long period, and always using the same data format.
+The inputs to CERRA reanalysis are the observational data, lateral boundary conditions from ERA5 global reanalysis as prior estimates of the atmospheric state and physiographic datasets describing the surface characteristics of the model. The observing system has evolved over time, and although the data assimilation system can resolve data holes, the much sparser observational networks in the past periods (for example a reduced amount of satellite data in the 1980s) can impact the quality of analyses leading to less accurate estimates. The uncertainty estimates for reanalysis variables are provided by the CERRA-EDA, a 10-member ensemble of data assimilation system.
+The added value of the CERRA data with respect to the global reanalysis products is expected to come, for example, with the higher horizontal resolution that permits the usage of a better description of the model topography and physiographic data, and the assimilation of more surface observations.
+More information about the CERRA dataset can be found in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-cerra-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/reanalysis-cerra-single-levels?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (hydrology)', 'Variable domain: Atmosphere (surface)']</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[17.0, 20.0, 35.0, 65.0]]}, 'temporal': {'interval': [['1984-09-01T00:00:00Z', '2025-10-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-cerra-single-levels/overview_66070d5536cd25c00721b57234c482d8dc9c6ffea5110c9642d0eb31cde5d8f4.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
           <t>insitu-observations-surface-land</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="D43" t="inlineStr">
         <is>
           <t>Global land surface atmospheric variables from 1755 to present from comprehensive in-situ observations</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>This set of data holdings provides access to data collected from land surface meteorological observations across the globe. Data are available at the observational level and also at daily and monthly aggregations. Data have been collated and harmonised and quality control checks have been performed, but no attempt has been made to assess for potential biases. Data are provided for a range of commonly observed variables.
 Surface meteorological observations taken by a broad variety of organisations, including but not limited to National Meteorological Services, are being collated, reconciled, and harmonised. This work provides data that can underpin the development of reanalyses products as well as the production of gridded products and data services. 
@@ -3268,64 +3332,64 @@
 This work is being completed on behalf of C3S in sustained collaboration with colleagues at NOAA's National Centres for Environmental Information who are the WMO designated World Data Centre for meteorology.</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-surface-land'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J42" t="inlineStr">
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-01-01T00:00:00Z', '2018-10-17T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L42" t="inlineStr">
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-surface-land/overview_f31bc353e3e4105573b44ec9ae70ef43ec6216edc1f5a9bd5d593f770119bfd4.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
         <is>
           <t>satellite-aerosol-properties</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="D44" t="inlineStr">
         <is>
           <t>Aerosol properties gridded data from 1995 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>This data set provides observational records of aerosol properties obtained from observations collected by various satellite instruments. Aerosols are minor constituents of the atmosphere by mass, but critical components in terms of impact on climate. Aerosols influence the global radiation balance directly by scattering and absorbing radiation, and indirectly through influencing cloud reflectivity, cloud cover and cloud lifetime.
 The main variables provided by this dataset are: aerosol optical depth, fine mode aerosol optical depth, dust aerosol optical depth, single scattering albedo, aerosol layer height and aerosol extinction coefficient. These variables are derived from observations from several sensors using a set of different processing techniques. This provides the possibility to derive a large set of complementary aerosol properties needed to describe the complex nature of atmospheric aerosols. Furthermore, different algorithms have their specific strengths and weaknesses, meaning that datasets originating from the same sensor but processed by different algorithms provide a way to evaluate uncertainties (e.g. areas of good or bad agreement between them). Altogether, the aerosol properties dataset is very extensive and offers a choice of complementary options – which is appropriate depends on the intended application.
@@ -3333,64 +3397,130 @@
 This dataset is produced on behalf of the Copernicus Climate Change Service.</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-aerosol-properties'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-aerosol-properties?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J43" t="inlineStr">
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1995-06-01T00:00:00Z', '2025-07-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L43" t="inlineStr">
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-aerosol-properties/overview_096df6e39e0942e26cb18d65fd47e950059ca9278d5e7fb00ea2bbe985bcf6ea.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>reanalysis-pan-carra</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>pan-Arctic regional reanalysis sub-daily data from 1986 to present</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>The C3S Arctic Regional Reanalysis second generation (CARRA2) dataset contains 3-hourly analyses at 2.5 km resolution. These variables are specified at single levels (including surface) and also at soil, height, pressure and model levels. Additionally, hourly forecasts are available between the analysis times and particularly forecasts up to 18 hours initialised from the analyses at 00 and 12 UTC.
+The domain covers a full Arctic (pan-Arctic) region on a polar stereographic projection, reaching from south of Greenland to south of Alaska including the entire Arctic Ocean and a portion of Northern Europe.
+The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art regional numerical weather prediction model. High resolution reanalysis for the Arctic region is essential due to the more pronounced climate change in that region than elsewhere. This calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), better description of surface characteristics (high resolution satellite and physiographic data), high resolution dynamics and improved physical parameterisation of clouds and precipitation in particular. These details add value to the regional reanalysis with respect to its global counterpart. 
+The inputs to CARRA2 reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where less (or even no) observations are available.
+More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-pan-carra'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1986-01-01T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-pan-carra/overview_c7c71390f49eaae7964b5dd777a6bb65a421b494ad397b79642ec96d8143d037.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
         <is>
           <t>reanalysis-pan-carra-means</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="D46" t="inlineStr">
         <is>
           <t>pan-Arctic regional reanalysis daily and monthly data from 1986 to present</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>The C3S Arctic Regional Reanalysis second generation (CARRA2) dataset contains daily and monthly meteorological variables at 2.5 km resolution. These variables are specified at single levels (including surface) and also at soil, height, pressure and model levels. These daily and monthly data are pre-calculated and have the following types depending on the variables: daily and monthly averages, extremes and totals. 
 The domain covers a full Arctic (pan-Arctic) region on a polar stereographic projection, reaching from south of Greenland to south of Alaska including the entire Arctic Ocean and a portion of Northern Europe.
@@ -3399,130 +3529,64 @@
 More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-pan-carra-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J44" t="inlineStr">
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1986-01-01T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-pan-carra-means/overview_4fa694ada559e58b33e7417141cfe02573fe7271c6d4079656a1b0d81c6e4898.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>reanalysis-pan-carra</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>pan-Arctic regional reanalysis sub-daily data from 1986 to present</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>The C3S Arctic Regional Reanalysis second generation (CARRA2) dataset contains 3-hourly analyses at 2.5 km resolution. These variables are specified at single levels (including surface) and also at soil, height, pressure and model levels. Additionally, hourly forecasts are available between the analysis times and particularly forecasts up to 18 hours initialised from the analyses at 00 and 12 UTC.
-The domain covers a full Arctic (pan-Arctic) region on a polar stereographic projection, reaching from south of Greenland to south of Alaska including the entire Arctic Ocean and a portion of Northern Europe.
-The dataset has been produced with the use of the HARMONIE-AROME state-of-the-art regional numerical weather prediction model. High resolution reanalysis for the Arctic region is essential due to the more pronounced climate change in that region than elsewhere. This calls for a better description of this region providing additional details with respect to the global reanalyses (ERA5). The additional information is provided by the higher horizontal resolution, more local observations (from the Nordic countries and Greenland), better description of surface characteristics (high resolution satellite and physiographic data), high resolution dynamics and improved physical parameterisation of clouds and precipitation in particular. These details add value to the regional reanalysis with respect to its global counterpart. 
-The inputs to CARRA2 reanalysis are the observations, the ERA5 global reanalysis as lateral boundary conditions and the physiographic datasets describing the surface characteristics of the model. The observation values and information about their quality are used together to constrain the reanalysis where observations are available and provide information for the data assimilation system in areas in where less (or even no) observations are available.
-More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-pan-carra'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I45" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1986-01-01T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-pan-carra/overview_c7c71390f49eaae7964b5dd777a6bb65a421b494ad397b79642ec96d8143d037.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr">
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
         <is>
           <t>insitu-comprehensive-upper-air-observation-network</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="D47" t="inlineStr">
         <is>
           <t>Comprehensive Upper-air Observation Network from 1901 to present</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>The Comprehensive Upper-air Observation Network (CUON) dataset is designed 
 to contain all available observations from balloons ascents through the atmosphere. 
@@ -3555,64 +3619,64 @@
 The dataset can be downloaded as NetCDF files (CDM-Obs-Core, see documentation tab) or as comma-separated values (CSV) files.</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-comprehensive-upper-air-observation-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J46" t="inlineStr">
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1901-01-01T00:00:00Z', '2024-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-comprehensive-upper-air-observation-network/overview_31bd6058c55ae4546031bcf2ac0e14b7219ab40caa305ef4a2c3bef84c7c05a6.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
         <is>
           <t>satellite-methane</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="D48" t="inlineStr">
         <is>
           <t>Methane data from 2002 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>This dataset provides atmospheric CH₄ observations as derived from satellite radiances. It consists of two types of products each covering a different part of the atmosphere: (i) The average CH₄ mixing ratio of the entire atmosphere from the Earth’s surface to the top of the atmosphere. These column-averaged mixing ratio products are referred to as “XCH4” products. (ii) Mid-tropospheric (MT) CH₄ mixing ratio products. These products are referred to as "MTCH4" products. These products can be used to monitor the spatial distribution and temporal evolution of CH₄. This is important as CH₄ is after CO₂ the most important anthropogenic so-called greenhouse gas enhancing global warming and associated climate change. Methane has many natural and anthropogenic sources. CH₄ time series show an annual cycle, e.g., due seasonal wetland emissions. Currently atmospheric methane also shows and increasing trend. The dataset can be used for several climate related applications: It can be used in combination with appropriate modelling (e.g., inverse modelling) to obtain information on CH₄ emission sources, to assess the quality of climate models, to generate (e.g., forcing) input data as used by climate models, to determine the atmospheric CH₄ growth rate, etc.
 The XCH4 and MTCH4 satellite-derived data products complement networks of surface observations. Typically, surface observations are more accurate, but they are also sparse whereas the satellite observations cover large parts of the world not observed from the ground. The XCH4 and MTCH4 datasets are generated by applying so called retrieval algorithms to satellite radiance measurements. The XCH4 products are based on measurements of reflected solar radiation in the short-wave near-infrared (SWIR) spectral region. These measurements are sensitive to CH₄ changes in the entire atmospheric vertical column down to the Earth surface. This implies that the observations are limited to essentially cloud-free conditions. Strict quality filtering is applied to the data products to achieve highest possible data quality. Whereas generation of the XCH4 products requires reflected solar radiation, i.e., daytime observation conditions, the MT products have been generated from radiance measurements in the thermal infrared (TIR) spectral region. These measurements can be conducted day and night and therefore have a much better spatio-temporal coverage compared to the XCH4 data. These measurements have maximum sensitivity for CH₄ variations in the mid-troposphere and only limited sensitivity to CH₄ changes near the ground. The two types of datasets are therefore highly complementary as they contain different information on atmospheric CH₄.
@@ -3623,64 +3687,64 @@
 This dataset is produced on behalf of C3S with the exception of the SCIAMACHY L2 products that were generated in the framework of the GHG-CCI project of the European Space Agency (ESA) Climate Change Initiative (CCI).</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-methane'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-methane?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J47" t="inlineStr">
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -70.0, 360.0, 70.0]]}, 'temporal': {'interval': [['2002-10-01T00:00:00Z', '2024-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L47" t="inlineStr">
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-methane/overview_a8d840c9ea39792c2691b0414da4eb40f8bf9241aa4abf76da96f316fca7c729.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
         <is>
           <t>satellite-ozone-v1</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="D49" t="inlineStr">
         <is>
           <t>Ozone monthly gridded data from 1970 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>This dataset provides monthly averaged ozone values derived from a large set of satellite sensors with global coverage.  Ozone is naturally formed in the atmosphere through the interaction between molecular oxygen and solar radiation. In the stratosphere, it acts as a shield protecting us from the UV radiation emitted by the Sun. At ground level however, it is a human health irritant and a component of smog. Ozone and climate change are strongly related. 
 The ozone abundance in the atmosphere can be measured from space using a number of different remote-sensing techniques relying on ozone absorption at UV, visible, infrared and millimeter wavelengths. Instruments use the solar light or the thermal radiation emitted by the Earth to derive the vertical distribution of ozone in nadir, limb and solar occultation observation geometries. In the measured signal, molecular absorption features characteristic of ozone are detected using appropriate retrieval algorithms and are used to quantify its abundance. 
@@ -3690,64 +3754,64 @@
 This dataset is produced on behalf of C3S based on algorithm developments performed as part of the European Space Agency (ESA) Ozone Climate Change Initiative (CCI) project.</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-ozone-v1'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-ozone-v1?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J48" t="inlineStr">
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1970-04-01T00:00:00Z', '2025-07-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L48" t="inlineStr">
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-ozone-v1/overview_33cd7f94878204b94dcc702dca7a24af2954b70a7f7abdca33650face0535d64.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
         <is>
           <t>satellite-lai-fapar</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="D50" t="inlineStr">
         <is>
           <t>Leaf area index and fraction absorbed of photosynthetically active radiation 10-daily gridded data from 1981 to present</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>This catalogue entry provides satellite-derived estimates of two related variables: Leaf Area Index (LAI) and fraction of Absorbed Photosynthetically Active Radiation (fAPAR). LAI and fAPAR are both Essential Climate Variables (ECVs) as defined by the Global Climate Observing System (GCOS), meaning they have been designated as essential for contributing to a comprehensive view of Earth’s climate, its variability and trends. Combined, LAI and fAPAR are considered vital for monitoring vegetation dynamics, assessing vegetation growth and productivity, and understanding vegetation-atmosphere exchanges. 
 LAI determines the size of the interface for the exchange of energy (including radiation) and mass between the canopy and the atmosphere. fAPAR is the fraction of photosynthetically active radiation absorbed by the canopy. It depends on canopy structure, vegetation element optical properties and illumination conditions. 
@@ -3755,64 +3819,64 @@
 These datasets have been produced on behalf of C3S, with the exception of V0.0 which has been brokered from the Copernicus Global Land Service (CGLS).</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-lai-fapar'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-lai-fapar?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J49" t="inlineStr">
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-09-01T00:00:00Z', '2024-12-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L49" t="inlineStr">
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-lai-fapar/overview_545f9b7ee55946f2fcb31740c2b862b202067d16e6f664b0dc316a1217a86215.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
         <is>
           <t>satellite-albedo</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="D51" t="inlineStr">
         <is>
           <t>Surface albedo 10-daily gridded data from 1981 to present</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>This catalogue entry provides satellite-derived estimates of surface albedo, an Essential Climate Variable (ECV) as defined by the Global Climate Observing System (GCOS). Surface albedo is critical for understanding the Earth’s climate, its variability, and trends, as it quantifies the fraction of solar irradiance reflected by the Earth’s surface. This variable plays a vital role in the global radiation budget, influencing surface temperatures, water balance, and climate feedback mechanisms, such as the ice-albedo feedback in polar regions.
 Surface albedo, specifically the directional-hemispherical reflectance (also known as black-sky albedo), represents the proportion of incoming solar radiation reflected by the surface under direct illumination conditions, computed for local solar noon. It depends on surface properties such as land cover, snow and ice extent, soil moisture, and vegetation characteristics. Surface albedo is essential for climate and weather studies, as it governs the amount of solar energy absorbed by the Earth, impacting energy exchange between the surface and atmosphere.
@@ -3820,64 +3884,64 @@
 These datasets have been produced on behalf of the Copernicus Climate Change Service (C3S), with some earlier versions brokered from the Copernicus Global Land Service (CGLS).</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-albedo'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-albedo?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-09-01T00:00:00Z', '2024-12-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-albedo/overview_c1e0aa1e0bebeb784f4e87542fd273b6ab94b763a57174808cafd4dfc8a9e8d8.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
         <is>
           <t>satellite-carbon-dioxide</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="D52" t="inlineStr">
         <is>
           <t>Carbon dioxide data from 2002 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>This dataset provides atmospheric CO₂ observations as derived from satellite radiances. It consists of two types of products each covering a different part of the atmosphere: (i) The average CO₂ mixing ratio of the entire atmosphere from the Earth’s surface to the top of the atmosphere. These column-averaged mixing ratio products are referred to as “XCO2” products. (ii) Mid-tropospheric (MT) CO₂ mixing ratio products. These products are referred to as "MTCO2" products. These products can be used to monitor the spatial distribution and temporal evolution of CO₂. This is important as CO₂ is the most important anthropogenic so-called greenhouse gas driving global warming and associated climate change. CO₂ time series show an annual cycle primarily due to uptake and release of CO₂ by the terrestrial biosphere (but also due to ocean uptake and release) and a general increase due to burning of fossil fuels (oil, gas, coal). The annual increase of CO₂ shows significant inter-annual variations, due to variations of the (e.g., weather related) uptake and release of CO₂ by the natural CO₂ sources and sinks. The dataset can be used for a number of climate related applications: It can be used in combination with appropriate modelling (e.g., inverse modelling) to obtain information on CO₂ sources and sinks, to assess the quality of climate models, to generate (e.g., forcing) input data as used by climate models, to determine the atmospheric CO₂ growth rate, etc.
 The XCO2 and MTCO2 satellite-derived data products complement networks of surface observations. Typically, surface observations are more accurate, but they are also sparse whereas the satellite observations cover large parts of the world not observed from the ground. The XCO2 and MTCO2 datasets are generated by applying so called retrieval algorithms to satellite radiance measurements. The XCO2 products are based on measurements of reflected solar radiation in the short-wave near-infrared (SWIR) spectral region. These measurements are sensitive to CO₂ changes in the entire atmospheric vertical column down to the Earth surface. This implies that the observations are limited to essentially cloud-free conditions. Strict quality filtering is applied to the data products to achieve highest possible data quality. Whereas generation of the XCO2 products requires reflected solar radiation, i.e., daytime observation conditions, the MT products have been generated from radiance measurements in the thermal infrared (TIR) spectral region. These measurements can be conducted day and night and therefore have a much better spatio-temporal coverage compared to the XCO2 data. These measurements have maximum sensitivity for CO₂ variations in the mid-troposphere and only limited sensitivity to CO₂ changes near the ground. The two types of datasets are therefore highly complementary as they contain different information on atmospheric CO₂.
@@ -3888,64 +3952,64 @@
 This dataset is produced on behalf of C3S with the exception of the SCIAMACHY and AIRS L2 products that were generated in the framework of the GHG-CCI project of the European Space Agency (ESA) Climate Change Initiative (CCI).</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-carbon-dioxide'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-carbon-dioxide?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -70.0, 360.0, 70.0]]}, 'temporal': {'interval': [['2002-10-01T00:00:00Z', '2024-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-carbon-dioxide/overview_c7da6512e3b4771cca9e37bd5c22213bc650818c85cbe05e034672d32c07aa6b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
         <is>
           <t>satellite-sea-surface-temperature</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="D53" t="inlineStr">
         <is>
           <t>Global sea surface temperature derived from satellite observations</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>This dataset provides daily global estimates of sea surface temperature (SST) based on observations from multiple satellite sensors since July 1979. SST is a key driver of global weather and climate patterns and plays an important role in the exchanges of energy, momentum, moisture and gases between the ocean and atmosphere. Accurate SST data are therefore essential for understanding and assessing variability and long-term changes in the Earth’s climate.
 The SST data provided here are based on measurements made by three series of thermal infrared sensors flown onboard multiple polar-orbiting satellites: the Advanced Very High Resolution Radiometers (AVHRRs), the Along Track Scanning Radiometers (ATSRs), and the Sea and Land Surface Temperature Radiometers (SLSTRs); and two microwave sensors: the Advanced Microwave Scanning Radiometers (AMSR).
@@ -3954,64 +4018,64 @@
 The SST algorithms were developed as part of the ESA SST Climate Change Initiative (CCI) project, which also funded the production of the CDR. The Copernicus Climate Change Service (C3S) funded the production of the ICDR for 2022. For 2023 and 2024, the production of the ICDR was funded by the UK Earth Observation Climate Information Service (EOCIS) and UK Marine and Climate Advisory Service (UKMCAS).</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="F53" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-surface-temperature'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-surface-temperature?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="G53" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H53" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1979-07-13T00:00:00Z', '2023-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-surface-temperature/overview_1d04648eeb6276208d181325c897c45ddb204c5999fafdfdfee2ae3e8dce451f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
         <is>
           <t>reanalysis-carra-means</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr">
+      <c r="D54" t="inlineStr">
         <is>
           <t>Arctic regional reanalysis daily and monthly data from 1991 to present</t>
         </is>
       </c>
-      <c r="E53" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>The daily and monthly data of the C3S Arctic Regional Reanalysis (CARRA) dataset contains daily and monthly meteorological variables at 2.5 km resolution. This includes fields at the single levels (including surface) and on pressure, height, soil and model levels.
 These daily and monthly data are pre-calculated and have the following types depending on the variables: daily and monthly averages, extremes and totals. 
@@ -4021,175 +4085,103 @@
 More details about the reanalysis dataset and the extensive input data are given in the Documentation section.</t>
         </is>
       </c>
-      <c r="F53" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/reanalysis-carra-means'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Spatial coverage: Arctic']</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[15.0, 60.0, 65.0, 72.0]]}, 'temporal': {'interval': [['1990-09-01T00:00:00Z', '2025-09-30T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/reanalysis-carra-means/overview_1acaf3e056533cdd4935e0af885738c413a910bac8ae679bbd930d3ad6de9d76.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
         <is>
           <t>satellite-precipitation</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="D55" t="inlineStr">
         <is>
           <t>Precipitation monthly and daily gridded data from 1979 to present derived from satellite measurements</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>Within the hydrological cycle, precipitation is the main component of water transport from the atmosphere to the Earth’s surface. Precipitation varies strongly, depending on geographical location, season, synopsis, and other meteorological factors. The supply of freshwater through precipitation is vital for many subsystems of the climate and the environment, but there are also hazards related to extensive precipitation or the lack of precipitation.
 The analysis of the Global Precipitation Climatology Project (GPCP) provides global estimates of precipitation as monthly means (GPCP monthly v2.3, now updated to GPCP monthly v3.2 and v3.3) and as daily means (GPCP daily v1.3, now updated to GPCP daily v3.2 and v3.3), based on estimates using microwave imagers on polar-orbiting satellites and infrared imagers on geostationary satellites. The updated monthly and daily products incorporate advances in data processing and calibration techniques, ensuring improved accuracy and consistency. The monthly product also includes information from rain-gauge observations analyzed by the Global Precipitation Climatology Centre (GPCC). The GPCP daily product is tied to GPCC indirectly via its calibration with the GPCP monthly product. Improvements in GPCP V3.3 over V3.2 include: upgraded input datasets, new adjustments to ensure a homogeneous record and the absolute bias error as a new output field.
 The datasets v1.3 and v2.3 are provided on behalf of GPCP. The datasets v3.2 and v3.3 are provided on behalf of the Goddard Earth Sciences Data and Information Services Center (GES DISC): see licence texts on the right.</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-precipitation'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Product type: Satellite observations', 'Variable domain: Atmosphere (surface)']</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2024-09-30T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
+      <c r="K55" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L55" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-precipitation/overview_b51d73b9952afa2ee9248d65d659f39a17170aa4a166696f841cd1ae68d08269.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>insitu-observations-gruan-reference-network</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>In situ temperature, relative humidity and wind profiles from 2006 to March 2020 from the GRUAN reference network</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>The Global Climate Observing System (GCOS) Reference Upper-Air Network (GRUAN) is an international reference observing network, established in 2006, of sites measuring essential climate variables above Earth's surface, designed to fill an important gap in the current global observing system. GRUAN measurements are providing high-quality climate data records from the surface, through the troposphere, and into the stratosphere. These are being used to determine trends, constrain and calibrate data from more spatially comprehensive observing systems (including satellites and current radiosonde networks), and provide appropriate data for studying atmospheric processes. GRUAN is envisaged as a global network of eventually 30-40 sites that, to the extent possible, builds on existing observational networks and capabilities.
-GRUAN observation processing is designed to adjust systematic errors in radiosonde measurements of pressure, temperature, humidity, and wind, and to quantify how the uncertainties related to these error sources are derived. 
-This characterization ensures the traceability to SI units or accepted standards, providing extensive metadata and full documentation of measurements and algorithms.
-This allows the full reprocessing from the raw data.
-The Climate Data Store provides access to the C3S GRUAN Data Product (GDP) version 2 (V2), for Vaisala RS92 and for Meisei RS-11G sondes. Data products for the new Vaisala RS41 sondes will be added at a later point. Specific GRUAN data products for other sonde types are also under development. 
-The current dataset provides radiosoundings from 17 stations.
-The GRUAN dataset provides the vertical aggregation of quantities listed below in the main-variables table. 
-Attributes are described in the related-variables tables.
-The dataset can be downloaded as NetCDF files (CDM-Obs-Core, see documentation) or as comma-separated values (CSV) files.
-More details about the the GRUAN dataset are given in the Documentation section, and
-general information and background can be obtained from the GRUAN website (www.gruan.org).</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-gruan-reference-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-01-01T00:00:00Z', '2018-10-17T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-gruan-reference-network/overview_7db533ea4470d375ef692873fc53a8f0f1ecc7c53e210fc605d8a00540f2780b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -4290,81 +4282,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>insitu-observations-woudc-ozone-total-column-and-profiles</t>
+          <t>insitu-observations-igra-baseline-network</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>In situ total column ozone and ozone soundings from 1924 to present from the World Ozone and Ultraviolet Radiation Data Centre</t>
+          <t>In situ observations of meteorological variables from the Integrated Global Radiosounding Archive and the Radiosounding Harmonization dataset from 1978 onward</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
-        <is>
-          <t>This dataset provides access to two types of ozone observations: total column ozone estimates and vertical profiles of ozone concentration.
-The total ozone estimates are based on solar UV radiation measurements made by ground-based spectrophotometers (Dobson or Brewer type spectrophotometers).
-The vertical profiles of ozone concentration are estimated primarily using ozonesonde observations.
-Data are available for 159 Dobson stations, 109 Brewer stations and 135 ozonesondes stations.
-The ozone data are included in the quadrennial Scientific Assessments of Ozone Depletion as part of the “Vienna convention for the protection of the ozone layer” and are used extensively for a range of studies and applications.</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-woudc-ozone-total-column-and-profiles'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1924-01-01T00:00:00Z', None]]}}</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-woudc-ozone-total-column-and-profiles/overview_3b6dc2d0544f347c5fb42126c9f05b7a18aff142d96806abd93a3732aefa296a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>insitu-observations-igra-baseline-network</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>In situ observations of meteorological variables from the Integrated Global Radiosounding Archive and the Radiosounding Harmonization dataset from 1978 onward</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
         <is>
           <t>This catalogue entry provides access to vertical profiles of standard meteorological variables. It includes two archives. 
 The first is version 2 of the Integrated Global Radiosounding Archive (IGRA) from 1978 which incorporates global 
@@ -4393,9 +4319,81 @@
 The dataset can be downloaded as NetCDF files (CDM-Obs-Core, see documentation) or as comma-separated values (CSV) files.</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-igra-baseline-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1978-01-01T00:00:00Z', None]]}}</t>
+        </is>
+      </c>
+      <c r="K57" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L57" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-igra-baseline-network/overview_e748010c989d30cb9dbe3d6a04d192fcd3be3729ae649ea8dced80184a8aa700.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>insitu-observations-gruan-reference-network</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>In situ temperature, relative humidity and wind profiles from 2006 to March 2020 from the GRUAN reference network</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>The Global Climate Observing System (GCOS) Reference Upper-Air Network (GRUAN) is an international reference observing network, established in 2006, of sites measuring essential climate variables above Earth's surface, designed to fill an important gap in the current global observing system. GRUAN measurements are providing high-quality climate data records from the surface, through the troposphere, and into the stratosphere. These are being used to determine trends, constrain and calibrate data from more spatially comprehensive observing systems (including satellites and current radiosonde networks), and provide appropriate data for studying atmospheric processes. GRUAN is envisaged as a global network of eventually 30-40 sites that, to the extent possible, builds on existing observational networks and capabilities.
+GRUAN observation processing is designed to adjust systematic errors in radiosonde measurements of pressure, temperature, humidity, and wind, and to quantify how the uncertainties related to these error sources are derived. 
+This characterization ensures the traceability to SI units or accepted standards, providing extensive metadata and full documentation of measurements and algorithms.
+This allows the full reprocessing from the raw data.
+The Climate Data Store provides access to the C3S GRUAN Data Product (GDP) version 2 (V2), for Vaisala RS92 and for Meisei RS-11G sondes. Data products for the new Vaisala RS41 sondes will be added at a later point. Specific GRUAN data products for other sonde types are also under development. 
+The current dataset provides radiosoundings from 17 stations.
+The GRUAN dataset provides the vertical aggregation of quantities listed below in the main-variables table. 
+Attributes are described in the related-variables tables.
+The dataset can be downloaded as NetCDF files (CDM-Obs-Core, see documentation) or as comma-separated values (CSV) files.
+More details about the the GRUAN dataset are given in the Documentation section, and
+general information and background can be obtained from the GRUAN website (www.gruan.org).</t>
+        </is>
+      </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-igra-baseline-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-gruan-reference-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G58" t="inlineStr">
@@ -4415,7 +4413,7 @@
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1978-01-01T00:00:00Z', None]]}}</t>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-01-01T00:00:00Z', '2018-10-17T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K58" t="inlineStr">
@@ -4425,7 +4423,7 @@
       </c>
       <c r="L58" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-igra-baseline-network/overview_e748010c989d30cb9dbe3d6a04d192fcd3be3729ae649ea8dced80184a8aa700.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-gruan-reference-network/overview_7db533ea4470d375ef692873fc53a8f0f1ecc7c53e210fc605d8a00540f2780b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -4442,15 +4440,81 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>insitu-observations-woudc-ozone-total-column-and-profiles</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>In situ total column ozone and ozone soundings from 1924 to present from the World Ozone and Ultraviolet Radiation Data Centre</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>This dataset provides access to two types of ozone observations: total column ozone estimates and vertical profiles of ozone concentration.
+The total ozone estimates are based on solar UV radiation measurements made by ground-based spectrophotometers (Dobson or Brewer type spectrophotometers).
+The vertical profiles of ozone concentration are estimated primarily using ozonesonde observations.
+Data are available for 159 Dobson stations, 109 Brewer stations and 135 ozonesondes stations.
+The ozone data are included in the quadrennial Scientific Assessments of Ozone Depletion as part of the “Vienna convention for the protection of the ozone layer” and are used extensively for a range of studies and applications.</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-woudc-ozone-total-column-and-profiles'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Variable domain: Atmosphere (composition)', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1924-01-01T00:00:00Z', None]]}}</t>
+        </is>
+      </c>
+      <c r="K59" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L59" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-woudc-ozone-total-column-and-profiles/overview_3b6dc2d0544f347c5fb42126c9f05b7a18aff142d96806abd93a3732aefa296a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
           <t>satellite-sea-ice-thickness</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr">
+      <c r="D60" t="inlineStr">
         <is>
           <t>Sea ice thickness gridded data for the Arctic derived from satellite observations</t>
         </is>
       </c>
-      <c r="E59" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>This dataset provides gridded sea ice thickness data for the Arctic, derived from satellite observations. Sea ice plays a vital role in the climate system, influencing air-sea interactions, the Earth’s energy balance, and marine ecosystems. It is recognised by the Global Climate Observing System (GCOS) as an Essential Climate Variable (ECV). Sea ice thickness is a key characteristic used alongside other parameters such as concentration, edge, and type, all available in the Climate Data Store (CDS).
 Sea ice thickness is estimated from satellite radar altimetry, which measures the sea ice freeboard—the height difference between the ice surface and open water in leads (areas of open water within the sea ice). Since most sea ice floats below the surface, total thickness is roughly 10 times the freeboard. Snow cover, however, complicates this relationship, requiring additional data on snow depth and density for accurate estimates.
@@ -4459,64 +4523,64 @@
 Both products are limited to the Arctic and the winter months (October–April), as melt conditions in other months introduce biases. There is currently no sea ice thickness data of sufficient quality available for the southern hemisphere. The Level-3 algorithm was developed through the European Space Agency (ESA) Climate Change Initiative (CCI) on sea ice.</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-ice-thickness'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-ice-thickness?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Provider: Copernicus C3S', 'Variable domain: Ocean (physics)']</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2002-10-01T00:00:00Z', '2024-12-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
+      <c r="K60" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L60" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-ice-thickness/overview_c3885a4bad303271233f2a62a1af915decc6f9d331d4137ab8a8800007a5ed72.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
         <is>
           <t>satellite-sea-ice-drift</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="D61" t="inlineStr">
         <is>
           <t>Sea ice drift daily gridded data derived from satellite observations</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>This dataset provides daily gridded fields of sea ice drift vectors for both hemispheres derived from satellite passive microwave brightness temperatures and atmospheric reanalysis data. Sea ice is an important component of our climate system and a sensitive indicator of climate change. Its presence or retreat significantly affects ocean-atmosphere interactions, the Earth’s energy budget as well as marine ecosystems. It is classified as an Essential Climate Variable by the Global Climate Observing System.
 Sea ice drift refers to the movement of ice, represented by vectors showing how far and in which direction the ice travels over a set time period (here 24 hours). It is one of the parameters commonly used to characterise sea ice. This dataset is of relatively coarse resolution and based on data from several satellite sensors:
@@ -4527,64 +4591,64 @@
 This dataset is brokered on behalf of the Copernicus Climate Change Service by the European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT) Ocean and Sea Ice Satellite Application Facility (OSI SAF).</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-ice-drift'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
+      <c r="I61" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1991-01-01T00:00:00Z', '2020-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
+      <c r="K61" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L61" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-ice-drift/overview_184d387bf42f71294a08123be66f3360476c9dd11f835f398efcb79abbbe04ae.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
         <is>
           <t>derived-era5-land-daily-statistics</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="D62" t="inlineStr">
         <is>
           <t>ERA5-Land post-processed daily statistics from 1950 to present</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>ERA5-Land is a reanalysis dataset providing a consistent view of the evolution of land variables over several decades at an enhanced resolution compared to ERA5. ERA5-Land has been produced by replaying the land component of the ECMWF ERA5 climate reanalysis. Reanalysis combines model data with observations from across the world into a globally complete and consistent dataset using the laws of physics. Reanalysis produces data that goes several decades back in time, providing an accurate description of the climate of the past. 
 ERA5-Land uses ERA5 atmospheric variables, such as air temperature and air humidity, as input to control the simulated land fields. This is called the atmospheric forcing. Without the constraint of the atmospheric forcing, the model-based estimates can rapidly deviate from reality. Therefore, while observations are not directly used in the production of ERA5-Land, they have an indirect influence through the atmospheric forcing used to run the simulation. In addition, the input air temperature, air humidity and pressure used to run ERA5-Land are corrected to account for the altitude difference between the grid of the forcing and the higher resolution grid of ERA5-Land. This correction is called 'lapse rate correction'. 
@@ -4596,64 +4660,64 @@
 For more details on the hourly data used to calculate the daily statistics, please refer to the ERA5-land hourly data catalogue entry and the documentation found therein.</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/derived-era5-land-daily-statistics'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Variable domain: Land (hydrology)', 'Provider: Copernicus C3S', 'Variable domain: Land (physics)']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
+      <c r="I62" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2025-10-22T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
+      <c r="K62" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L62" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/derived-era5-land-daily-statistics/overview_8b89faa35fd5cd19391efec0543aa2378069c880df780e353a0be4cd296e4624.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
         <is>
           <t>satellite-ice-sheet-mass-balance</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="D63" t="inlineStr">
         <is>
           <t>Gravimetric mass balance data for the Antarctic and Greenland ice sheets derived from satellite observations</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>This dataset provides a complete archive of monthly mass change timeseries for the drainage basins of the Antarctic and Greenland Ice Sheets from NASA's Gravity Recovery and Climate Experiment (GRACE) and GRACE Follow On (GRACE-FO) mission, which have operated from 2002 to current data.
 It is guided by the Global Climate Observing System targets for the Ice Sheets Mass Change Essential Climate Variable. The GRACE twin satellites measured changes in the Earth’s gravitational field over time and inferred from them mass changes over the ice sheets, using the regional integration approach. A timeseries of mass change is provided for each ice sheet, and also for each drainage basin separately.
@@ -4661,64 +4725,64 @@
 The data was brokered from ESA’s Greenland and ESA's Antarctic Ice Sheet Climate Change Initiative projects.</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-ice-sheet-mass-balance'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-ice-sheet-mass-balance?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Temporal coverage: Present', 'Variable domain: Land (cryosphere)', 'Product type: Satellite observations', 'Spatial coverage: Antarctic and Greenland']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-180, -90, 180, 90]]}, 'temporal': {'interval': [['2003-01-01T00:00:00Z', '2022-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
+      <c r="K63" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L63" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-ice-sheet-mass-balance/overview_b9ef44547c7478d11380f61859c148da629c81477ac78c090f5a6e0657339c61.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
         <is>
           <t>satellite-sea-ice-edge-type</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="D64" t="inlineStr">
         <is>
           <t>Sea ice edge and type daily gridded data from 1978 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>This dataset provides daily gridded data of sea ice edge and sea ice type derived from brightness temperatures measured by satellite passive microwave radiometers. Sea ice is an important component of our climate system and a sensitive indicator of climate change. Its presence or its retreat has a strong impact on air-sea interactions, the Earth’s energy budget as well as marine ecosystems. It is recognized by the Global Climate Observing System as an Essential Climate Variable. Sea ice edge and type are some of the parameters used to characterise sea ice. Other parameters include sea ice concentration and sea ice thickness, also available in the Climate Data Store.
 Sea ice edge and type are defined as follows:
@@ -4729,64 +4793,64 @@
 This dataset is produced on behalf of Copernicus Climate Change Service (C3S), with heritage from the operational products generated by EUMETSAT Ocean and Sea Ice Satellite Application Facility (OSI SAF).</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-ice-edge-type'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-ice-edge-type?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1978-10-25T00:00:00Z', '2025-09-24T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
+      <c r="K64" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L64" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-ice-edge-type/overview_4934af8d6960da3f56fb7e5cdf3c13dd5cc58cc70c6563e948778ad286a2bc89.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C64" t="inlineStr">
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
         <is>
           <t>sis-biodiversity-era5-regional</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="D65" t="inlineStr">
         <is>
           <t>Downscaled bioclimatic indicators for selected regions from 1979 to 2018 derived from reanalysis</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>This dataset provides a historical reconstruction of bioclimatic indicators at 1  x 1 km resolution for Europe, Northern Brazil and Central Africa. These bioclimate indicators describe how the climate affects ecosystems, the services they deliver, and nature’s biodiversity. They are specifically relevant for applications within the biodiversity and ecosystem services community.
 The 76 indicators cover bioclimatic variables for the land environment, characterising surface energy, drought, soil moisture and the (near-) surface climate including wind as well as Essential Climate Variables (ECV) relevant to the biodiversity community and are based on hourly or monthly ERA5 (ERA5-Land) reanalysis data. The indicators have been downscaled to 1 x 1 km resolution using a statistical downscaling methodology that takes into account the relationship between orography and a climate state variable.
@@ -4794,64 +4858,64 @@
 This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-era5-regional'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2018-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
+      <c r="K65" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L65" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-era5-regional/overview_4b3eae026499048c2b0c82f7b19435c490e21bed188c7b8fa8b3f30a99e4f87b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C65" t="inlineStr">
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
         <is>
           <t>satellite-fire-radiative-power</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="D66" t="inlineStr">
         <is>
           <t>Fire radiative power and active fire pixels from 2020 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>The Copernicus Climate Change Service AF &amp; FRP dataset provides active fire (AF) and fire radiative power (FRP) information identified as essential climate variables for fire and derived from observations made by the Sea and Land Surface Temperature Radiometer (SLSTR) operating concurrently onboard the European Sentinel-3A and -3B satellites. The AF &amp; FRP products are generated from the non-time critical Sentinel-3A and 3B SLSTR Level 2 AF detection and FRP product from European Space Agency (ESA). 
 The AF &amp; FRP products encompass a Level 2 summary product which provides a text-based summary of the Level 2 AF detection and FRP data collected over the period of one month across the globe but separated for the different sentinel satellites Sentinel-3A and 3B and the observing time and type – nighttime or nighttime gas flare or daytime in v1.2. In addition, three Level 3 ‘synthesis products’ are also provided, each one grids the Level 2 AF and the FRP data at various spatial and temporal resolutions along with some adjustments for cloud cover that blocks the fires from the satellite sensors view. Following Level 3 ‘synthesis products’ are available:
@@ -4867,64 +4931,64 @@
 The AF and  FRP were produced on behalf of the Copernicus Climate Change Service and have been designed to be broadly comparable with the equivalent Fire Burnt Area product, since they are likely to be used in combination with them to provide a long-term FRP time-series.</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-fire-radiative-power'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Temporal coverage: Present', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I65" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J65" t="inlineStr">
+      <c r="I66" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['2020-01-01T00:00:00Z', '2025-02-28T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L65" t="inlineStr">
+      <c r="K66" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L66" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-fire-radiative-power/overview_9beb06fee6cac4e30ff825cd27ea790b9dae06b7d113b1a43b5df70a3b9a4325.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B66" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C66" t="inlineStr">
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
         <is>
           <t>projections-cmip6</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="D67" t="inlineStr">
         <is>
           <t>CMIP6 climate projections</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>This catalogue entry provides daily and monthly global climate projections data from a large number of experiments, models and time periods computed in the framework of the sixth phase of the Coupled Model Intercomparison Project (CMIP6).
 CMIP6 data underpins the Intergovernmental Panel on Climate Change 6th Assessment Report. The use of these data is mostly aimed at:
@@ -4941,64 +5005,64 @@
 The data are produced by the participating institutes of the CMIP6 project.</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="F67" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip6'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/projections-cmip6?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="G67" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="H67" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I66" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J66" t="inlineStr">
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L66" t="inlineStr">
+      <c r="K67" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L67" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip6/overview_452b3df21b144e5084354f2e6053b7712dd83d6592126c445d3f9bc046f98f84.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B67" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C67" t="inlineStr">
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
         <is>
           <t>insitu-gridded-observations-nordic</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr">
+      <c r="D68" t="inlineStr">
         <is>
           <t>Nordic gridded temperature and precipitation data from 1961 to present derived from in-situ observations</t>
         </is>
       </c>
-      <c r="E67" t="inlineStr">
+      <c r="E68" t="inlineStr">
         <is>
           <t>The Nordic Gridded Climate Dataset (NGCD) is a high resolution, observational, gridded dataset of daily minimum, maximum and mean temperatures and daily precipitation totals, covering Finland, Sweden and Norway. The time period covered begins in January 1961 and continues to the present.
 Spatial interpolation methods are applied to observational datasets to create gridded datasets. 
@@ -5007,64 +5071,64 @@
 The input data is provided by the National Meteorological and Hydrological Services of Finland, Norway and Sweden. The time-series used for Finland and Sweden are the non-blended time-series from the station network of the European Climate Assessment &amp; Dataset (ECA&amp;D) project. For Norway, time-series are extracted from the climate database of the Norwegian Meteorological Institute.</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
+      <c r="F68" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-gridded-observations-nordic'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
+      <c r="G68" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Europe', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
+      <c r="H68" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I67" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J67" t="inlineStr">
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[4.0, 43.0, 17.5, 49.0]]}, 'temporal': {'interval': [['1961-01-01T00:00:00Z', '2025-09-18T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L67" t="inlineStr">
+      <c r="K68" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L68" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-gridded-observations-nordic/overview_5bc47f7cbe2db862cd3d1acae8e12b4c2f575bf49178a2ad284657a7369e7b40.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B68" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C68" t="inlineStr">
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
         <is>
           <t>satellite-humidity-profiles</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr">
+      <c r="D69" t="inlineStr">
         <is>
           <t>Tropospheric humidity profiles averaged monthly and zonally from 2006 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E68" t="inlineStr">
+      <c r="E69" t="inlineStr">
         <is>
           <t>This dataset provides monthly and zonally averaged tropospheric humidity profiles derived from globally distributed GPS radio occultation (RO) measurements from EUMETSAT's Metop polar-orbiting satellites. Humidity plays an important role in the Earth's climate system, due to the strong greenhouse effect of water vapour but also for its role in the global energy transport, vertically in the atmosphere and horizontally between different geographical regions. It is central to the formation of clouds and precipitation, and determines the fundamental conditions for the biosphere, including distribution of rainfall and droughts. 
 The dataset is produced by the EUMETSAT Radio Occultation Meteorology Satellite Application Facility (ROM SAF) and comprises the Climate Data Record (CDR, December 2006 to December 2016, ROM SAF product ID GRM-29-R1) and the Interim Climate Data Record (ICDR, January 2017 to present, ROM SAF product ID GRM-29-I1). Tropospheric humidity profiles are retrieved using 1D variational assimilation of observed atmospheric refractivity profiles and background model information from the ECMWF reanalysis. Compared to other satellite observation techniques, RO observations have high vertical resolution and are not affected by clouds or the type of underlying surface (such as land and sea).
@@ -5072,64 +5136,64 @@
 Please note that the terms humidity and water vapour are used interchangeably on this page and in the documentation.</t>
         </is>
       </c>
-      <c r="F68" t="inlineStr">
+      <c r="F69" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-humidity-profiles'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
+      <c r="G69" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: EUMETSAT SAF']</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H69" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I68" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J68" t="inlineStr">
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['2006-12-01T00:00:00Z', '2025-06-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L68" t="inlineStr">
+      <c r="K69" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L69" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-humidity-profiles/overview_008c10e313c2a4ed122f52a71112416c0e4a7cfb9028782bf22a0797eb3e989b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B69" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C69" t="inlineStr">
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
         <is>
           <t>sis-water-level-change-timeseries-cmip6</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr">
+      <c r="D70" t="inlineStr">
         <is>
           <t>Global sea level change time series from 1950 to 2050 derived from reanalysis and high resolution CMIP6 climate projections</t>
         </is>
       </c>
-      <c r="E69" t="inlineStr">
+      <c r="E70" t="inlineStr">
         <is>
           <t>This dataset provides time series of global sea level related variables including tides, storm surges and sea level rise from 1950 to 2050 based on hydrodynamic modelling. The dataset provides a basis for studies, for instance, aiming to evaluate sea level variability, coastal flooding, coastal erosion, and accessibility of ports.
 The time series are computed using the Deltares Global Tide and Surge Model (GTSM) version 3.0, a hydrodynamic model that dynamically simulates water levels at 10-minute intervals and capable of using input forcing from reanalysis and climate models. The dataset is based on climate forcing from ERA5 global reanalysis and 5 Global Climate Models (GCMs) of the high resolution Coupled Model Intercomparison Project Phase 6 (CMIP6) global climate projection dataset from the High Resolution Model Intercomparison Project (HighResMIP) multi-model ensemble. By making use of the HighResMIP multi-model ensemble, it is possible to quantify the uncertainties associated with the input climate forcing in this dataset.
@@ -5137,64 +5201,64 @@
 This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
+      <c r="F70" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-water-level-change-timeseries-cmip6'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
+      <c r="G70" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Provider: Copernicus C3S', 'Variable domain: Ocean (physics)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H69" t="inlineStr">
+      <c r="H70" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I69" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J69" t="inlineStr">
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2050-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L69" t="inlineStr">
+      <c r="K70" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L70" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-water-level-change-timeseries-cmip6/overview_29e4d192d80d0a55e664f7a189dfce397d196e37e221efffadee1998f1d843a3.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B70" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C70" t="inlineStr">
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
         <is>
           <t>insitu-observations-near-surface-temperature-us-climate-reference-network</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr">
+      <c r="D71" t="inlineStr">
         <is>
           <t>In situ observations of meteorological and soil variables from the US Climate Reference Network near the surface from 2006 to present</t>
         </is>
       </c>
-      <c r="E70" t="inlineStr">
+      <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">This catalogue entry provides access to a continuous series of near-surface climate observations collected in-situ at 
 United States Climate Reference Network (USCRN) stations. 
@@ -5218,64 +5282,64 @@
 </t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
+      <c r="F71" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-near-surface-temperature-us-climate-reference-network'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
+      <c r="G71" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)']</t>
         </is>
       </c>
-      <c r="H70" t="inlineStr">
+      <c r="H71" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I70" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J70" t="inlineStr">
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2006-01-01T00:00:00Z', None]]}}</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L70" t="inlineStr">
+      <c r="K71" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L71" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-near-surface-temperature-us-climate-reference-network/overview_e3ec17a74a30b99b64bcc44dca3fb39d3e529d97846a5ad7ab9feffe24760a65.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B71" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C71" t="inlineStr">
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
         <is>
           <t>satellite-lake-water-level</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr">
+      <c r="D72" t="inlineStr">
         <is>
           <t>Lake water levels from 1992 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E71" t="inlineStr">
+      <c r="E72" t="inlineStr">
         <is>
           <t>This dataset provides lake water levels for 311 selected lakes on four continents derived from satellite radar altimetry. Lake water level information is traditionally obtained via ground-based observation systems and networks that suffer from well-known inherent problems: high cost, sparse coverage (often limited to political local/national instead of geographical/hydrological boundaries), slow dissemination of data, heterogeneous temporal coverage, destruction of the stations during floods, absence of stations in remote areas, absence of management strategy, etc. 
 Although originally conceived to study open ocean processes, the radar altimeter satellites have nevertheless acquired numerous useful measurements over lakes. With this technique, the Lake Water Level is defined as the height, in meters above the geoid (the shape that the surface would take under the influence of the gravity and rotation of Earth) of the reflecting surface. It is observed by space radar altimeters that measure the time it takes for radar pulses to reach the ground targets, directly below the spacecraft (nadir position), and return. Hence, only lakes located along the satellite's ground tracks can be monitored, with a quality of measurement that not only depends of the size of the lake, but also on the reflecting targets in its surroundings such as topography or vegetation. For each of the key lakes monitored in the C3S Lakes production system, the Level-3 Water Level is provided in separate file along with the corresponding uncertainty.
@@ -5283,127 +5347,127 @@
 The Lake Water Level is a recognized Essential Climate Variable (ECV) by the Global Climate Observing System (GCOS). Lake Water Level products are generated by CLS on behalf of the Copernicus Climate Change Services, the Earth Observation Programme of the European Commission.</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
+      <c r="F72" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-lake-water-level'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-lake-water-level?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
+      <c r="G72" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Temporal coverage: Present', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H72" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I71" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J71" t="inlineStr">
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1992-01-01T00:00:00Z', None]]}}</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L71" t="inlineStr">
+      <c r="K72" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L72" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-lake-water-level/overview_93fa4522602a1ad5b2a64e574f325f1f67c14b30ced7efd169993923ebe21ee0.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C72" t="inlineStr">
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
         <is>
           <t>satellite-cloud-properties</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
+      <c r="D73" t="inlineStr">
         <is>
           <t>Cloud properties global gridded monthly and daily data from 1979 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E72" t="inlineStr">
+      <c r="E73" t="inlineStr">
         <is>
           <t>Cloud properties directly influence the state of the Earth´s upper-air atmosphere. Clouds have an effect on weather and climate through their contribution to the Earth’s water cycle and impact on the Earth’s energy budget. They impact atmospheric motions on a range of spatial and temporal scales and contribute to changes in the atmospheric composition. Water vapour originating from surface evaporation and transpiration condensates to form clouds, eventually leading to precipitation, which constitutes a fundamental mechanism of water redistribution around the globe.  Therefore, knowledge of cloud properties allows for a deeper understanding of the  feedback mechanisms within the hydrological cycle, directly in terms of precipitation, but also indirectly on the Earth´s energy budget through the changes in radiative fluxes. According to the 6th Intergovernmental Panel on Climate Change (IPCC) assessment report, clouds (together with aerosols) are among the largest sources of uncertainty of the estimates of the Earth´s energy budget, as well as of the potential feedback mechanisms and responses to climate change.
 The Cloud Properties ECV contains four main variables, which can be separated  into averaged cloudiness, cloud height products, and cloud physical properties for both the ice and liquid water phases. These variables are provided in  two “product families”, according to the data provenance. The "CCI product family" originates from the European Space Agency (ESA) Cloud_cci project, which produced a Thematic Climate Data Record (TCDR) based on ATSR2 and AATSR (Origin: “ESA”), and extensions using SLSTR produced specifically for the Copernicus Climate Change Service (Origin: “C3S”). The “CLARA (CM SAF cLoud, Albedo and surface Radiation) product family” originates in the European Organisation for the Exploitation of Meteorological Satellites (EUMETSAT) Satellite Application Facility on Climate Monitoring (CM SAF), who produced a TCDR based on AVHRR observations. Both product families provide two complementary  data records, differing in algorithms, input data, temporal and horizontal resolution. These TCDR timeseries are intended to have sufficient length, consistency, and continuity to detect climate variability and change. They are frequently updated with Interim Climate Data Records (ICDR) or simply extensions, generated using the same software and algorithms to cover more recent periods. Further details on algorithms, data description, and extensive validation results are given in the Documentation section.</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
+      <c r="F73" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-cloud-properties'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
+      <c r="G73" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Provider: ESA CCI', 'Provider: EUMETSAT SAF']</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I72" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J72" t="inlineStr">
+      <c r="I73" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2024-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L72" t="inlineStr">
+      <c r="K73" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L73" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-cloud-properties/overview_f2a8ef7987a602c38aecaac3ad1b751682240e0f908d023e281aa40b98586f01.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B73" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C73" t="inlineStr">
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
         <is>
           <t>satellite-fire-burned-area</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr">
+      <c r="D74" t="inlineStr">
         <is>
           <t>Fire burned area from 2001 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E73" t="inlineStr">
+      <c r="E74" t="inlineStr">
         <is>
           <t>The Burned Area products provide global information of total burned area (BA) at pixel and grid scale. The BA is identified with the date of first detection of the burned signal in the case of the pixel product, and with the total BA per grid cell in the case of the grid product. The products were obtained through the analysis of reflectance changes from medium resolution sensors (Terra MODIS, Sentinel-3 OLCI), supported by the use of MODIS thermal information. The burned area products also include information related to the land cover that has been burned, which has been extracted from the Copernicus Climate Change Service (C3S) land cover dataset, thus assuring consistency between the datasets.
 The algorithms for BA retrieval were developed by the University of Alcala (Spain), and processed by Brockmann Consult GmbH (Germany).
@@ -5412,128 +5476,128 @@
 The BA products are useful for researchers studying climate change, as they provide crucial information on burned biomass, which can be translated to greenhouse gases emissions amongst other contaminants. Burned area is also useful for land cover change studies, fire management and risk analysis.</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
+      <c r="F74" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-fire-burned-area'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-fire-burned-area?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="G74" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H74" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I73" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J73" t="inlineStr">
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['2001-01-01T00:00:00Z', '2022-04-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L73" t="inlineStr">
+      <c r="K74" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L74" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-fire-burned-area/overview_c94d258587b882647a42ad195dc9ff81010bb60af2f70c6ba4b2042044743bd8.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B74" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C74" t="inlineStr">
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
         <is>
           <t>satellite-surface-radiation-budget</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr">
+      <c r="D75" t="inlineStr">
         <is>
           <t>Surface radiation budget from 1979 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E74" t="inlineStr">
+      <c r="E75" t="inlineStr">
         <is>
           <t>The Surface Radiation Budget (SRB) represents the balance between the heating of the Earth’s surface through absorption of incoming solar radiation and cooling through the emission of infra-red radiation, which is a fundamental component of the surface energy budget. Small changes in the surface radiation budget can lead to large climatological responses, which makes a permanent and precise monitoring indispensable. Accurate understanding of the surface radiation budget at regional and global scales can improve the understanding of the Earth’s climate system and supports research on current and anticipated climate change, as well as the evaluation of radiative processes in climate models. Better knowledge of the global and regional surface radiation is also required for a successful utilisation of renewable energy sources, such as solar power plants.
 The dataset contains seven variables, which can be separated into solar (shortwave) and thermal (longwave) surface radiation components. Both components include incoming (downwelling), outgoing (upwelling), and the net radiation fluxes. These variables are provided from two “product families”, according to the data provenance. The "CCI product family" originated from the European Space Agency (ESA) Cloud_cci project, which produced a Thematic Climate Data Record (TCDR) based on ATSR2 and AATSR (“Origin”:“ESA”) and extensions using SLSTR produced specifically for Copernicus Climate Change Service (“Origin”: “C3S”). The “CLARA (CM SAF cLoud, Albedo and surface Radiation) product family” originates in the EUMETSAT´s Satellite Application Facility on Climate Monitoring (CM SAF), who produced a TCDR based on AVHRR observations. The two product families follow somewhat different nomenclatures. Therefore, a table relating the names used in the download form with the names used within the files and in other datasets distributed by the Climate Data Store is added at the end of this overview. 
 The “CLARA product family” and “CCI product family” provide complementary data records, differing in temporal and horizontal resolution. These TCDR timeseries are intended to have sufficient length, consistency, and continuity to detect climate variability and change. They are frequently updated with Interim Climate Data Records (ICDRs) or simply extensions, generated using the same software and algorithms to cover more recent periods. Further details on algorithms, data description, and extensive validation results are given in the Documentation section.</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
+      <c r="F75" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-surface-radiation-budget'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
+      <c r="G75" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Provider: ESA CCI', 'Provider: EUMETSAT SAF']</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H75" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I74" t="inlineStr">
+      <c r="I75" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="J74" t="inlineStr">
+      <c r="J75" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2024-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L74" t="inlineStr">
+      <c r="K75" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L75" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-surface-radiation-budget/overview_1d196d5e939e97a9de4a846a7e7752bf431aa6346430e487fb4e48be936ddb59.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B75" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C75" t="inlineStr">
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
         <is>
           <t>satellite-lake-water-temperature</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr">
+      <c r="D76" t="inlineStr">
         <is>
           <t>Lake surface water temperature from 1995 to present derived from satellite observations</t>
         </is>
       </c>
-      <c r="E75" t="inlineStr">
+      <c r="E76" t="inlineStr">
         <is>
           <t>This dataset provides daily mid-morning measurements for Lake Surface Water Temperature (LSWT) derived from satellite observations. LSWT, together with five other variables (lake ice cover and thickness, water leaving reflectance, water level and extent) is recognised as the Essential Climate Variable (ECV) "Lakes" by the Global Climate Observing System (GCOS). LSWT is a key parameter in determining lake ecological conditions as it influences physical, chemical and biological processes. Lake water temperatures are also important for understanding the hydrological cycle as they determine air-water heat and moisture exchange. This dataset supports the investigation of large-scale lake-climate interaction on inter-annual time scales, and represents the current state-of-the-art for LSWT record production.
 The satellite observations are from the Along Track Scanning Radiometer (ATSR), Moderate Resolution Imaging Spectroradiometer (MODIS), Advanced Very High Resolution Radiometer (AVHRR), and Sea and Land Surface Temperature Radiometer (SLSTR) sensors. To ensure consistency across sensors, the retrieved temperature data have been bias-adjusted using periods of sensor overlap. As the dataset contains only observations, gaps in time and space may be present if data could not be reliably retrieved. The data are provided on a regular spatial grid, and for each LSWT value there is an associated uncertainty estimate and a quality level based on statistical confidence.
@@ -5541,128 +5605,128 @@
 Most of the LSWT data in this dataset have been developed within the United Kingdom (UK) Natural Environment Research Council (NERC) GloboLakes project and within the European Space Agency (ESA) Climate Change Initiative (CCI) for lakes. Future improved versions will use developments within the ESA CCI for lakes.</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
+      <c r="F76" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-lake-water-temperature'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-lake-water-temperature?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
+      <c r="G76" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Product type: Satellite observations']</t>
         </is>
       </c>
-      <c r="H75" t="inlineStr">
+      <c r="H76" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I75" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J75" t="inlineStr">
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1995-06-01T00:00:00Z', None]]}}</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L75" t="inlineStr">
+      <c r="K76" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L76" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-lake-water-temperature/overview_fc5e76fb1ec3361e0e473f7e449eccdc1503bfaef3b2d23ff9751f321c665c0f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B76" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C76" t="inlineStr">
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
         <is>
           <t>sis-energy-pecd</t>
         </is>
       </c>
-      <c r="D76" t="inlineStr">
+      <c r="D77" t="inlineStr">
         <is>
           <t>Climate and energy related variables from the Pan-European Climate Database derived from reanalysis and climate projections</t>
         </is>
       </c>
-      <c r="E76" t="inlineStr">
+      <c r="E77" t="inlineStr">
         <is>
           <t>The Pan-European Climate Database (PECD) provides information on climate and renewable energy variables for both historical and future time periods. For historical data, the ERA5 global reanalysis serves as the underlying climate data, while future projections are based on selected CMIP6 global climate models. The raw climate model data are further processed through downscaling to achieve higher spatial and temporal resolution and by applying bias adjustment. Each energy variable is derived from the underlying climate data, providing datasets for temperature, total precipitation, surface solar radiation downwards and wind speed, as well as energy-related variables such as wind and solar capacity factors, and hydropower inflows and generation.
 The PECD dataset has been planned, designed, and produced by the Copernicus Climate Change Service (C3S) in collaboration with the European Network of Transmission System Operators for Electricity (ENTSO-E). This collaboration aims to increase the resilience of energy systems and optimize their performance in response to climate change. The PECD dataset existed prior to this collaboration between C3S and ENTSO-E but did not include future climate change signals. The current PECD dataset produced by C3S is the first to include climate change projections, providing energy analysts, planners, and decision-makers with essential tools for energy planning in the coming decades. The dataset is available in two formats: NetCDF for gridded indicators and CSV for area-averaged indicators.
 Note: The current dataset includes both PECDv4.1 (now deprecated) and PECDv4.2 versions. PECDv4.1 was not extended beyond 2021 as it was frozen leading up to the 2023 European Resource Adequacy Assessment (ERAA) in agreement with ENTSO-E. Additionally, PECDv4.1 version only includes data from three climate models and one emission scenario. In contrast, PECDv4.2 version includes data from six climate models and four emission scenarios, improving uncertainty representation. Best practice favours the use of larger ensembles of models to more thoroughly capture the range of uncertainties present in climate projections. The latter also includes new bias adjustments for wind speed, enhanced energy modelling, extended temporal coverage, and new spatial aggregation zones. It is therefore strongly recommended to use the version PECDv4.2.</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
+      <c r="F77" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-energy-pecd'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
+      <c r="G77" t="inlineStr">
         <is>
           <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices', 'Sector: Energy']</t>
         </is>
       </c>
-      <c r="H76" t="inlineStr">
+      <c r="H77" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I76" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J76" t="inlineStr">
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[-179.8, -89.8, 179.8, 83.8]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2100-12-01T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L76" t="inlineStr">
+      <c r="K77" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L77" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-energy-pecd/overview_58df7dc6f6d10d636e6c4caa880ad7c33406fccc1c493408492da5f11132982c.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B77" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C77" t="inlineStr">
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
         <is>
           <t>satellite-total-column-water-vapour-land-ocean</t>
         </is>
       </c>
-      <c r="D77" t="inlineStr">
+      <c r="D78" t="inlineStr">
         <is>
           <t>Global monthly and daily high-spatial resolution of total column water vapour from 2002 to 2017 derived from satellite observations</t>
         </is>
       </c>
-      <c r="E77" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>Atmospheric water vapor, quantified here as Total Column Water Vapor (TCWV), holds paramount importance in monitoring and understanding Earth's climate dynamics. Its role as an Essential Climate Variable is pivotal, serving as the foundation for cloud formation, cloud physics, and significantly impacting the Earth's heat budget through its proficient absorption of both long and short-wave radiation.
 This catalogue entry presents two extensive, high-quality observational datasets of TCWV, specifically tailored for climate analysis and applications.
@@ -5679,103 +5743,39 @@
 This dataset is produced by EUMETSAT CM SAF on behalf of the Copernicus Climate Change Service (C3S).</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-total-column-water-vapour-land-ocean'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-total-column-water-vapour-land-ocean?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G77" t="inlineStr">
+      <c r="G78" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H77" t="inlineStr">
+      <c r="H78" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I77" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J77" t="inlineStr">
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2002-01-01T00:00:00Z', '2017-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L77" t="inlineStr">
+      <c r="K78" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-total-column-water-vapour-land-ocean/overview_03218b6e5adcd519588557b0c1533dfacb166a5985286ecea0ee7386223616a2.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B78" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C78" t="inlineStr">
-        <is>
-          <t>satellite-earth-radiation-budget</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>Earth's radiation budget from 1979 to present derived from satellite observations</t>
-        </is>
-      </c>
-      <c r="E78" t="inlineStr">
-        <is>
-          <t>The Earth’s Radiation Budget (ERB) represents the overall balance between incoming and outgoing radiant energy at the Earth’s top-of-the-atmosphere. This Essential Climate Variable is the primary forcing of the climate system and is therefore a fundamental quantity to be monitored to understand the Earth’s climate and its variability. The Earth’s Radiation Budget comprises of the quantification of the incoming radiation from the Sun and the outgoing reflected shortwave and emitted longwave radiation. 
-The Earth’s Radiation Budget represents the balance between incoming, predominantly solar, radiation and outgoing radiation as either reflected solar radiation or thermal radiation emitted by the Earth system. The Earth is in a state of dynamic radiative balance, energy arriving from the Sun is balanced by outgoing radiation from the top-of-the-atmosphere. Changes in the Earth’s surface and atmosphere (including cloud amount and properties, as well as concentrations of greenhouse gases) alter the radiative balance of the Earth’ system and change the balance and distribution of outgoing thermal radiation and reflected solar radiation. Aside from the elevation (height) of the sun above the horizon, the largest factor controlling the variability in the Earth's radiation budget is cloud cover; the fraction of cloud cover, their height and opacity all impact on both the reflected solar and outgoing infrared radiation. Thus, knowledge of cloud properties, along with atmospheric composition and surface properties, allows computing the Earth’s Radiation Budget. In addition to the spectrally integrated broadband incoming and outgoing fluxes, the monitoring of the solar spectral irradiance is also relevant given its importance in atmospheric chemistry processes.
-This catalogue entry comprises data from a number of product families and origins summarised in the following sections.</t>
-        </is>
-      </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-earth-radiation-budget'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-earth-radiation-budget?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G78" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Product type: Satellite observations', 'Variable domain: Atmosphere (upper air)', 'Provider: Copernicus C3S', 'Provider: ESA CCI', 'Provider: EUMETSAT SAF']</t>
-        </is>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I78" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2025-09-07T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-earth-radiation-budget/overview_c42958f5e6375d64a6740a98513e14c970acdc358e111d4a9bd723196f467f5b.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -6255,348 +6255,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>sis-agroclimatic-indicators</t>
+          <t>sis-ecv-cmip5-bias-corrected</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Agroclimatic indicators from 1951 to 2099 derived from climate projections</t>
+          <t>Essential climate variables for water sector applications derived from climate projections</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
-        <is>
-          <t>This dataset provides agroclimatic indicators used to characterise plant-climate interactions for global agriculture. Agroclimatic indicators are useful in conveying climate variability and change in the terms that are meaningful to the agricultural sector. The objective of this dataset is to provide these indicators at a global scale in an easily accessible and usable format for further downstream analysis and the forcing of agricultural impact models.
-ERA-interim reanalysis and bias-corrected climate datasets have been used to generate the agroclimatic indicators for historical and future time periods. The input data was provided through the Inter-Sectoral Impact Model Intercomparison Project (ISIMIP), of which the ISIMIP Fast Track product was used. This product contains daily, biased-corrected, climate data from 5 CMIP5 General Circulation Models covering the period 1951-2099 (historical run up to 2005). The agroclimatic indicators were also generated using the WFDEI (Watch Forcing Data methodology applied to ERA-Interim) for the 1981-2010 climatological period. A total of 26 indicators are provided in this dataset at a spatial resolution of 0.5°x0.5° on a lat-lon grid. The temporal resolution of the variables differs depending on the indicator - they are available at 10 consecutive days (10-day), seasonal or annual resolution.
-Agroclimatic indicators are often used in species distribution modelling to study phenological developments of plants under varying climate conditions. For many users in the agricultural community, assessments of crop development for the current or future cropping seasons are particularly important. This is especially true for the agro-policy and the agro-business communities, as early indications of production anomalies are of paramount importance for tax/subsidies and price volatility. The provision of pre-computed agroclimatic indicators make them readily available to the user and will facilitate the use of climate data by the agricultural community.
-The data was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-agroclimatic-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G86" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Temporal coverage: Present', 'Product type: Climate projections', 'Temporal coverage: Future', 'Sector: Agriculture']</t>
-        </is>
-      </c>
-      <c r="H86" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I86" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J86" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1951-01-01T00:00:00Z', None]]}}</t>
-        </is>
-      </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-agroclimatic-indicators/overview_ae7e944db53ec3852a492ad5f7dcc592b6ed7303c448ac21c50edc7dedd18fb1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B87" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C87" t="inlineStr">
-        <is>
-          <t>sis-biodiversity-cmip5-global</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>Global bioclimatic indicators from 1950 to 2100 derived from climate projections</t>
-        </is>
-      </c>
-      <c r="E87" t="inlineStr">
-        <is>
-          <t>This dataset provides global bioclimatic indicators derived from CMIP5 climate projections. These bioclimatic indicators describe how the climate affects ecosystems, the services ecosystems deliver and nature’s biodiversity. They are specifically relevant for applications within the biodiversity and ecosystem community. 
-The 78 indicators cover bioclimatic variables for both land and marine environments characterising surface energy, drought, soil moisture and the (near-)surface climate including wind as well as Essential Climate Variables (ECV). The selection of indicators is based on user requirements and consultation with stakeholders, in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications.
-The indicators calculated based on daily CMIP5 climate projections from 10 Global Circulation Models for two future climate scenarios, Representative Concentration Pathway (RCP) 4.5 &amp; RCP 8.5. The data have been additionally bias-adjusted against ERA5 reanalysis data. The temporal resolution differs depending on the indicator, varying between monthly, annual and multi-annual averages.
-This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-cmip5-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G87" t="inlineStr">
-        <is>
-          <t>['Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
-        </is>
-      </c>
-      <c r="H87" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I87" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J87" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2099-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-cmip5-global/overview_d41f3e0310c5359dd463d5f99331adc36260de8c1d0029db93fce0cb2ce600d2.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B88" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C88" t="inlineStr">
-        <is>
-          <t>sis-biodiversity-cmip5-regional</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>Downscaled bioclimatic indicators for selected regions from 1950 to 2100 derived from climate projections</t>
-        </is>
-      </c>
-      <c r="E88" t="inlineStr">
-        <is>
-          <t>The dataset provides bioclimatic indicators derived from CMIP5 climate projections at 1 km x 1 km resolution for selected regions; Europe, Northern Brazil and Central Africa. This comprehensive set of bioclimatic indicators is specifically relevant for applications within the biodiversity and ecosystem services community.
-The 76 indicators cover bioclimatic variables for the land environment, characterising surface energy, drought, soil moisture and the (near-) surface climate including wind as well as Essential Climate Variables (ECV). The selection of indicators is based upon user requirements and consultation with stakeholders in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications.
-The indicators are calculated based on daily CMIP5 climate projections from 10 Global Circulation Models for two future climate scenarios, Representative Concentration Pathway (RCP) 4.5 &amp; RCP 8.5. The indicators have been downscaled to 1 x 1 km resolution using a statistical downscaling methodology that takes into account the relationship between orography and a climate state variable. The data have been additionally bias-adjusted against ERA5 reanalysis data.
-This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-cmip5-regional'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G88" t="inlineStr">
-        <is>
-          <t>['Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
-        </is>
-      </c>
-      <c r="H88" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I88" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J88" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2099-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-cmip5-regional/overview_b9ad86521e152b80f2770839da7658664b2d8d5df4e401af1ccd3331feacabf4.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B89" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C89" t="inlineStr">
-        <is>
-          <t>sis-biodiversity-era5-global</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>Global bioclimatic indicators from 1979 to 2018 derived from reanalysis</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>This dataset provides a historical global reconstruction of bioclimatic indicators derived from ERA5 reanalysis on a latitude-longitude grid. These bioclimate indicators describe how the climate affects ecosystems, the services they deliver, and nature’s biodiversity. They are specifically relevant for applications within the biodiversity and ecosystem services community.
-The 78 indicators cover bioclimatic variables from both land and marine environments characterising surface energy, drought, soil moisture and the (near-)surface climate including wind as well as Essential Climate Variables (ECV) relevant to the biodiversity community and are based on hourly or monthly ERA5 reanalysis data.
-The bioclimatic indicators are widely used within the biodiversity community and have been chosen based on user requirements and consultation with stakeholders, in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications. The temporal resolution differs depending on the indicator varying between monthly, annual, and multi-annual averages.
-This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-era5-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G89" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
-        </is>
-      </c>
-      <c r="H89" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I89" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J89" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-179.8, -89.8, 179.8, 83.8]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2018-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-era5-global/overview_a9d92f168283b2935400acc10e618874daa7cb5bf86a9be08cf15bb62a2ce50a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B90" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C90" t="inlineStr">
-        <is>
-          <t>sis-ecde-climate-indicators</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>Climate indicators for Europe from 1940 to 2100 derived from reanalysis and climate projections</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>This dataset provides a series of climate indices derived from reanalysis and model simulations data hosted on the Copernicus Climate Data Store (CDS). These indicators describe how climate variability and change of essential climate variables can impact sectors such as health, agriculture, forestry, energy, tourism, or water and coastal management.
-Those indices are relevant for adaptation planning at the European and national level and their development was driven by the European Environment Agency (EEA) to address informational needs of climate change adaptation national initiatives across the EU and partner countries as expressed by user requirements and stakeholder consultation. The indices cover the hazard categories introduced by the IPCC and the European Topic Centre on Climate Change Impacts, Vulnerability and Adaptation (ETC-CCA). They are also made available interactively through CDS Toolbox public visualisation apps on the European Climate Data Explorer hosted on EEA’s Climate-adapt site.
-The indices are either downloaded from the CDS where available, or calculated through a specific CDS Toolbox workflow. In this way both the calculations and the resulting data are fully traceable. As they come from different datasets the underlying climate data differ in their technical specification (type and number of climate and impact models involved, bias-corrected or not, periods covered etc.). An effort was made in the dataset selection to limit the heterogeneity of the underlying dataset as ideally the indices should come from the same dataset with identical specifications.
-The indices related to temperature, precipitation and wind (20 out of 30) were calculated from atmospheric variables in the same datasets: 'Climate and energy indicators for Europe from 2005 to 2100 derived from climate projections', and 'ERA5 hourly data on single levels from 1940 to present'. The other indices are directly available from CDS datasets generated by specific theme projects. More information about this dataset can be found in the documentation.
-The underlying datasets hosted on the CDS are:
-ERA5 hourly data on single levels from 1940 to present - used to calculate most of the temperature, precipitation and wind speed indicators as it provides the historical and observation based baseline used to monitor the indicators.
-Climate and energy indicators for Europe from 2005 to 2100 derived from climate projections - used to calculate most of the temperature, precipitation and wind speed indicators as it provides bias-corrected sub-daily data. It is used for all the indicators except those specified in the following datasets below.
-Fire danger indicators for Europe from 1970 to 2098 derived from climate projections - provides the high fire danger days and fire weather indicators.
-Hydrology-related climate impact indicators from 1970 to 2100 derived from bias adjusted European climate projections - provides the river flood, river discharge, aridity actual, and mean soil moisture indicators.
-Mountain tourism meteorological and snow indicators for Europe from 1950 to 2100 derived from reanalysis and climate projections - provides the snowfall amount index.
-Water level change indicators for the European coast from 1977 to 2100 derived from climate projections - provides the relative sea level rise and extreme sea level indicators.
-This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
-        </is>
-      </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-ecde-climate-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G90" t="inlineStr">
-        <is>
-          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (biosphere)', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices']</t>
-        </is>
-      </c>
-      <c r="H90" t="inlineStr">
-        <is>
-          <t>CC-BY-4.0</t>
-        </is>
-      </c>
-      <c r="I90" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J90" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[-25.0, 35.0, 45.0, 72.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2100-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-ecde-climate-indicators/overview_cc56ed272db5f32fb80901f22748ea3d1d78c972c2d49782c8bbf1be6f02d720.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B91" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C91" t="inlineStr">
-        <is>
-          <t>sis-ecv-cmip5-bias-corrected</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>Essential climate variables for water sector applications derived from climate projections</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
         <is>
           <t>This dataset contains 4 Essential Climate Variables (ECV) for the 18 bias adjusted Global Climate Models (GCM) from CMIP5: daily precipitation rate, and daily mean, maximum and minimum temperatures. 
 The data are bias adjusted using the Distribution Based Scaling (DBS) method  versus the global reference dataset HydroGFD2.0, both bias adjustment method and global reference dataset developed by the Swedish Meteorological and Hydrological Institute (SMHI).
@@ -6619,19 +6286,352 @@
 If interpolation was not possible, full time series from nearest grid cell was copied to relating grid point.</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-ecv-cmip5-bias-corrected'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J86" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2000-10-12T00:00:00Z', '2018-10-18T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K86" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L86" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-ecv-cmip5-bias-corrected/overview_079a3fdd9242951813468930dd095d0e02f282a41594bcdcc84b00af34a61aa5.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>sis-agroclimatic-indicators</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>Agroclimatic indicators from 1951 to 2099 derived from climate projections</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>This dataset provides agroclimatic indicators used to characterise plant-climate interactions for global agriculture. Agroclimatic indicators are useful in conveying climate variability and change in the terms that are meaningful to the agricultural sector. The objective of this dataset is to provide these indicators at a global scale in an easily accessible and usable format for further downstream analysis and the forcing of agricultural impact models.
+ERA-interim reanalysis and bias-corrected climate datasets have been used to generate the agroclimatic indicators for historical and future time periods. The input data was provided through the Inter-Sectoral Impact Model Intercomparison Project (ISIMIP), of which the ISIMIP Fast Track product was used. This product contains daily, biased-corrected, climate data from 5 CMIP5 General Circulation Models covering the period 1951-2099 (historical run up to 2005). The agroclimatic indicators were also generated using the WFDEI (Watch Forcing Data methodology applied to ERA-Interim) for the 1981-2010 climatological period. A total of 26 indicators are provided in this dataset at a spatial resolution of 0.5°x0.5° on a lat-lon grid. The temporal resolution of the variables differs depending on the indicator - they are available at 10 consecutive days (10-day), seasonal or annual resolution.
+Agroclimatic indicators are often used in species distribution modelling to study phenological developments of plants under varying climate conditions. For many users in the agricultural community, assessments of crop development for the current or future cropping seasons are particularly important. This is especially true for the agro-policy and the agro-business communities, as early indications of production anomalies are of paramount importance for tax/subsidies and price volatility. The provision of pre-computed agroclimatic indicators make them readily available to the user and will facilitate the use of climate data by the agricultural community.
+The data was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-agroclimatic-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Temporal coverage: Present', 'Product type: Climate projections', 'Temporal coverage: Future', 'Sector: Agriculture']</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1951-01-01T00:00:00Z', None]]}}</t>
+        </is>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L87" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-agroclimatic-indicators/overview_ae7e944db53ec3852a492ad5f7dcc592b6ed7303c448ac21c50edc7dedd18fb1.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>sis-biodiversity-cmip5-global</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>Global bioclimatic indicators from 1950 to 2100 derived from climate projections</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>This dataset provides global bioclimatic indicators derived from CMIP5 climate projections. These bioclimatic indicators describe how the climate affects ecosystems, the services ecosystems deliver and nature’s biodiversity. They are specifically relevant for applications within the biodiversity and ecosystem community. 
+The 78 indicators cover bioclimatic variables for both land and marine environments characterising surface energy, drought, soil moisture and the (near-)surface climate including wind as well as Essential Climate Variables (ECV). The selection of indicators is based on user requirements and consultation with stakeholders, in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications.
+The indicators calculated based on daily CMIP5 climate projections from 10 Global Circulation Models for two future climate scenarios, Representative Concentration Pathway (RCP) 4.5 &amp; RCP 8.5. The data have been additionally bias-adjusted against ERA5 reanalysis data. The temporal resolution differs depending on the indicator, varying between monthly, annual and multi-annual averages.
+This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-cmip5-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>['Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2099-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L88" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-cmip5-global/overview_d41f3e0310c5359dd463d5f99331adc36260de8c1d0029db93fce0cb2ce600d2.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>sis-biodiversity-cmip5-regional</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>Downscaled bioclimatic indicators for selected regions from 1950 to 2100 derived from climate projections</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>The dataset provides bioclimatic indicators derived from CMIP5 climate projections at 1 km x 1 km resolution for selected regions; Europe, Northern Brazil and Central Africa. This comprehensive set of bioclimatic indicators is specifically relevant for applications within the biodiversity and ecosystem services community.
+The 76 indicators cover bioclimatic variables for the land environment, characterising surface energy, drought, soil moisture and the (near-) surface climate including wind as well as Essential Climate Variables (ECV). The selection of indicators is based upon user requirements and consultation with stakeholders in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications.
+The indicators are calculated based on daily CMIP5 climate projections from 10 Global Circulation Models for two future climate scenarios, Representative Concentration Pathway (RCP) 4.5 &amp; RCP 8.5. The indicators have been downscaled to 1 x 1 km resolution using a statistical downscaling methodology that takes into account the relationship between orography and a climate state variable. The data have been additionally bias-adjusted against ERA5 reanalysis data.
+This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-cmip5-regional'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>['Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J89" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-180.0, -90.0, 180.0, 90.0]]}, 'temporal': {'interval': [['1950-01-01T00:00:00Z', '2099-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L89" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-cmip5-regional/overview_b9ad86521e152b80f2770839da7658664b2d8d5df4e401af1ccd3331feacabf4.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>sis-biodiversity-era5-global</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>Global bioclimatic indicators from 1979 to 2018 derived from reanalysis</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>This dataset provides a historical global reconstruction of bioclimatic indicators derived from ERA5 reanalysis on a latitude-longitude grid. These bioclimate indicators describe how the climate affects ecosystems, the services they deliver, and nature’s biodiversity. They are specifically relevant for applications within the biodiversity and ecosystem services community.
+The 78 indicators cover bioclimatic variables from both land and marine environments characterising surface energy, drought, soil moisture and the (near-)surface climate including wind as well as Essential Climate Variables (ECV) relevant to the biodiversity community and are based on hourly or monthly ERA5 reanalysis data.
+The bioclimatic indicators are widely used within the biodiversity community and have been chosen based on user requirements and consultation with stakeholders, in order to facilitate the direct use of climate information in screening analyses or in diverse downstream applications. The temporal resolution differs depending on the indicator varying between monthly, annual, and multi-annual averages.
+This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-biodiversity-era5-global'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (biosphere)', 'Provider: Copernicus C3S', 'Product type: Climate indices', 'Sector: Biodiversity']</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>CC-BY-4.0</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J90" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[-179.8, -89.8, 179.8, 83.8]]}, 'temporal': {'interval': [['1979-01-01T00:00:00Z', '2018-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L90" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-biodiversity-era5-global/overview_a9d92f168283b2935400acc10e618874daa7cb5bf86a9be08cf15bb62a2ce50a.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>sis-ecde-climate-indicators</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>Climate indicators for Europe from 1940 to 2100 derived from reanalysis and climate projections</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>This dataset provides a series of climate indices derived from reanalysis and model simulations data hosted on the Copernicus Climate Data Store (CDS). These indicators describe how climate variability and change of essential climate variables can impact sectors such as health, agriculture, forestry, energy, tourism, or water and coastal management.
+Those indices are relevant for adaptation planning at the European and national level and their development was driven by the European Environment Agency (EEA) to address informational needs of climate change adaptation national initiatives across the EU and partner countries as expressed by user requirements and stakeholder consultation. The indices cover the hazard categories introduced by the IPCC and the European Topic Centre on Climate Change Impacts, Vulnerability and Adaptation (ETC-CCA). They are also made available interactively through CDS Toolbox public visualisation apps on the European Climate Data Explorer hosted on EEA’s Climate-adapt site.
+The indices are either downloaded from the CDS where available, or calculated through a specific CDS Toolbox workflow. In this way both the calculations and the resulting data are fully traceable. As they come from different datasets the underlying climate data differ in their technical specification (type and number of climate and impact models involved, bias-corrected or not, periods covered etc.). An effort was made in the dataset selection to limit the heterogeneity of the underlying dataset as ideally the indices should come from the same dataset with identical specifications.
+The indices related to temperature, precipitation and wind (20 out of 30) were calculated from atmospheric variables in the same datasets: 'Climate and energy indicators for Europe from 2005 to 2100 derived from climate projections', and 'ERA5 hourly data on single levels from 1940 to present'. The other indices are directly available from CDS datasets generated by specific theme projects. More information about this dataset can be found in the documentation.
+The underlying datasets hosted on the CDS are:
+ERA5 hourly data on single levels from 1940 to present - used to calculate most of the temperature, precipitation and wind speed indicators as it provides the historical and observation based baseline used to monitor the indicators.
+Climate and energy indicators for Europe from 2005 to 2100 derived from climate projections - used to calculate most of the temperature, precipitation and wind speed indicators as it provides bias-corrected sub-daily data. It is used for all the indicators except those specified in the following datasets below.
+Fire danger indicators for Europe from 1970 to 2098 derived from climate projections - provides the high fire danger days and fire weather indicators.
+Hydrology-related climate impact indicators from 1970 to 2100 derived from bias adjusted European climate projections - provides the river flood, river discharge, aridity actual, and mean soil moisture indicators.
+Mountain tourism meteorological and snow indicators for Europe from 1950 to 2100 derived from reanalysis and climate projections - provides the snowfall amount index.
+Water level change indicators for the European coast from 1977 to 2100 derived from climate projections - provides the relative sea level rise and extreme sea level indicators.
+This dataset was produced on behalf of the Copernicus Climate Change Service.</t>
+        </is>
+      </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-ecv-cmip5-bias-corrected'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/sis-ecde-climate-indicators'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
       <c r="G91" t="inlineStr">
         <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
+          <t>['Product type: Reanalysis', 'Temporal coverage: Past', 'Spatial coverage: Europe', 'Variable domain: Land (biosphere)', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S', 'Product type: Climate projections', 'Temporal coverage: Future', 'Product type: Climate indices']</t>
         </is>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>other</t>
+          <t>CC-BY-4.0</t>
         </is>
       </c>
       <c r="I91" t="inlineStr">
@@ -6641,7 +6641,7 @@
       </c>
       <c r="J91" t="inlineStr">
         <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2000-10-12T00:00:00Z', '2018-10-18T00:00:00Z']]}}</t>
+          <t>{'spatial': {'bbox': [[-25.0, 35.0, 45.0, 72.0]]}, 'temporal': {'interval': [['1940-01-01T00:00:00Z', '2100-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
       <c r="K91" t="inlineStr">
@@ -6651,7 +6651,7 @@
       </c>
       <c r="L91" t="inlineStr">
         <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-ecv-cmip5-bias-corrected/overview_079a3fdd9242951813468930dd095d0e02f282a41594bcdcc84b00af34a61aa5.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/sis-ecde-climate-indicators/overview_cc56ed272db5f32fb80901f22748ea3d1d78c972c2d49782c8bbf1be6f02d720.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -7730,15 +7730,87 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
+          <t>satellite-sea-surface-temperature-ensemble-product</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>Sea surface temperature daily gridded data from 1981 to 2016 derived from a multi-product satellite-based ensemble</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>This dataset provides global daily sea surface temperature (SST) data from the Group for High Resolution Sea Surface Temperature (GHRSST) multi-product ensemble (GMPE) produced by the European Space Agency SST Climate Change Initiative (ESA SST CCI). The GMPE system was designed to allow users to compare the outputs from different SST analysis systems and understand their similarities and differences. Although originally intended for comparison of near real time data, it has also been used to compare long historical datasets. Note that the dataset provided here is the climate version of the GMPE dataset. An operational version, with different input products and time coverage, also exists but is not distributed by the CDS.
+The SST analyses ingested into the GMPE system come from the following seven SST products and providers:
+ESA SST CCI Analysis version 2.0
+ESA SST CCI Analysis version 1.1
+Copernicus Marine Environment Monitoring Service (CMEMS) Operational Sea Surface Temperature and Sea Ice Analysis (OSTIA) Reprocessing
+National Centers for Environmental Information (NCEI) Advanced Very High Resolution Radiometer (AVHRR) Optimal Interpolation (OI) Global Blended SST Analysis
+Canada Meteorological Center (CMC) 0.2-degree Global Foundation SST Analysis
+Hadley Centre Sea Ice and Sea Surface Temperature (HadISST) Analysis version 2.2.0.0
+Japan Meteorological Agency (JMA) Merged satellite and in-situ Data Global Daily SST (MGDSST) Analysis
+These products are all spatially complete (through use of infilling or reconstruction techniques) but were originally produced for different purposes and with different user requirements in mind. Therefore, each producer has made different choices on aspects of data production such as which input observations to use and what type of SST to represent. For example, the CMEMS OSTIA, CMC, and MGDSST analyses attempt to represent the foundation SST (water temperature free of diurnal temperature variability) while the ESA SST CCI and HadISST analyses estimate the SST at a standard depth of 20 cm. The AVHRR OI product, on the other hand, is bias-corrected to in situ observations and hence will be representative of their depths.
+The GMPE dataset provides the median and standard deviation of the input SST products, the differences between each input product and the median, and the horizontal gradients in each of the input SST products as well as the final ensemble product. The HadISST product consists of 10 different realisations, therefore the median and standard deviation are calculated for an ensemble of 16 input fields. All fields are provided on a common 0.25 degree regular latitude-longitude grid and extend from 1 September 1981 to 31 December 2016, although some of the individual input products cover shorter periods. The dataset will not be extended beyond 2016.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-surface-temperature-ensemble-product'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-surface-temperature-ensemble-product?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J108" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-09-01T00:00:00Z', '2016-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-surface-temperature-ensemble-product/overview_0c7b27f2e84011efc18ad30dce13eae676c70c4e221727691598b58b858450eb.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
           <t>satellite-precipitation-microwave</t>
         </is>
       </c>
-      <c r="D108" t="inlineStr">
+      <c r="D109" t="inlineStr">
         <is>
           <t>Precipitation monthly and daily gridded data from 2000 to 2017 derived from satellite microwave observations</t>
         </is>
       </c>
-      <c r="E108" t="inlineStr">
+      <c r="E109" t="inlineStr">
         <is>
           <t>This dataset provides global estimates of daily accumulated and monthly means of precipitation. The precipitation estimates are based on a merge of passive microwave observations from two different radiometer classes operating on multiple Low Earth Orbit (LEO) satellites.
 Spaceborne passive microwave (MW) provides the most effective measurements for the remote sensing of precipitation because the MW upwelling radiation is directly responsive to the cloud microphysical structure and, in particular, to the emission and scattering properties of precipitation-size hydrometeors (solid and liquid). However, they are available at low spatial and temporal resolution, due to the limited number of passes per day (depending on latitude and number of platforms) at each location.
@@ -7752,64 +7824,64 @@
 This dataset is produced by the Copernicus Climate Change Service (C3S).</t>
         </is>
       </c>
-      <c r="F108" t="inlineStr">
+      <c r="F109" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-precipitation-microwave'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-precipitation-microwave?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
         </is>
       </c>
-      <c r="G108" t="inlineStr">
+      <c r="G109" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Variable domain: Land (hydrology)', 'Product type: Satellite observations', 'Variable domain: Atmosphere (surface)', 'Provider: Copernicus C3S']</t>
         </is>
       </c>
-      <c r="H108" t="inlineStr">
+      <c r="H109" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I108" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J108" t="inlineStr">
+      <c r="I109" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J109" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['2000-01-01T00:00:00Z', '2017-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L108" t="inlineStr">
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L109" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-precipitation-microwave/overview_3dd1a18e97f25b70ac7e900cd05d6ed9cd4c9b151e41bd9bbe3f3ec51867c89f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B109" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C109" t="inlineStr">
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
         <is>
           <t>insitu-observations-surface-marine</t>
         </is>
       </c>
-      <c r="D109" t="inlineStr">
+      <c r="D110" t="inlineStr">
         <is>
           <t>Global marine surface meteorological variables from 1851 to 2010 from comprehensive in-situ observations</t>
         </is>
       </c>
-      <c r="E109" t="inlineStr">
+      <c r="E110" t="inlineStr">
         <is>
           <t>This set of holdings provides access to surface marine meteorological weather reports and observations made by merchant 
 and naval ships, drifting buoys and other platforms and vessels over 
@@ -7835,111 +7907,39 @@
 at NOAA's National Centres for Environmental Information who are the WMO designated World Data Centre for meteorology.</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
+      <c r="F110" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/insitu-observations-surface-marine'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G109" t="inlineStr">
+      <c r="G110" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: In-situ observations', 'Variable domain: Atmosphere (surface)', 'Spatial coverage: Point data', 'Variable domain: Ocean (surface)']</t>
         </is>
       </c>
-      <c r="H109" t="inlineStr">
+      <c r="H110" t="inlineStr">
         <is>
           <t>CC-BY-4.0</t>
         </is>
       </c>
-      <c r="I109" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J109" t="inlineStr">
+      <c r="I110" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J110" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -90.0, 360.0, 90.0]]}, 'temporal': {'interval': [['1851-01-01T00:00:00Z', None]]}}</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L109" t="inlineStr">
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L110" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/insitu-observations-surface-marine/overview_cd43852d4657c75f31eca0bfe6a7a99ccaec980d7050bbf78b2c860e2941438f.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B110" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C110" t="inlineStr">
-        <is>
-          <t>satellite-sea-surface-temperature-ensemble-product</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr">
-        <is>
-          <t>Sea surface temperature daily gridded data from 1981 to 2016 derived from a multi-product satellite-based ensemble</t>
-        </is>
-      </c>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>This dataset provides global daily sea surface temperature (SST) data from the Group for High Resolution Sea Surface Temperature (GHRSST) multi-product ensemble (GMPE) produced by the European Space Agency SST Climate Change Initiative (ESA SST CCI). The GMPE system was designed to allow users to compare the outputs from different SST analysis systems and understand their similarities and differences. Although originally intended for comparison of near real time data, it has also been used to compare long historical datasets. Note that the dataset provided here is the climate version of the GMPE dataset. An operational version, with different input products and time coverage, also exists but is not distributed by the CDS.
-The SST analyses ingested into the GMPE system come from the following seven SST products and providers:
-ESA SST CCI Analysis version 2.0
-ESA SST CCI Analysis version 1.1
-Copernicus Marine Environment Monitoring Service (CMEMS) Operational Sea Surface Temperature and Sea Ice Analysis (OSTIA) Reprocessing
-National Centers for Environmental Information (NCEI) Advanced Very High Resolution Radiometer (AVHRR) Optimal Interpolation (OI) Global Blended SST Analysis
-Canada Meteorological Center (CMC) 0.2-degree Global Foundation SST Analysis
-Hadley Centre Sea Ice and Sea Surface Temperature (HadISST) Analysis version 2.2.0.0
-Japan Meteorological Agency (JMA) Merged satellite and in-situ Data Global Daily SST (MGDSST) Analysis
-These products are all spatially complete (through use of infilling or reconstruction techniques) but were originally produced for different purposes and with different user requirements in mind. Therefore, each producer has made different choices on aspects of data production such as which input observations to use and what type of SST to represent. For example, the CMEMS OSTIA, CMC, and MGDSST analyses attempt to represent the foundation SST (water temperature free of diurnal temperature variability) while the ESA SST CCI and HadISST analyses estimate the SST at a standard depth of 20 cm. The AVHRR OI product, on the other hand, is bias-corrected to in situ observations and hence will be representative of their depths.
-The GMPE dataset provides the median and standard deviation of the input SST products, the differences between each input product and the median, and the horizontal gradients in each of the input SST products as well as the final ensemble product. The HadISST product consists of 10 different realisations, therefore the median and standard deviation are calculated for an ensemble of 16 input fields. All fields are provided on a common 0.25 degree regular latitude-longitude grid and extend from 1 September 1981 to 31 December 2016, although some of the individual input products cover shorter periods. The dataset will not be extended beyond 2016.</t>
-        </is>
-      </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/satellite-sea-surface-temperature-ensemble-product'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'qa', 'href': 'https://cds.climate.copernicus.eu/datasets/satellite-sea-surface-temperature-ensemble-product?tab=quality_assurance_tab', 'title': 'Quality assessment of the dataset', 'type': 'text/html'}]</t>
-        </is>
-      </c>
-      <c r="G110" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Product type: Satellite observations', 'Variable domain: Ocean (physics)']</t>
-        </is>
-      </c>
-      <c r="H110" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I110" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J110" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1981-09-01T00:00:00Z', '2016-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/satellite-sea-surface-temperature-ensemble-product/overview_0c7b27f2e84011efc18ad30dce13eae676c70c4e221727691598b58b858450eb.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
@@ -9078,15 +9078,165 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
+          <t>projections-cmip5-daily-pressure-levels</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>CMIP5 daily data on pressure levels</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>This catalogue entry provides daily climate projections on pressure levels from a large number of experiments, models, members and time periods computed in the framework of fifth phase of the Coupled Model Intercomparison Project (CMIP5). The term "pressure levels" is used to express that the variables were computed at multiple vertical levels, which may differ in number and location among the different models.
+CMIP5 data are used extensively in the Intergovernmental Panel on Climate Change Assessment Reports (the latest one is IPCC AR5, which was published in 2014). The use of these data is mostly aimed at:
+addressing outstanding scientific questions that arose as part of the IPCC reporting process;
+improving the understanding of the climate system;
+providing estimates of future climate change and related uncertainties;
+providing input data for the adaptation to the climate change;
+examining climate predictability and exploring the ability of models to predict climate on decadal time scales;
+evaluating how realistic the different models are in simulating the recent past.
+The term "experiments" refers to the three main categories of CMIP5 simulations:
+Historical experiments which cover the period where modern climate observations exist. These experiments show how the GCMs performs for the past climate and can be used as a reference period for comparison with scenario runs for the future. The period covered is typically 1850-2005.;
+Ensemble of experiments from the Atmospheric Model Intercomparison Project (AMIP), which prescribes the oceanic variables for all models and during all period of the experiment. This configuration removes the added complexity of ocean-atmosphere feedbacks in the climate system. The period covered is typically 1950-2005.
+Ensemble of climate projection experiments following the Representative Concentration Pathways (RCP) 2.6, 4.5, 6.0 and 8.5. The RCP scenarios provide different pathways of the future climate forcing. The period covered is typically 2006-2100, some extended RCP experimental data is available from 2100-2300.
+In CMIP5, the same experiments were run using different GCMs. In addition, for each model, the same experiment was repeatedly done using slightly different conditions (like initial conditions or different physical parameterisations for instance) producing in that way an ensemble of experiments closely related. Note that CMIP5 GCM data can be also used as lateral boundary conditions for Regional Climate Models (RCMs). RCMs are also available in the CDS (see CORDEX datasets). 
+The data are produced by the participating institutes of the CMIP5 project. The latest CMIP GCM experiments will form the CMIP6 dataset, which will be published in the CDS in a later stage.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip5-daily-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G127" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I127" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J127" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L127" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip5-daily-pressure-levels/overview_d20a5fa9bdbbffb7926e0eff00ffa33e7cc301a4d5298b88a568550c76e95ab9.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>projections-cmip5-monthly-pressure-levels</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>CMIP5 monthly data on pressure levels</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>This catalogue entry provides monthly climate projections on pressure levels from a large number of experiments, models, members and time periods computed in the framework of the fifth phase of the Coupled Model Intercomparison Project (CMIP5). The term "pressure levels" is used to express that the variables were computed at multiple vertical levels, which may differ in number and location among the different models.
+CMIP5 data are used extensively in the Intergovernmental Panel on Climate Change Assessment Reports (the latest one is IPCC AR5, which was published in 2014). The use of these data is mostly aimed at:
+addressing outstanding scientific questions that arose as part of the IPCC reporting process;
+improving the understanding of the climate system;
+providing estimates of future climate change and related uncertainties;
+providing input data for the adaptation to the climate change;
+examining climate predictability and exploring the ability of models to predict climate on decadal time scales;
+evaluating how realistic the different models are in simulating the recent past.
+The term "experiments" refers to the three main categories of CMIP5 simulations:
+Historical experiments which cover the period where modern climate observations exist. These experiments show how the GCMs performs for the past climate and can be used as a reference period for comparison with scenario runs for the future. The period covered is typically 1850-2005.;
+Ensemble of experiments from the Atmospheric Model Intercomparison Project (AMIP), which prescribes the oceanic variables for all models and during all period of the experiment. This configuration removes the added complexity of ocean-atmosphere feedbacks in the climate system. The period covered is typically 1950-2005.
+Ensemble of climate projection experiments following the Representative Concentration Pathways (RCP) 2.6, 4.5, 6.0 and 8.5. The RCP scenarios provide different pathways of the future climate forcing. The period covered is typically 2006-2100, some extended RCP experimental data is available from 2100-2300.
+In CMIP5, the same experiments were run using different GCMs. In addition, for each model, the same experiment was repeatedly done using slightly different conditions (like initial conditions or different physical parameterisations for instance) producing in that way an ensemble of experiments closely related. Note that CMIP5 GCM data can be also used as lateral boundary conditions for Regional Climate Models (RCMs). RCMs are also available in the CDS (see CORDEX datasets). 
+The data are produced by the participating institutes of the CMIP5 project. The latest CMIP GCM experiments will form the CMIP6 dataset, which will be published in the CDS in a later stage.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip5-monthly-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
+        </is>
+      </c>
+      <c r="G128" t="inlineStr">
+        <is>
+          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
+        </is>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>other</t>
+        </is>
+      </c>
+      <c r="I128" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J128" t="inlineStr">
+        <is>
+          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
+        </is>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L128" t="inlineStr">
+        <is>
+          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip5-monthly-pressure-levels/overview_dd78358afb18eef18730b253a31df897d8b70482b6e546b2ffb456b08c22e998.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Collection</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1.1.0</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
           <t>projections-cmip5-monthly-single-levels</t>
         </is>
       </c>
-      <c r="D127" t="inlineStr">
+      <c r="D129" t="inlineStr">
         <is>
           <t>CMIP5 monthly data on single levels</t>
         </is>
       </c>
-      <c r="E127" t="inlineStr">
+      <c r="E129" t="inlineStr">
         <is>
           <t>This catalogue entry provides monthly climate projections on single levels from a large number of experiments, models, members and time periods computed in the framework of fifth phase of the Coupled Model Intercomparison Project (CMIP5). The term "single levels" is used to express that the variables are computed at one vertical level which can be surface (or a level close to the surface) or a dedicated pressure level in the atmosphere. Multiple vertical levels are excluded from this catalogue entry.
 CMIP5 data are used extensively in the Intergovernmental Panel on Climate Change Assessment Reports (the latest one is IPCC AR5, which was published in 2014). The use of these data is mostly aimed at:
@@ -9104,189 +9254,39 @@
 The data are produced by the participating institutes of the CMIP5 project. The latest CMIP GCM experiments will form the CMIP6 dataset, which will be published in the CDS in a later stage.</t>
         </is>
       </c>
-      <c r="F127" t="inlineStr">
+      <c r="F129" t="inlineStr">
         <is>
           <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip5-monthly-single-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
         </is>
       </c>
-      <c r="G127" t="inlineStr">
+      <c r="G129" t="inlineStr">
         <is>
           <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
         </is>
       </c>
-      <c r="H127" t="inlineStr">
+      <c r="H129" t="inlineStr">
         <is>
           <t>other</t>
         </is>
       </c>
-      <c r="I127" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J127" t="inlineStr">
+      <c r="I129" t="inlineStr">
+        <is>
+          <t>[{'name': 'ECMWF'}]</t>
+        </is>
+      </c>
+      <c r="J129" t="inlineStr">
         <is>
           <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L127" t="inlineStr">
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>{}</t>
+        </is>
+      </c>
+      <c r="L129" t="inlineStr">
         <is>
           <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip5-monthly-single-levels/overview_32a68efa7c20c586deec76ddb1bcc9271780413f37382f1fe5f0a1acfa916c96.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="128">
-      <c r="A128" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B128" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C128" t="inlineStr">
-        <is>
-          <t>projections-cmip5-daily-pressure-levels</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr">
-        <is>
-          <t>CMIP5 daily data on pressure levels</t>
-        </is>
-      </c>
-      <c r="E128" t="inlineStr">
-        <is>
-          <t>This catalogue entry provides daily climate projections on pressure levels from a large number of experiments, models, members and time periods computed in the framework of fifth phase of the Coupled Model Intercomparison Project (CMIP5). The term "pressure levels" is used to express that the variables were computed at multiple vertical levels, which may differ in number and location among the different models.
-CMIP5 data are used extensively in the Intergovernmental Panel on Climate Change Assessment Reports (the latest one is IPCC AR5, which was published in 2014). The use of these data is mostly aimed at:
-addressing outstanding scientific questions that arose as part of the IPCC reporting process;
-improving the understanding of the climate system;
-providing estimates of future climate change and related uncertainties;
-providing input data for the adaptation to the climate change;
-examining climate predictability and exploring the ability of models to predict climate on decadal time scales;
-evaluating how realistic the different models are in simulating the recent past.
-The term "experiments" refers to the three main categories of CMIP5 simulations:
-Historical experiments which cover the period where modern climate observations exist. These experiments show how the GCMs performs for the past climate and can be used as a reference period for comparison with scenario runs for the future. The period covered is typically 1850-2005.;
-Ensemble of experiments from the Atmospheric Model Intercomparison Project (AMIP), which prescribes the oceanic variables for all models and during all period of the experiment. This configuration removes the added complexity of ocean-atmosphere feedbacks in the climate system. The period covered is typically 1950-2005.
-Ensemble of climate projection experiments following the Representative Concentration Pathways (RCP) 2.6, 4.5, 6.0 and 8.5. The RCP scenarios provide different pathways of the future climate forcing. The period covered is typically 2006-2100, some extended RCP experimental data is available from 2100-2300.
-In CMIP5, the same experiments were run using different GCMs. In addition, for each model, the same experiment was repeatedly done using slightly different conditions (like initial conditions or different physical parameterisations for instance) producing in that way an ensemble of experiments closely related. Note that CMIP5 GCM data can be also used as lateral boundary conditions for Regional Climate Models (RCMs). RCMs are also available in the CDS (see CORDEX datasets). 
-The data are produced by the participating institutes of the CMIP5 project. The latest CMIP GCM experiments will form the CMIP6 dataset, which will be published in the CDS in a later stage.</t>
-        </is>
-      </c>
-      <c r="F128" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip5-daily-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G128" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
-        </is>
-      </c>
-      <c r="H128" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I128" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J128" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip5-daily-pressure-levels/overview_d20a5fa9bdbbffb7926e0eff00ffa33e7cc301a4d5298b88a568550c76e95ab9.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
-        </is>
-      </c>
-    </row>
-    <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t>Collection</t>
-        </is>
-      </c>
-      <c r="B129" t="inlineStr">
-        <is>
-          <t>1.1.0</t>
-        </is>
-      </c>
-      <c r="C129" t="inlineStr">
-        <is>
-          <t>projections-cmip5-monthly-pressure-levels</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr">
-        <is>
-          <t>CMIP5 monthly data on pressure levels</t>
-        </is>
-      </c>
-      <c r="E129" t="inlineStr">
-        <is>
-          <t>This catalogue entry provides monthly climate projections on pressure levels from a large number of experiments, models, members and time periods computed in the framework of the fifth phase of the Coupled Model Intercomparison Project (CMIP5). The term "pressure levels" is used to express that the variables were computed at multiple vertical levels, which may differ in number and location among the different models.
-CMIP5 data are used extensively in the Intergovernmental Panel on Climate Change Assessment Reports (the latest one is IPCC AR5, which was published in 2014). The use of these data is mostly aimed at:
-addressing outstanding scientific questions that arose as part of the IPCC reporting process;
-improving the understanding of the climate system;
-providing estimates of future climate change and related uncertainties;
-providing input data for the adaptation to the climate change;
-examining climate predictability and exploring the ability of models to predict climate on decadal time scales;
-evaluating how realistic the different models are in simulating the recent past.
-The term "experiments" refers to the three main categories of CMIP5 simulations:
-Historical experiments which cover the period where modern climate observations exist. These experiments show how the GCMs performs for the past climate and can be used as a reference period for comparison with scenario runs for the future. The period covered is typically 1850-2005.;
-Ensemble of experiments from the Atmospheric Model Intercomparison Project (AMIP), which prescribes the oceanic variables for all models and during all period of the experiment. This configuration removes the added complexity of ocean-atmosphere feedbacks in the climate system. The period covered is typically 1950-2005.
-Ensemble of climate projection experiments following the Representative Concentration Pathways (RCP) 2.6, 4.5, 6.0 and 8.5. The RCP scenarios provide different pathways of the future climate forcing. The period covered is typically 2006-2100, some extended RCP experimental data is available from 2100-2300.
-In CMIP5, the same experiments were run using different GCMs. In addition, for each model, the same experiment was repeatedly done using slightly different conditions (like initial conditions or different physical parameterisations for instance) producing in that way an ensemble of experiments closely related. Note that CMIP5 GCM data can be also used as lateral boundary conditions for Regional Climate Models (RCMs). RCMs are also available in the CDS (see CORDEX datasets). 
-The data are produced by the participating institutes of the CMIP5 project. The latest CMIP GCM experiments will form the CMIP6 dataset, which will be published in the CDS in a later stage.</t>
-        </is>
-      </c>
-      <c r="F129" t="inlineStr">
-        <is>
-          <t>[{'rel': 'self', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/collections/projections-cmip5-monthly-pressure-levels'}, {'rel': 'parent', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}, {'rel': 'root', 'type': 'application/json', 'href': 'https://cds.climate.copernicus.eu/api/catalogue/v1/'}]</t>
-        </is>
-      </c>
-      <c r="G129" t="inlineStr">
-        <is>
-          <t>['Temporal coverage: Past', 'Spatial coverage: Global', 'Temporal coverage: Present', 'Variable domain: Atmosphere (surface)', 'Variable domain: Atmosphere (upper air)', 'Product type: Climate projections', 'Temporal coverage: Future']</t>
-        </is>
-      </c>
-      <c r="H129" t="inlineStr">
-        <is>
-          <t>other</t>
-        </is>
-      </c>
-      <c r="I129" t="inlineStr">
-        <is>
-          <t>[{'name': 'ECMWF'}]</t>
-        </is>
-      </c>
-      <c r="J129" t="inlineStr">
-        <is>
-          <t>{'spatial': {'bbox': [[0.0, -89.0, 360.0, 89.0]]}, 'temporal': {'interval': [['1860-01-01T00:00:00Z', '2300-12-31T00:00:00Z']]}}</t>
-        </is>
-      </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>{}</t>
-        </is>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>{'thumbnail': {'href': 'https://object-store.os-api.cci2.ecmwf.int:443/cci2-prod-catalogue/resources/projections-cmip5-monthly-pressure-levels/overview_dd78358afb18eef18730b253a31df897d8b70482b6e546b2ffb456b08c22e998.png', 'type': 'image/jpg', 'roles': ['thumbnail']}}</t>
         </is>
       </c>
     </row>
